--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/25/Output_15_31.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/25/Output_15_31.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1337472.93789155</v>
+        <v>1336795.11721128</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>313298.4515052312</v>
+        <v>313298.4515052313</v>
       </c>
     </row>
     <row r="8">
@@ -1373,7 +1373,7 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>122.0492982736044</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -1385,10 +1385,10 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>122.0492982736047</v>
       </c>
       <c r="I11" t="n">
-        <v>46.21360886079826</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,25 +1418,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>32.88999934163203</v>
+        <v>32.88999934163205</v>
       </c>
       <c r="T11" t="n">
-        <v>28.03643329293227</v>
+        <v>28.03643329293226</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>46.57458928482658</v>
       </c>
       <c r="V11" t="n">
-        <v>0.3609804240280852</v>
+        <v>122.0492982736047</v>
       </c>
       <c r="W11" t="n">
-        <v>122.0492982736044</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>122.0492982736044</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>122.0492982736047</v>
       </c>
     </row>
     <row r="12">
@@ -1449,16 +1449,16 @@
         <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>117.6682934633406</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>35.00346616487609</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>122.0492982736044</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
@@ -1503,13 +1503,13 @@
         <v>20.565306530728</v>
       </c>
       <c r="U12" t="n">
-        <v>42.84521610603979</v>
+        <v>122.0492982736047</v>
       </c>
       <c r="V12" t="n">
-        <v>46.26644524054757</v>
+        <v>122.0492982736047</v>
       </c>
       <c r="W12" t="n">
-        <v>72.32210790215692</v>
+        <v>122.0492982736047</v>
       </c>
       <c r="X12" t="n">
         <v>22.93043876461593</v>
@@ -1604,10 +1604,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>112.8566801745744</v>
       </c>
       <c r="C14" t="n">
-        <v>122.0492982736047</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -1658,7 +1658,7 @@
         <v>32.88999934163196</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>28.03643329293218</v>
       </c>
       <c r="U14" t="n">
         <v>55.76720738385723</v>
@@ -1667,7 +1667,7 @@
         <v>122.0492982736047</v>
       </c>
       <c r="W14" t="n">
-        <v>18.84381519390173</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -1683,7 +1683,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>16.18430172046496</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
@@ -1737,10 +1737,10 @@
         <v>122.0492982736047</v>
       </c>
       <c r="T15" t="n">
-        <v>20.56530653072792</v>
+        <v>122.0492982736047</v>
       </c>
       <c r="U15" t="n">
-        <v>122.0492982736047</v>
+        <v>42.84521610603971</v>
       </c>
       <c r="V15" t="n">
         <v>46.26644524054748</v>
@@ -1749,7 +1749,7 @@
         <v>72.32210790215683</v>
       </c>
       <c r="X15" t="n">
-        <v>61.39465006039258</v>
+        <v>22.93043876461584</v>
       </c>
       <c r="Y15" t="n">
         <v>29.00181045917085</v>
@@ -1926,52 +1926,52 @@
         <v>0</v>
       </c>
       <c r="D18" t="n">
+        <v>0</v>
+      </c>
+      <c r="E18" t="n">
         <v>107.501021919391</v>
       </c>
-      <c r="E18" t="n">
+      <c r="F18" t="n">
+        <v>0</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0</v>
+      </c>
+      <c r="L18" t="n">
+        <v>0</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0</v>
+      </c>
+      <c r="O18" t="n">
+        <v>0</v>
+      </c>
+      <c r="P18" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>0</v>
+      </c>
+      <c r="R18" t="n">
         <v>122.0492982736047</v>
       </c>
-      <c r="F18" t="n">
-        <v>0</v>
-      </c>
-      <c r="G18" t="n">
-        <v>0</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
-      <c r="J18" t="n">
-        <v>0</v>
-      </c>
-      <c r="K18" t="n">
-        <v>0</v>
-      </c>
-      <c r="L18" t="n">
-        <v>0</v>
-      </c>
-      <c r="M18" t="n">
-        <v>0</v>
-      </c>
-      <c r="N18" t="n">
-        <v>0</v>
-      </c>
-      <c r="O18" t="n">
-        <v>0</v>
-      </c>
-      <c r="P18" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>0</v>
-      </c>
-      <c r="R18" t="n">
-        <v>0</v>
-      </c>
       <c r="S18" t="n">
-        <v>122.0492982736047</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
         <v>122.0492982736047</v>
@@ -1980,7 +1980,7 @@
         <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>122.0492982736047</v>
       </c>
       <c r="W18" t="n">
         <v>0</v>
@@ -2078,7 +2078,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>53.20745676868137</v>
+        <v>53.2074567686814</v>
       </c>
       <c r="C20" t="n">
         <v>29.32571377202686</v>
@@ -2166,7 +2166,7 @@
         <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>122.0492982736047</v>
       </c>
       <c r="F21" t="n">
         <v>0</v>
@@ -2211,7 +2211,7 @@
         <v>122.0492982736047</v>
       </c>
       <c r="T21" t="n">
-        <v>107.501021919391</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
         <v>122.0492982736047</v>
@@ -2223,10 +2223,10 @@
         <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>107.501021919391</v>
       </c>
       <c r="Y21" t="n">
-        <v>122.0492982736047</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -2330,7 +2330,7 @@
         <v>82.31946603086152</v>
       </c>
       <c r="G23" t="n">
-        <v>97.9476589292745</v>
+        <v>97.94765892927447</v>
       </c>
       <c r="H23" t="n">
         <v>26.03172204233385</v>
@@ -2403,64 +2403,64 @@
         <v>0</v>
       </c>
       <c r="E24" t="n">
+        <v>0</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0</v>
+      </c>
+      <c r="H24" t="n">
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
+        <v>0</v>
+      </c>
+      <c r="J24" t="n">
+        <v>0</v>
+      </c>
+      <c r="K24" t="n">
+        <v>0</v>
+      </c>
+      <c r="L24" t="n">
+        <v>0</v>
+      </c>
+      <c r="M24" t="n">
+        <v>0</v>
+      </c>
+      <c r="N24" t="n">
+        <v>0</v>
+      </c>
+      <c r="O24" t="n">
+        <v>0</v>
+      </c>
+      <c r="P24" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>0</v>
+      </c>
+      <c r="R24" t="n">
+        <v>0</v>
+      </c>
+      <c r="S24" t="n">
         <v>107.5010219193909</v>
       </c>
-      <c r="F24" t="n">
-        <v>122.0492982736046</v>
-      </c>
-      <c r="G24" t="n">
-        <v>0</v>
-      </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
-      <c r="I24" t="n">
-        <v>0</v>
-      </c>
-      <c r="J24" t="n">
-        <v>0</v>
-      </c>
-      <c r="K24" t="n">
-        <v>0</v>
-      </c>
-      <c r="L24" t="n">
-        <v>0</v>
-      </c>
-      <c r="M24" t="n">
-        <v>0</v>
-      </c>
-      <c r="N24" t="n">
-        <v>0</v>
-      </c>
-      <c r="O24" t="n">
-        <v>0</v>
-      </c>
-      <c r="P24" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q24" t="n">
-        <v>0</v>
-      </c>
-      <c r="R24" t="n">
-        <v>0</v>
-      </c>
-      <c r="S24" t="n">
-        <v>0</v>
-      </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>122.0492982736047</v>
       </c>
       <c r="U24" t="n">
-        <v>122.0492982736046</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>122.0492982736046</v>
+        <v>122.0492982736047</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>122.0492982736047</v>
       </c>
       <c r="Y24" t="n">
         <v>0</v>
@@ -2561,7 +2561,7 @@
         <v>124.8550023940869</v>
       </c>
       <c r="E26" t="n">
-        <v>158.5617548134958</v>
+        <v>158.5617548134957</v>
       </c>
       <c r="F26" t="n">
         <v>190.2820923918731</v>
@@ -2573,7 +2573,7 @@
         <v>133.9943484033454</v>
       </c>
       <c r="I26" t="n">
-        <v>27.67892728751255</v>
+        <v>27.67892728751252</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,13 +2603,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>14.35531776834632</v>
+        <v>14.35531776834629</v>
       </c>
       <c r="T26" t="n">
-        <v>9.501751719646544</v>
+        <v>9.501751719646515</v>
       </c>
       <c r="U26" t="n">
-        <v>37.23252581057159</v>
+        <v>37.23252581057156</v>
       </c>
       <c r="V26" t="n">
         <v>107.9626263610116</v>
@@ -2637,7 +2637,7 @@
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
         <v>0</v>
@@ -2676,31 +2676,31 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>6.136586121265637</v>
       </c>
       <c r="R27" t="n">
-        <v>49.33502924306172</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>2.030624957442276</v>
+        <v>214.9477822055827</v>
       </c>
       <c r="U27" t="n">
-        <v>237.2276917808945</v>
+        <v>226.6812927311288</v>
       </c>
       <c r="V27" t="n">
-        <v>27.73176366726184</v>
+        <v>27.73176366726182</v>
       </c>
       <c r="W27" t="n">
-        <v>266.7045835770116</v>
+        <v>53.78742632887116</v>
       </c>
       <c r="X27" t="n">
-        <v>4.395757191330205</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y27" t="n">
-        <v>10.46712888588522</v>
+        <v>10.46712888588519</v>
       </c>
     </row>
     <row r="28">
@@ -2761,25 +2761,25 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>22.43700444542694</v>
+        <v>22.43700444542691</v>
       </c>
       <c r="T28" t="n">
-        <v>10.82383528870936</v>
+        <v>10.82383528870933</v>
       </c>
       <c r="U28" t="n">
-        <v>75.73913717684896</v>
+        <v>75.73913717684893</v>
       </c>
       <c r="V28" t="n">
-        <v>32.1918579363095</v>
+        <v>32.19185793630948</v>
       </c>
       <c r="W28" t="n">
-        <v>77.39354984119493</v>
+        <v>77.3935498411949</v>
       </c>
       <c r="X28" t="n">
-        <v>9.002298160102129</v>
+        <v>9.0022981601021</v>
       </c>
       <c r="Y28" t="n">
-        <v>4.224115566028019</v>
+        <v>4.22411556602799</v>
       </c>
     </row>
     <row r="29">
@@ -2795,13 +2795,13 @@
         <v>137.2883401330385</v>
       </c>
       <c r="D29" t="n">
-        <v>124.855002394087</v>
+        <v>124.8550023940869</v>
       </c>
       <c r="E29" t="n">
         <v>158.5617548134958</v>
       </c>
       <c r="F29" t="n">
-        <v>190.2820923918732</v>
+        <v>190.2820923918731</v>
       </c>
       <c r="G29" t="n">
         <v>205.9102852902861</v>
@@ -2810,7 +2810,7 @@
         <v>133.9943484033455</v>
       </c>
       <c r="I29" t="n">
-        <v>27.67892728751263</v>
+        <v>27.67892728751259</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,25 +2840,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>14.35531776834641</v>
+        <v>14.35531776834638</v>
       </c>
       <c r="T29" t="n">
-        <v>9.501751719646629</v>
+        <v>9.501751719646601</v>
       </c>
       <c r="U29" t="n">
-        <v>37.23252581057167</v>
+        <v>37.23252581057164</v>
       </c>
       <c r="V29" t="n">
         <v>107.9626263610117</v>
       </c>
       <c r="W29" t="n">
-        <v>124.9793065776266</v>
+        <v>124.9793065776265</v>
       </c>
       <c r="X29" t="n">
         <v>146.8655570465658</v>
       </c>
       <c r="Y29" t="n">
-        <v>169.3684101703096</v>
+        <v>169.3684101703095</v>
       </c>
     </row>
     <row r="30">
@@ -2871,13 +2871,13 @@
         <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D30" t="n">
         <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>74.14400670476462</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
         <v>0</v>
@@ -2922,22 +2922,22 @@
         <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>2.030624957442361</v>
+        <v>2.030624957442333</v>
       </c>
       <c r="U30" t="n">
         <v>237.2276917808945</v>
       </c>
       <c r="V30" t="n">
-        <v>27.73176366726193</v>
+        <v>27.7317636672619</v>
       </c>
       <c r="W30" t="n">
-        <v>53.78742632887128</v>
+        <v>53.78742632887125</v>
       </c>
       <c r="X30" t="n">
-        <v>217.3129144394706</v>
+        <v>4.395757191330262</v>
       </c>
       <c r="Y30" t="n">
-        <v>10.4671288858853</v>
+        <v>110.0101413144246</v>
       </c>
     </row>
     <row r="31">
@@ -2998,25 +2998,25 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>22.43700444542702</v>
+        <v>22.437004445427</v>
       </c>
       <c r="T31" t="n">
-        <v>10.82383528870945</v>
+        <v>10.82383528870942</v>
       </c>
       <c r="U31" t="n">
-        <v>75.73913717684904</v>
+        <v>75.73913717684901</v>
       </c>
       <c r="V31" t="n">
-        <v>32.19185793630959</v>
+        <v>32.19185793630956</v>
       </c>
       <c r="W31" t="n">
-        <v>77.39354984119501</v>
+        <v>77.39354984119498</v>
       </c>
       <c r="X31" t="n">
-        <v>9.002298160102214</v>
+        <v>9.002298160102185</v>
       </c>
       <c r="Y31" t="n">
-        <v>4.224115566028104</v>
+        <v>4.224115566028075</v>
       </c>
     </row>
     <row r="32">
@@ -3047,7 +3047,7 @@
         <v>133.9943484033455</v>
       </c>
       <c r="I32" t="n">
-        <v>27.67892728751263</v>
+        <v>27.67892728751264</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,10 +3077,10 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>14.35531776834641</v>
+        <v>14.3553177683464</v>
       </c>
       <c r="T32" t="n">
-        <v>9.501751719646629</v>
+        <v>9.50175171964662</v>
       </c>
       <c r="U32" t="n">
         <v>37.23252581057167</v>
@@ -3150,7 +3150,7 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>6.136586121265637</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -3159,7 +3159,7 @@
         <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>2.030624957442361</v>
+        <v>214.9477822055827</v>
       </c>
       <c r="U33" t="n">
         <v>24.31053453275416</v>
@@ -3171,10 +3171,10 @@
         <v>53.78742632887128</v>
       </c>
       <c r="X33" t="n">
-        <v>212.9031015109701</v>
+        <v>206.7665153897046</v>
       </c>
       <c r="Y33" t="n">
-        <v>223.3842861340256</v>
+        <v>10.4671288858853</v>
       </c>
     </row>
     <row r="34">
@@ -3263,25 +3263,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>125.9940064659682</v>
+        <v>125.9940064659681</v>
       </c>
       <c r="C35" t="n">
-        <v>102.1122634693137</v>
+        <v>102.1122634693136</v>
       </c>
       <c r="D35" t="n">
-        <v>89.67892573036212</v>
+        <v>89.67892573036204</v>
       </c>
       <c r="E35" t="n">
-        <v>123.385678149771</v>
+        <v>123.3856781497709</v>
       </c>
       <c r="F35" t="n">
-        <v>155.1060157281483</v>
+        <v>155.1060157281482</v>
       </c>
       <c r="G35" t="n">
-        <v>170.7342086265613</v>
+        <v>170.7342086265612</v>
       </c>
       <c r="H35" t="n">
-        <v>98.81827173962066</v>
+        <v>98.81827173962057</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3320,19 +3320,19 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>2.056449146846822</v>
+        <v>2.056449146846745</v>
       </c>
       <c r="V35" t="n">
-        <v>72.78654969728686</v>
+        <v>72.78654969728677</v>
       </c>
       <c r="W35" t="n">
-        <v>89.80322991390173</v>
+        <v>89.80322991390165</v>
       </c>
       <c r="X35" t="n">
-        <v>111.689480382841</v>
+        <v>111.6894803828409</v>
       </c>
       <c r="Y35" t="n">
-        <v>134.1923335065847</v>
+        <v>134.1923335065846</v>
       </c>
     </row>
     <row r="36">
@@ -3348,10 +3348,10 @@
         <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>38.48596031295736</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
         <v>0</v>
@@ -3387,10 +3387,10 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>6.136586121265637</v>
       </c>
       <c r="R36" t="n">
-        <v>134.3633376148752</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>191.4841495043256</v>
@@ -3405,13 +3405,13 @@
         <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>18.61134966514643</v>
+        <v>121.1120904142664</v>
       </c>
       <c r="X36" t="n">
         <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>0</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="37">
@@ -3478,13 +3478,13 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>40.56306051312419</v>
+        <v>40.56306051312411</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>42.21747317747017</v>
+        <v>42.21747317747008</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -3500,25 +3500,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>125.9940064659682</v>
+        <v>125.9940064659681</v>
       </c>
       <c r="C38" t="n">
-        <v>102.1122634693137</v>
+        <v>102.1122634693136</v>
       </c>
       <c r="D38" t="n">
-        <v>89.67892573036212</v>
+        <v>89.67892573036204</v>
       </c>
       <c r="E38" t="n">
-        <v>123.385678149771</v>
+        <v>123.3856781497709</v>
       </c>
       <c r="F38" t="n">
-        <v>155.1060157281483</v>
+        <v>155.1060157281482</v>
       </c>
       <c r="G38" t="n">
-        <v>170.7342086265613</v>
+        <v>170.7342086265612</v>
       </c>
       <c r="H38" t="n">
-        <v>98.81827173962066</v>
+        <v>98.81827173962057</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3557,19 +3557,19 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>2.056449146846822</v>
+        <v>2.056449146846745</v>
       </c>
       <c r="V38" t="n">
-        <v>72.78654969728686</v>
+        <v>72.78654969728677</v>
       </c>
       <c r="W38" t="n">
-        <v>89.80322991390173</v>
+        <v>89.80322991390165</v>
       </c>
       <c r="X38" t="n">
-        <v>111.689480382841</v>
+        <v>111.6894803828409</v>
       </c>
       <c r="Y38" t="n">
-        <v>134.1923335065847</v>
+        <v>134.1923335065846</v>
       </c>
     </row>
     <row r="39">
@@ -3579,7 +3579,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C39" t="n">
         <v>187.5181515243659</v>
@@ -3630,25 +3630,25 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>191.4841495043256</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
         <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>237.2276917808945</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>126.0916648804228</v>
       </c>
       <c r="W39" t="n">
-        <v>18.61134966514643</v>
+        <v>266.7045835770116</v>
       </c>
       <c r="X39" t="n">
         <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>122.2235519047335</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -3715,13 +3715,13 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>40.56306051312419</v>
+        <v>40.56306051312411</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>42.21747317747017</v>
+        <v>42.21747317747008</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -3743,13 +3743,13 @@
         <v>109.6094128455259</v>
       </c>
       <c r="D41" t="n">
-        <v>97.17607510657436</v>
+        <v>97.17607510657433</v>
       </c>
       <c r="E41" t="n">
         <v>130.8828275259832</v>
       </c>
       <c r="F41" t="n">
-        <v>162.6031651043606</v>
+        <v>162.6031651043605</v>
       </c>
       <c r="G41" t="n">
         <v>178.2313580027735</v>
@@ -3794,19 +3794,19 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>9.553598523059065</v>
+        <v>9.55359852305903</v>
       </c>
       <c r="V41" t="n">
-        <v>80.28369907349909</v>
+        <v>80.28369907349906</v>
       </c>
       <c r="W41" t="n">
-        <v>97.30037929011397</v>
+        <v>97.30037929011394</v>
       </c>
       <c r="X41" t="n">
         <v>119.1866297590532</v>
       </c>
       <c r="Y41" t="n">
-        <v>141.689482882797</v>
+        <v>141.6894828827969</v>
       </c>
     </row>
     <row r="42">
@@ -3816,7 +3816,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C42" t="n">
         <v>0</v>
@@ -3870,22 +3870,22 @@
         <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>132.5598506738041</v>
+        <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>179.1936424101641</v>
       </c>
       <c r="V42" t="n">
-        <v>240.6489209154022</v>
+        <v>0.05283637974929434</v>
       </c>
       <c r="W42" t="n">
-        <v>26.10849904135867</v>
+        <v>266.7045835770116</v>
       </c>
       <c r="X42" t="n">
         <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>223.3842861340256</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -3952,13 +3952,13 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>48.06020988933643</v>
+        <v>48.0602098893364</v>
       </c>
       <c r="V43" t="n">
-        <v>4.512930648796981</v>
+        <v>4.512930648796953</v>
       </c>
       <c r="W43" t="n">
-        <v>49.7146225536824</v>
+        <v>49.71462255368237</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -3980,13 +3980,13 @@
         <v>109.6094128455259</v>
       </c>
       <c r="D44" t="n">
-        <v>97.17607510657436</v>
+        <v>97.17607510657433</v>
       </c>
       <c r="E44" t="n">
         <v>130.8828275259832</v>
       </c>
       <c r="F44" t="n">
-        <v>162.6031651043606</v>
+        <v>162.6031651043605</v>
       </c>
       <c r="G44" t="n">
         <v>178.2313580027735</v>
@@ -4031,19 +4031,19 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>9.553598523059058</v>
+        <v>9.55359852305903</v>
       </c>
       <c r="V44" t="n">
-        <v>80.28369907349909</v>
+        <v>80.28369907349906</v>
       </c>
       <c r="W44" t="n">
-        <v>97.30037929011397</v>
+        <v>97.30037929011394</v>
       </c>
       <c r="X44" t="n">
-        <v>119.1866297590533</v>
+        <v>119.1866297590532</v>
       </c>
       <c r="Y44" t="n">
-        <v>141.689482882797</v>
+        <v>141.6894828827969</v>
       </c>
     </row>
     <row r="45">
@@ -4056,7 +4056,7 @@
         <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>187.5181515243659</v>
+        <v>15.72112411198825</v>
       </c>
       <c r="D45" t="n">
         <v>0</v>
@@ -4068,7 +4068,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>148.7388631915159</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -4101,28 +4101,28 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>105.0533390943836</v>
+        <v>134.3633376148752</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>191.4841495043256</v>
       </c>
       <c r="T45" t="n">
-        <v>214.9477822055827</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
         <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>0.05283637974932276</v>
+        <v>0.05283637974929434</v>
       </c>
       <c r="W45" t="n">
-        <v>26.10849904135867</v>
+        <v>266.7045835770116</v>
       </c>
       <c r="X45" t="n">
         <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>223.3842861340256</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -4189,13 +4189,13 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>48.06020988933643</v>
+        <v>48.0602098893364</v>
       </c>
       <c r="V46" t="n">
-        <v>4.512930648796981</v>
+        <v>4.512930648796953</v>
       </c>
       <c r="W46" t="n">
-        <v>49.7146225536824</v>
+        <v>49.71462255368237</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>179.726476320881</v>
+        <v>133.0460633301759</v>
       </c>
       <c r="C11" t="n">
-        <v>179.726476320881</v>
+        <v>133.0460633301759</v>
       </c>
       <c r="D11" t="n">
-        <v>56.4443568525937</v>
+        <v>133.0460633301759</v>
       </c>
       <c r="E11" t="n">
-        <v>56.4443568525937</v>
+        <v>133.0460633301759</v>
       </c>
       <c r="F11" t="n">
-        <v>56.4443568525937</v>
+        <v>133.0460633301759</v>
       </c>
       <c r="G11" t="n">
-        <v>56.4443568525937</v>
+        <v>133.0460633301759</v>
       </c>
       <c r="H11" t="n">
-        <v>56.4443568525937</v>
+        <v>9.763943861888375</v>
       </c>
       <c r="I11" t="n">
-        <v>9.763943861888356</v>
+        <v>9.763943861888375</v>
       </c>
       <c r="J11" t="n">
-        <v>18.23878872397302</v>
+        <v>9.763943861888375</v>
       </c>
       <c r="K11" t="n">
-        <v>18.23878872397302</v>
+        <v>9.763943861888375</v>
       </c>
       <c r="L11" t="n">
-        <v>66.63603921096032</v>
+        <v>130.592749152757</v>
       </c>
       <c r="M11" t="n">
-        <v>149.3632652140772</v>
+        <v>213.3199751558739</v>
       </c>
       <c r="N11" t="n">
-        <v>226.5866682055821</v>
+        <v>334.1487804467425</v>
       </c>
       <c r="O11" t="n">
-        <v>262.5971791047622</v>
+        <v>370.1592913459227</v>
       </c>
       <c r="P11" t="n">
-        <v>383.4259843956306</v>
+        <v>383.4259843956315</v>
       </c>
       <c r="Q11" t="n">
-        <v>488.1971930944178</v>
+        <v>488.1971930944187</v>
       </c>
       <c r="R11" t="n">
-        <v>488.1971930944178</v>
+        <v>488.1971930944187</v>
       </c>
       <c r="S11" t="n">
-        <v>454.9749715372137</v>
+        <v>454.9749715372146</v>
       </c>
       <c r="T11" t="n">
-        <v>426.6553419483932</v>
+        <v>426.6553419483941</v>
       </c>
       <c r="U11" t="n">
-        <v>426.6553419483932</v>
+        <v>379.6103022667511</v>
       </c>
       <c r="V11" t="n">
-        <v>426.2907152574558</v>
+        <v>256.3281827984635</v>
       </c>
       <c r="W11" t="n">
-        <v>303.0085957891683</v>
+        <v>256.3281827984635</v>
       </c>
       <c r="X11" t="n">
-        <v>179.726476320881</v>
+        <v>256.3281827984635</v>
       </c>
       <c r="Y11" t="n">
-        <v>179.726476320881</v>
+        <v>133.0460633301759</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>251.9029254143581</v>
+        <v>45.12098039206624</v>
       </c>
       <c r="C12" t="n">
-        <v>133.0460633301757</v>
+        <v>45.12098039206624</v>
       </c>
       <c r="D12" t="n">
-        <v>133.0460633301757</v>
+        <v>9.763943861888375</v>
       </c>
       <c r="E12" t="n">
-        <v>133.0460633301757</v>
+        <v>9.763943861888375</v>
       </c>
       <c r="F12" t="n">
-        <v>9.763943861888356</v>
+        <v>9.763943861888375</v>
       </c>
       <c r="G12" t="n">
-        <v>9.763943861888356</v>
+        <v>9.763943861888375</v>
       </c>
       <c r="H12" t="n">
-        <v>9.763943861888356</v>
+        <v>9.763943861888375</v>
       </c>
       <c r="I12" t="n">
-        <v>9.763943861888356</v>
+        <v>9.763943861888375</v>
       </c>
       <c r="J12" t="n">
-        <v>9.763943861888356</v>
+        <v>9.763943861888375</v>
       </c>
       <c r="K12" t="n">
-        <v>48.64509028167975</v>
+        <v>43.26205739618891</v>
       </c>
       <c r="L12" t="n">
-        <v>167.2121322091851</v>
+        <v>161.8290993236943</v>
       </c>
       <c r="M12" t="n">
-        <v>288.0409375000535</v>
+        <v>282.6579046145629</v>
       </c>
       <c r="N12" t="n">
-        <v>367.3683878035494</v>
+        <v>282.6579046145629</v>
       </c>
       <c r="O12" t="n">
-        <v>488.1971930944178</v>
+        <v>403.4867099054315</v>
       </c>
       <c r="P12" t="n">
-        <v>488.1971930944178</v>
+        <v>488.1971930944187</v>
       </c>
       <c r="Q12" t="n">
-        <v>488.1971930944178</v>
+        <v>488.1971930944187</v>
       </c>
       <c r="R12" t="n">
-        <v>488.1971930944178</v>
+        <v>488.1971930944187</v>
       </c>
       <c r="S12" t="n">
-        <v>488.1971930944178</v>
+        <v>488.1971930944187</v>
       </c>
       <c r="T12" t="n">
-        <v>467.4241561946926</v>
+        <v>467.4241561946935</v>
       </c>
       <c r="U12" t="n">
-        <v>424.1461601279857</v>
+        <v>344.1420367264059</v>
       </c>
       <c r="V12" t="n">
-        <v>377.4123770567255</v>
+        <v>220.8599172581183</v>
       </c>
       <c r="W12" t="n">
-        <v>304.3597428121226</v>
+        <v>97.57779778983075</v>
       </c>
       <c r="X12" t="n">
-        <v>281.1976834539247</v>
+        <v>74.41573843163285</v>
       </c>
       <c r="Y12" t="n">
-        <v>251.9029254143581</v>
+        <v>45.12098039206624</v>
       </c>
     </row>
     <row r="13">
@@ -5173,49 +5173,49 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>26.36184332167607</v>
+        <v>26.36184332167609</v>
       </c>
       <c r="C13" t="n">
-        <v>26.63255412281052</v>
+        <v>26.36184332167609</v>
       </c>
       <c r="D13" t="n">
-        <v>75.34038129271305</v>
+        <v>75.06967049157862</v>
       </c>
       <c r="E13" t="n">
-        <v>75.34038129271305</v>
+        <v>75.06967049157862</v>
       </c>
       <c r="F13" t="n">
-        <v>75.34038129271305</v>
+        <v>75.06967049157862</v>
       </c>
       <c r="G13" t="n">
-        <v>75.34038129271305</v>
+        <v>75.06967049157862</v>
       </c>
       <c r="H13" t="n">
-        <v>75.34038129271305</v>
+        <v>103.384534388465</v>
       </c>
       <c r="I13" t="n">
-        <v>75.34038129271305</v>
+        <v>103.384534388465</v>
       </c>
       <c r="J13" t="n">
-        <v>75.34038129271305</v>
+        <v>103.384534388465</v>
       </c>
       <c r="K13" t="n">
-        <v>75.34038129271305</v>
+        <v>224.2133396793336</v>
       </c>
       <c r="L13" t="n">
-        <v>75.34038129271305</v>
+        <v>224.2133396793336</v>
       </c>
       <c r="M13" t="n">
-        <v>75.34038129271305</v>
+        <v>224.2133396793336</v>
       </c>
       <c r="N13" t="n">
-        <v>196.1691865835814</v>
+        <v>224.2133396793336</v>
       </c>
       <c r="O13" t="n">
-        <v>196.1691865835814</v>
+        <v>345.0421449702022</v>
       </c>
       <c r="P13" t="n">
-        <v>316.9979918744498</v>
+        <v>383.8908443538484</v>
       </c>
       <c r="Q13" t="n">
         <v>383.8908443538484</v>
@@ -5236,13 +5236,13 @@
         <v>157.4649623337896</v>
       </c>
       <c r="W13" t="n">
-        <v>60.56775888481927</v>
+        <v>60.56775888481928</v>
       </c>
       <c r="X13" t="n">
-        <v>32.75262784099315</v>
+        <v>32.75262784099317</v>
       </c>
       <c r="Y13" t="n">
-        <v>9.763943861888356</v>
+        <v>9.763943861888375</v>
       </c>
     </row>
     <row r="14">
@@ -5252,7 +5252,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>133.0460633301759</v>
+        <v>9.763943861888375</v>
       </c>
       <c r="C14" t="n">
         <v>9.763943861888375</v>
@@ -5276,28 +5276,28 @@
         <v>9.763943861888375</v>
       </c>
       <c r="J14" t="n">
-        <v>127.09041603444</v>
+        <v>86.58895351805965</v>
       </c>
       <c r="K14" t="n">
-        <v>127.09041603444</v>
+        <v>86.58895351805965</v>
       </c>
       <c r="L14" t="n">
-        <v>175.4876665214273</v>
+        <v>207.4177588089283</v>
       </c>
       <c r="M14" t="n">
-        <v>258.2148925245442</v>
+        <v>290.1449848120452</v>
       </c>
       <c r="N14" t="n">
-        <v>335.4382955160491</v>
+        <v>367.3683878035501</v>
       </c>
       <c r="O14" t="n">
-        <v>371.4488064152293</v>
+        <v>488.1971930944187</v>
       </c>
       <c r="P14" t="n">
-        <v>488.0239675444186</v>
+        <v>488.1971930944187</v>
       </c>
       <c r="Q14" t="n">
-        <v>488.0239675444186</v>
+        <v>488.1971930944187</v>
       </c>
       <c r="R14" t="n">
         <v>488.1971930944187</v>
@@ -5306,22 +5306,22 @@
         <v>454.9749715372147</v>
       </c>
       <c r="T14" t="n">
-        <v>454.9749715372147</v>
+        <v>426.6553419483943</v>
       </c>
       <c r="U14" t="n">
-        <v>398.644459028268</v>
+        <v>370.3248294394477</v>
       </c>
       <c r="V14" t="n">
-        <v>275.3623395599804</v>
+        <v>247.0427099711602</v>
       </c>
       <c r="W14" t="n">
-        <v>256.3281827984635</v>
+        <v>247.0427099711602</v>
       </c>
       <c r="X14" t="n">
-        <v>256.3281827984635</v>
+        <v>247.0427099711602</v>
       </c>
       <c r="Y14" t="n">
-        <v>133.0460633301759</v>
+        <v>123.7605905028726</v>
       </c>
     </row>
     <row r="15">
@@ -5385,22 +5385,22 @@
         <v>364.9150736261312</v>
       </c>
       <c r="T15" t="n">
-        <v>344.142036726406</v>
+        <v>241.6329541578436</v>
       </c>
       <c r="U15" t="n">
-        <v>220.8599172581184</v>
+        <v>198.3549580911368</v>
       </c>
       <c r="V15" t="n">
-        <v>174.1261341868583</v>
+        <v>151.6211750198767</v>
       </c>
       <c r="W15" t="n">
-        <v>101.0734999422555</v>
+        <v>78.56854077527389</v>
       </c>
       <c r="X15" t="n">
-        <v>39.0587019014549</v>
+        <v>55.40648141707607</v>
       </c>
       <c r="Y15" t="n">
-        <v>9.763943861888375</v>
+        <v>26.11172337750954</v>
       </c>
     </row>
     <row r="16">
@@ -5410,37 +5410,37 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>9.763943861888375</v>
+        <v>26.36184332167618</v>
       </c>
       <c r="C16" t="n">
-        <v>9.763943861888375</v>
+        <v>26.36184332167618</v>
       </c>
       <c r="D16" t="n">
-        <v>9.763943861888375</v>
+        <v>61.90254734413226</v>
       </c>
       <c r="E16" t="n">
-        <v>9.763943861888375</v>
+        <v>61.90254734413226</v>
       </c>
       <c r="F16" t="n">
-        <v>9.763943861888375</v>
+        <v>116.8035848659763</v>
       </c>
       <c r="G16" t="n">
-        <v>9.763943861888375</v>
+        <v>142.2332337721106</v>
       </c>
       <c r="H16" t="n">
-        <v>9.763943861888375</v>
+        <v>142.2332337721106</v>
       </c>
       <c r="I16" t="n">
-        <v>9.763943861888375</v>
+        <v>142.2332337721106</v>
       </c>
       <c r="J16" t="n">
-        <v>9.763943861888375</v>
+        <v>142.2332337721106</v>
       </c>
       <c r="K16" t="n">
-        <v>130.592749152757</v>
+        <v>263.0620390629792</v>
       </c>
       <c r="L16" t="n">
-        <v>142.2332337721106</v>
+        <v>263.0620390629792</v>
       </c>
       <c r="M16" t="n">
         <v>263.0620390629792</v>
@@ -5449,7 +5449,7 @@
         <v>263.0620390629792</v>
       </c>
       <c r="O16" t="n">
-        <v>383.8908443538478</v>
+        <v>263.0620390629792</v>
       </c>
       <c r="P16" t="n">
         <v>383.8908443538478</v>
@@ -5489,19 +5489,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>315.9417875589156</v>
+        <v>315.9417875589152</v>
       </c>
       <c r="C17" t="n">
-        <v>286.3198544558581</v>
+        <v>286.3198544558579</v>
       </c>
       <c r="D17" t="n">
-        <v>269.2568483618427</v>
+        <v>269.2568483618425</v>
       </c>
       <c r="E17" t="n">
         <v>218.1466176017575</v>
       </c>
       <c r="F17" t="n">
-        <v>134.9956418130085</v>
+        <v>134.9956418130087</v>
       </c>
       <c r="G17" t="n">
         <v>36.05861259151848</v>
@@ -5510,40 +5510,40 @@
         <v>9.763943861888375</v>
       </c>
       <c r="I17" t="n">
-        <v>89.24480594465247</v>
+        <v>9.763943861888375</v>
       </c>
       <c r="J17" t="n">
-        <v>89.24480594465247</v>
+        <v>9.763943861888375</v>
       </c>
       <c r="K17" t="n">
-        <v>89.24480594465247</v>
+        <v>9.763943861888375</v>
       </c>
       <c r="L17" t="n">
-        <v>137.6420564316398</v>
+        <v>58.16119434887568</v>
       </c>
       <c r="M17" t="n">
-        <v>220.3692824347567</v>
+        <v>140.8884203519926</v>
       </c>
       <c r="N17" t="n">
-        <v>297.5926854262615</v>
+        <v>218.1118233434975</v>
       </c>
       <c r="O17" t="n">
-        <v>333.6031963254417</v>
+        <v>254.1223342426777</v>
       </c>
       <c r="P17" t="n">
-        <v>333.6031963254417</v>
+        <v>254.1223342426777</v>
       </c>
       <c r="Q17" t="n">
-        <v>333.6031963254417</v>
+        <v>298.0496916927286</v>
       </c>
       <c r="R17" t="n">
-        <v>333.6031963254417</v>
+        <v>298.0496916927286</v>
       </c>
       <c r="S17" t="n">
-        <v>418.1743935494831</v>
+        <v>390.7209271994673</v>
       </c>
       <c r="T17" t="n">
-        <v>418.1743935494831</v>
+        <v>488.1971930944187</v>
       </c>
       <c r="U17" t="n">
         <v>488.1971930944187</v>
@@ -5555,7 +5555,7 @@
         <v>471.0086272190501</v>
       </c>
       <c r="X17" t="n">
-        <v>431.7127376376825</v>
+        <v>431.7127376376824</v>
       </c>
       <c r="Y17" t="n">
         <v>369.6866933858664</v>
@@ -5568,13 +5568,13 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>241.6329541578436</v>
+        <v>118.3508346895561</v>
       </c>
       <c r="C18" t="n">
-        <v>241.6329541578436</v>
+        <v>118.3508346895561</v>
       </c>
       <c r="D18" t="n">
-        <v>133.0460633301759</v>
+        <v>118.3508346895561</v>
       </c>
       <c r="E18" t="n">
         <v>9.763943861888375</v>
@@ -5607,7 +5607,7 @@
         <v>288.0409375000538</v>
       </c>
       <c r="O18" t="n">
-        <v>408.8697427909224</v>
+        <v>403.4867099054315</v>
       </c>
       <c r="P18" t="n">
         <v>488.1971930944187</v>
@@ -5616,7 +5616,7 @@
         <v>488.1971930944187</v>
       </c>
       <c r="R18" t="n">
-        <v>488.1971930944187</v>
+        <v>364.9150736261312</v>
       </c>
       <c r="S18" t="n">
         <v>364.9150736261312</v>
@@ -5628,16 +5628,16 @@
         <v>241.6329541578436</v>
       </c>
       <c r="V18" t="n">
-        <v>241.6329541578436</v>
+        <v>118.3508346895561</v>
       </c>
       <c r="W18" t="n">
-        <v>241.6329541578436</v>
+        <v>118.3508346895561</v>
       </c>
       <c r="X18" t="n">
-        <v>241.6329541578436</v>
+        <v>118.3508346895561</v>
       </c>
       <c r="Y18" t="n">
-        <v>241.6329541578436</v>
+        <v>118.3508346895561</v>
       </c>
     </row>
     <row r="19">
@@ -5726,7 +5726,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>315.9417875589154</v>
+        <v>315.9417875589153</v>
       </c>
       <c r="C20" t="n">
         <v>286.319854455858</v>
@@ -5738,7 +5738,7 @@
         <v>218.1466176017575</v>
       </c>
       <c r="F20" t="n">
-        <v>134.9956418130085</v>
+        <v>134.9956418130083</v>
       </c>
       <c r="G20" t="n">
         <v>36.05861259151853</v>
@@ -5750,22 +5750,22 @@
         <v>9.763943861888375</v>
       </c>
       <c r="J20" t="n">
-        <v>42.98355121869595</v>
+        <v>9.763943861888375</v>
       </c>
       <c r="K20" t="n">
-        <v>42.98355121869595</v>
+        <v>130.592749152757</v>
       </c>
       <c r="L20" t="n">
-        <v>163.8123565095646</v>
+        <v>251.4215544436256</v>
       </c>
       <c r="M20" t="n">
-        <v>246.5395825126815</v>
+        <v>334.1487804467425</v>
       </c>
       <c r="N20" t="n">
-        <v>367.3683878035501</v>
+        <v>411.3721834382474</v>
       </c>
       <c r="O20" t="n">
-        <v>488.1971930944187</v>
+        <v>447.3826943374276</v>
       </c>
       <c r="P20" t="n">
         <v>488.1971930944187</v>
@@ -5789,10 +5789,10 @@
         <v>488.1971930944187</v>
       </c>
       <c r="W20" t="n">
-        <v>471.0086272190501</v>
+        <v>471.0086272190502</v>
       </c>
       <c r="X20" t="n">
-        <v>431.7127376376823</v>
+        <v>431.7127376376824</v>
       </c>
       <c r="Y20" t="n">
         <v>369.6866933858662</v>
@@ -5805,13 +5805,13 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>9.763943861888375</v>
+        <v>133.0460633301759</v>
       </c>
       <c r="C21" t="n">
-        <v>9.763943861888375</v>
+        <v>133.0460633301759</v>
       </c>
       <c r="D21" t="n">
-        <v>9.763943861888375</v>
+        <v>133.0460633301759</v>
       </c>
       <c r="E21" t="n">
         <v>9.763943861888375</v>
@@ -5859,22 +5859,22 @@
         <v>364.9150736261312</v>
       </c>
       <c r="T21" t="n">
-        <v>256.3281827984635</v>
+        <v>364.9150736261312</v>
       </c>
       <c r="U21" t="n">
-        <v>133.0460633301759</v>
+        <v>241.6329541578436</v>
       </c>
       <c r="V21" t="n">
-        <v>133.0460633301759</v>
+        <v>241.6329541578436</v>
       </c>
       <c r="W21" t="n">
-        <v>133.0460633301759</v>
+        <v>241.6329541578436</v>
       </c>
       <c r="X21" t="n">
         <v>133.0460633301759</v>
       </c>
       <c r="Y21" t="n">
-        <v>9.763943861888375</v>
+        <v>133.0460633301759</v>
       </c>
     </row>
     <row r="22">
@@ -5963,10 +5963,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>315.9417875589153</v>
+        <v>315.9417875589155</v>
       </c>
       <c r="C23" t="n">
-        <v>286.319854455858</v>
+        <v>286.3198544558579</v>
       </c>
       <c r="D23" t="n">
         <v>269.2568483618425</v>
@@ -5975,64 +5975,64 @@
         <v>218.1466176017575</v>
       </c>
       <c r="F23" t="n">
-        <v>134.9956418130083</v>
+        <v>134.9956418130085</v>
       </c>
       <c r="G23" t="n">
-        <v>36.05861259151852</v>
+        <v>36.05861259151853</v>
       </c>
       <c r="H23" t="n">
-        <v>9.763943861888372</v>
+        <v>9.763943861888375</v>
       </c>
       <c r="I23" t="n">
-        <v>9.763943861888372</v>
+        <v>9.763943861888375</v>
       </c>
       <c r="J23" t="n">
-        <v>130.592749152757</v>
+        <v>9.763943861888375</v>
       </c>
       <c r="K23" t="n">
-        <v>130.592749152757</v>
+        <v>9.763943861888375</v>
       </c>
       <c r="L23" t="n">
-        <v>178.9899996397443</v>
+        <v>58.16119434887568</v>
       </c>
       <c r="M23" t="n">
-        <v>261.7172256428612</v>
+        <v>140.8884203519926</v>
       </c>
       <c r="N23" t="n">
-        <v>338.9406286343661</v>
+        <v>218.1118233434975</v>
       </c>
       <c r="O23" t="n">
-        <v>374.9511395335463</v>
+        <v>254.1223342426777</v>
       </c>
       <c r="P23" t="n">
         <v>374.9511395335463</v>
       </c>
       <c r="Q23" t="n">
-        <v>395.52595758768</v>
+        <v>488.1971930944187</v>
       </c>
       <c r="R23" t="n">
-        <v>395.52595758768</v>
+        <v>488.1971930944187</v>
       </c>
       <c r="S23" t="n">
-        <v>488.1971930944186</v>
+        <v>488.1971930944187</v>
       </c>
       <c r="T23" t="n">
-        <v>488.1971930944186</v>
+        <v>488.1971930944187</v>
       </c>
       <c r="U23" t="n">
-        <v>488.1971930944186</v>
+        <v>488.1971930944187</v>
       </c>
       <c r="V23" t="n">
-        <v>488.1971930944186</v>
+        <v>488.1971930944187</v>
       </c>
       <c r="W23" t="n">
-        <v>471.00862721905</v>
+        <v>471.0086272190501</v>
       </c>
       <c r="X23" t="n">
-        <v>431.7127376376822</v>
+        <v>431.7127376376825</v>
       </c>
       <c r="Y23" t="n">
-        <v>369.6866933858661</v>
+        <v>369.6866933858664</v>
       </c>
     </row>
     <row r="24">
@@ -6042,76 +6042,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>241.6329541578435</v>
+        <v>9.763943861888375</v>
       </c>
       <c r="C24" t="n">
-        <v>241.6329541578435</v>
+        <v>9.763943861888375</v>
       </c>
       <c r="D24" t="n">
-        <v>241.6329541578435</v>
+        <v>9.763943861888375</v>
       </c>
       <c r="E24" t="n">
+        <v>9.763943861888375</v>
+      </c>
+      <c r="F24" t="n">
+        <v>9.763943861888375</v>
+      </c>
+      <c r="G24" t="n">
+        <v>9.763943861888375</v>
+      </c>
+      <c r="H24" t="n">
+        <v>9.763943861888375</v>
+      </c>
+      <c r="I24" t="n">
+        <v>9.763943861888375</v>
+      </c>
+      <c r="J24" t="n">
+        <v>9.763943861888375</v>
+      </c>
+      <c r="K24" t="n">
+        <v>48.64509028167977</v>
+      </c>
+      <c r="L24" t="n">
+        <v>167.2121322091851</v>
+      </c>
+      <c r="M24" t="n">
+        <v>288.0409375000538</v>
+      </c>
+      <c r="N24" t="n">
+        <v>288.0409375000538</v>
+      </c>
+      <c r="O24" t="n">
+        <v>403.4867099054315</v>
+      </c>
+      <c r="P24" t="n">
+        <v>488.1971930944187</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>488.1971930944187</v>
+      </c>
+      <c r="R24" t="n">
+        <v>488.1971930944187</v>
+      </c>
+      <c r="S24" t="n">
+        <v>379.6103022667511</v>
+      </c>
+      <c r="T24" t="n">
+        <v>256.3281827984635</v>
+      </c>
+      <c r="U24" t="n">
+        <v>256.3281827984635</v>
+      </c>
+      <c r="V24" t="n">
+        <v>256.3281827984635</v>
+      </c>
+      <c r="W24" t="n">
         <v>133.0460633301759</v>
       </c>
-      <c r="F24" t="n">
-        <v>9.763943861888372</v>
-      </c>
-      <c r="G24" t="n">
-        <v>9.763943861888372</v>
-      </c>
-      <c r="H24" t="n">
-        <v>9.763943861888372</v>
-      </c>
-      <c r="I24" t="n">
-        <v>9.763943861888372</v>
-      </c>
-      <c r="J24" t="n">
-        <v>9.763943861888372</v>
-      </c>
-      <c r="K24" t="n">
-        <v>48.64509028167976</v>
-      </c>
-      <c r="L24" t="n">
-        <v>161.8290993236942</v>
-      </c>
-      <c r="M24" t="n">
-        <v>161.8290993236942</v>
-      </c>
-      <c r="N24" t="n">
-        <v>282.6579046145628</v>
-      </c>
-      <c r="O24" t="n">
-        <v>403.4867099054314</v>
-      </c>
-      <c r="P24" t="n">
-        <v>488.1971930944186</v>
-      </c>
-      <c r="Q24" t="n">
-        <v>488.1971930944186</v>
-      </c>
-      <c r="R24" t="n">
-        <v>488.1971930944186</v>
-      </c>
-      <c r="S24" t="n">
-        <v>488.1971930944186</v>
-      </c>
-      <c r="T24" t="n">
-        <v>488.1971930944186</v>
-      </c>
-      <c r="U24" t="n">
-        <v>364.9150736261311</v>
-      </c>
-      <c r="V24" t="n">
-        <v>364.9150736261311</v>
-      </c>
-      <c r="W24" t="n">
-        <v>241.6329541578435</v>
-      </c>
       <c r="X24" t="n">
-        <v>241.6329541578435</v>
+        <v>9.763943861888375</v>
       </c>
       <c r="Y24" t="n">
-        <v>241.6329541578435</v>
+        <v>9.763943861888375</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>9.763943861888372</v>
+        <v>9.763943861888375</v>
       </c>
       <c r="C25" t="n">
-        <v>9.763943861888372</v>
+        <v>9.763943861888375</v>
       </c>
       <c r="D25" t="n">
-        <v>9.763943861888372</v>
+        <v>9.763943861888375</v>
       </c>
       <c r="E25" t="n">
-        <v>9.763943861888372</v>
+        <v>9.763943861888375</v>
       </c>
       <c r="F25" t="n">
-        <v>9.763943861888372</v>
+        <v>9.763943861888375</v>
       </c>
       <c r="G25" t="n">
-        <v>9.763943861888372</v>
+        <v>9.763943861888375</v>
       </c>
       <c r="H25" t="n">
-        <v>9.763943861888372</v>
+        <v>9.763943861888375</v>
       </c>
       <c r="I25" t="n">
-        <v>9.763943861888372</v>
+        <v>9.763943861888375</v>
       </c>
       <c r="J25" t="n">
-        <v>9.763943861888372</v>
+        <v>9.763943861888375</v>
       </c>
       <c r="K25" t="n">
-        <v>9.763943861888372</v>
+        <v>9.763943861888375</v>
       </c>
       <c r="L25" t="n">
-        <v>9.763943861888372</v>
+        <v>9.763943861888375</v>
       </c>
       <c r="M25" t="n">
-        <v>9.763943861888372</v>
+        <v>9.763943861888375</v>
       </c>
       <c r="N25" t="n">
-        <v>9.763943861888372</v>
+        <v>9.763943861888375</v>
       </c>
       <c r="O25" t="n">
-        <v>9.763943861888372</v>
+        <v>9.763943861888375</v>
       </c>
       <c r="P25" t="n">
-        <v>9.763943861888372</v>
+        <v>9.763943861888375</v>
       </c>
       <c r="Q25" t="n">
-        <v>9.763943861888372</v>
+        <v>9.763943861888375</v>
       </c>
       <c r="R25" t="n">
-        <v>9.763943861888372</v>
+        <v>9.763943861888375</v>
       </c>
       <c r="S25" t="n">
-        <v>9.763943861888372</v>
+        <v>9.763943861888375</v>
       </c>
       <c r="T25" t="n">
-        <v>9.763943861888372</v>
+        <v>9.763943861888375</v>
       </c>
       <c r="U25" t="n">
-        <v>9.763943861888372</v>
+        <v>9.763943861888375</v>
       </c>
       <c r="V25" t="n">
-        <v>9.763943861888372</v>
+        <v>9.763943861888375</v>
       </c>
       <c r="W25" t="n">
-        <v>9.763943861888372</v>
+        <v>9.763943861888375</v>
       </c>
       <c r="X25" t="n">
-        <v>9.763943861888372</v>
+        <v>9.763943861888375</v>
       </c>
       <c r="Y25" t="n">
-        <v>9.763943861888372</v>
+        <v>9.763943861888375</v>
       </c>
     </row>
     <row r="26">
@@ -6203,58 +6203,58 @@
         <v>1024.530470300262</v>
       </c>
       <c r="C26" t="n">
-        <v>885.8553792567888</v>
+        <v>885.8553792567891</v>
       </c>
       <c r="D26" t="n">
-        <v>759.7392152223576</v>
+        <v>759.7392152223579</v>
       </c>
       <c r="E26" t="n">
-        <v>599.5758265218567</v>
+        <v>599.5758265218572</v>
       </c>
       <c r="F26" t="n">
-        <v>407.3716927926916</v>
+        <v>407.3716927926924</v>
       </c>
       <c r="G26" t="n">
-        <v>199.3815056307864</v>
+        <v>199.3815056307874</v>
       </c>
       <c r="H26" t="n">
-        <v>64.03367896074056</v>
+        <v>64.03367896074054</v>
       </c>
       <c r="I26" t="n">
-        <v>36.07516654911172</v>
+        <v>36.07516654911174</v>
       </c>
       <c r="J26" t="n">
         <v>171.7509734792162</v>
       </c>
       <c r="K26" t="n">
-        <v>377.2303396281782</v>
+        <v>377.2303396281798</v>
       </c>
       <c r="L26" t="n">
-        <v>636.4155757908245</v>
+        <v>636.4155757908261</v>
       </c>
       <c r="M26" t="n">
-        <v>929.9307874696003</v>
+        <v>929.930787469602</v>
       </c>
       <c r="N26" t="n">
-        <v>1217.942176136764</v>
+        <v>1217.942176136765</v>
       </c>
       <c r="O26" t="n">
-        <v>1464.740672711603</v>
+        <v>1464.740672711604</v>
       </c>
       <c r="P26" t="n">
-        <v>1662.115223691693</v>
+        <v>1662.115223691694</v>
       </c>
       <c r="Q26" t="n">
-        <v>1785.235767148033</v>
+        <v>1785.235767148034</v>
       </c>
       <c r="R26" t="n">
-        <v>1803.758327455586</v>
+        <v>1803.758327455587</v>
       </c>
       <c r="S26" t="n">
-        <v>1789.258006477458</v>
+        <v>1789.258006477459</v>
       </c>
       <c r="T26" t="n">
-        <v>1779.660277467714</v>
+        <v>1779.660277467715</v>
       </c>
       <c r="U26" t="n">
         <v>1742.051665537844</v>
@@ -6266,10 +6266,10 @@
         <v>1506.756783781644</v>
       </c>
       <c r="X26" t="n">
-        <v>1358.40773625986</v>
+        <v>1358.407736259861</v>
       </c>
       <c r="Y26" t="n">
-        <v>1187.328534067628</v>
+        <v>1187.328534067629</v>
       </c>
     </row>
     <row r="27">
@@ -6279,34 +6279,34 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>196.85528278808</v>
+        <v>36.07516654911174</v>
       </c>
       <c r="C27" t="n">
-        <v>196.85528278808</v>
+        <v>36.07516654911174</v>
       </c>
       <c r="D27" t="n">
-        <v>36.07516654911172</v>
+        <v>36.07516654911174</v>
       </c>
       <c r="E27" t="n">
-        <v>36.07516654911172</v>
+        <v>36.07516654911174</v>
       </c>
       <c r="F27" t="n">
-        <v>36.07516654911172</v>
+        <v>36.07516654911174</v>
       </c>
       <c r="G27" t="n">
-        <v>36.07516654911172</v>
+        <v>36.07516654911174</v>
       </c>
       <c r="H27" t="n">
-        <v>36.07516654911172</v>
+        <v>36.07516654911174</v>
       </c>
       <c r="I27" t="n">
-        <v>36.07516654911172</v>
+        <v>36.07516654911174</v>
       </c>
       <c r="J27" t="n">
-        <v>36.07516654911172</v>
+        <v>36.07516654911174</v>
       </c>
       <c r="K27" t="n">
-        <v>74.95631296890312</v>
+        <v>74.95631296890313</v>
       </c>
       <c r="L27" t="n">
         <v>193.5233548964085</v>
@@ -6315,40 +6315,40 @@
         <v>376.6401645971882</v>
       </c>
       <c r="N27" t="n">
-        <v>583.0234209365542</v>
+        <v>583.0234209365543</v>
       </c>
       <c r="O27" t="n">
-        <v>716.0766978848376</v>
+        <v>716.0766978848377</v>
       </c>
       <c r="P27" t="n">
-        <v>800.7871810738247</v>
+        <v>800.7871810738249</v>
       </c>
       <c r="Q27" t="n">
-        <v>800.7871810738247</v>
+        <v>794.5886092341626</v>
       </c>
       <c r="R27" t="n">
-        <v>750.9538182020452</v>
+        <v>794.5886092341626</v>
       </c>
       <c r="S27" t="n">
-        <v>750.9538182020452</v>
+        <v>794.5886092341626</v>
       </c>
       <c r="T27" t="n">
-        <v>748.9026818813965</v>
+        <v>577.4696373093316</v>
       </c>
       <c r="U27" t="n">
-        <v>509.2787507895839</v>
+        <v>348.4986345506156</v>
       </c>
       <c r="V27" t="n">
-        <v>481.2668682974002</v>
+        <v>320.4867520584319</v>
       </c>
       <c r="W27" t="n">
-        <v>211.8682990276915</v>
+        <v>266.1560183929055</v>
       </c>
       <c r="X27" t="n">
-        <v>207.4281402485701</v>
+        <v>46.64802400960183</v>
       </c>
       <c r="Y27" t="n">
-        <v>196.85528278808</v>
+        <v>36.07516654911174</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>36.07516654911172</v>
+        <v>36.07516654911174</v>
       </c>
       <c r="C28" t="n">
-        <v>36.07516654911172</v>
+        <v>36.07516654911174</v>
       </c>
       <c r="D28" t="n">
-        <v>36.07516654911172</v>
+        <v>36.07516654911174</v>
       </c>
       <c r="E28" t="n">
-        <v>36.07516654911172</v>
+        <v>36.07516654911174</v>
       </c>
       <c r="F28" t="n">
-        <v>36.07516654911172</v>
+        <v>36.07516654911174</v>
       </c>
       <c r="G28" t="n">
-        <v>36.07516654911172</v>
+        <v>36.07516654911174</v>
       </c>
       <c r="H28" t="n">
-        <v>36.07516654911172</v>
+        <v>36.07516654911174</v>
       </c>
       <c r="I28" t="n">
-        <v>83.8020153722764</v>
+        <v>36.07516654911174</v>
       </c>
       <c r="J28" t="n">
-        <v>83.8020153722764</v>
+        <v>36.07516654911174</v>
       </c>
       <c r="K28" t="n">
-        <v>228.7839463493846</v>
+        <v>36.07516654911174</v>
       </c>
       <c r="L28" t="n">
-        <v>228.7839463493846</v>
+        <v>36.07516654911174</v>
       </c>
       <c r="M28" t="n">
-        <v>228.7839463493846</v>
+        <v>86.26448990307014</v>
       </c>
       <c r="N28" t="n">
-        <v>270.228498281051</v>
+        <v>86.26448990307014</v>
       </c>
       <c r="O28" t="n">
-        <v>270.228498281051</v>
+        <v>260.6219149623242</v>
       </c>
       <c r="P28" t="n">
-        <v>270.228498281051</v>
+        <v>260.6219149623242</v>
       </c>
       <c r="Q28" t="n">
-        <v>270.228498281051</v>
+        <v>260.6219149623242</v>
       </c>
       <c r="R28" t="n">
-        <v>270.228498281051</v>
+        <v>270.2284982810508</v>
       </c>
       <c r="S28" t="n">
-        <v>247.5648574270843</v>
+        <v>247.5648574270842</v>
       </c>
       <c r="T28" t="n">
-        <v>236.6316904687921</v>
+        <v>236.631690468792</v>
       </c>
       <c r="U28" t="n">
-        <v>160.127511502278</v>
+        <v>160.1275115022779</v>
       </c>
       <c r="V28" t="n">
         <v>127.6104832837835</v>
       </c>
       <c r="W28" t="n">
-        <v>49.43518041388965</v>
+        <v>49.4351804138896</v>
       </c>
       <c r="X28" t="n">
-        <v>40.34194994914002</v>
+        <v>40.34194994914001</v>
       </c>
       <c r="Y28" t="n">
-        <v>36.07516654911172</v>
+        <v>36.07516654911174</v>
       </c>
     </row>
     <row r="29">
@@ -6437,40 +6437,40 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1024.530470300263</v>
+        <v>1024.530470300261</v>
       </c>
       <c r="C29" t="n">
-        <v>885.8553792567893</v>
+        <v>885.8553792567883</v>
       </c>
       <c r="D29" t="n">
-        <v>759.739215222358</v>
+        <v>759.7392152223571</v>
       </c>
       <c r="E29" t="n">
-        <v>599.5758265218572</v>
+        <v>599.5758265218562</v>
       </c>
       <c r="F29" t="n">
-        <v>407.3716927926923</v>
+        <v>407.3716927926914</v>
       </c>
       <c r="G29" t="n">
-        <v>199.3815056307871</v>
+        <v>199.3815056307863</v>
       </c>
       <c r="H29" t="n">
-        <v>64.0336789607411</v>
+        <v>64.03367896074062</v>
       </c>
       <c r="I29" t="n">
-        <v>36.07516654911172</v>
+        <v>36.07516654911174</v>
       </c>
       <c r="J29" t="n">
-        <v>171.7509734792159</v>
+        <v>171.7509734792162</v>
       </c>
       <c r="K29" t="n">
-        <v>377.2303396281793</v>
+        <v>377.2303396281789</v>
       </c>
       <c r="L29" t="n">
-        <v>636.4155757908255</v>
+        <v>636.4155757908252</v>
       </c>
       <c r="M29" t="n">
-        <v>929.9307874696013</v>
+        <v>929.930787469601</v>
       </c>
       <c r="N29" t="n">
         <v>1217.942176136765</v>
@@ -6479,34 +6479,34 @@
         <v>1464.740672711604</v>
       </c>
       <c r="P29" t="n">
-        <v>1662.115223691693</v>
+        <v>1662.115223691694</v>
       </c>
       <c r="Q29" t="n">
-        <v>1785.235767148033</v>
+        <v>1785.235767148034</v>
       </c>
       <c r="R29" t="n">
-        <v>1803.758327455586</v>
+        <v>1803.758327455587</v>
       </c>
       <c r="S29" t="n">
-        <v>1789.258006477458</v>
+        <v>1789.258006477459</v>
       </c>
       <c r="T29" t="n">
-        <v>1779.660277467714</v>
+        <v>1779.660277467715</v>
       </c>
       <c r="U29" t="n">
-        <v>1742.051665537845</v>
+        <v>1742.051665537844</v>
       </c>
       <c r="V29" t="n">
-        <v>1632.998507597429</v>
+        <v>1632.998507597428</v>
       </c>
       <c r="W29" t="n">
-        <v>1506.756783781645</v>
+        <v>1506.756783781644</v>
       </c>
       <c r="X29" t="n">
-        <v>1358.407736259861</v>
+        <v>1358.40773625986</v>
       </c>
       <c r="Y29" t="n">
-        <v>1187.328534067629</v>
+        <v>1187.328534067628</v>
       </c>
     </row>
     <row r="30">
@@ -6516,34 +6516,34 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>110.9681026145305</v>
+        <v>225.487440816148</v>
       </c>
       <c r="C30" t="n">
-        <v>110.9681026145305</v>
+        <v>36.07516654911174</v>
       </c>
       <c r="D30" t="n">
-        <v>110.9681026145305</v>
+        <v>36.07516654911174</v>
       </c>
       <c r="E30" t="n">
-        <v>36.07516654911172</v>
+        <v>36.07516654911174</v>
       </c>
       <c r="F30" t="n">
-        <v>36.07516654911172</v>
+        <v>36.07516654911174</v>
       </c>
       <c r="G30" t="n">
-        <v>36.07516654911172</v>
+        <v>36.07516654911174</v>
       </c>
       <c r="H30" t="n">
-        <v>36.07516654911172</v>
+        <v>36.07516654911174</v>
       </c>
       <c r="I30" t="n">
-        <v>36.07516654911172</v>
+        <v>36.07516654911174</v>
       </c>
       <c r="J30" t="n">
-        <v>36.07516654911172</v>
+        <v>36.07516654911174</v>
       </c>
       <c r="K30" t="n">
-        <v>74.95631296890312</v>
+        <v>74.95631296890313</v>
       </c>
       <c r="L30" t="n">
         <v>193.5233548964085</v>
@@ -6552,40 +6552,40 @@
         <v>376.6401645971882</v>
       </c>
       <c r="N30" t="n">
-        <v>583.0234209365542</v>
+        <v>583.0234209365543</v>
       </c>
       <c r="O30" t="n">
-        <v>716.0766978848376</v>
+        <v>716.0766978848377</v>
       </c>
       <c r="P30" t="n">
-        <v>800.7871810738247</v>
+        <v>800.7871810738249</v>
       </c>
       <c r="Q30" t="n">
-        <v>800.7871810738247</v>
+        <v>800.7871810738249</v>
       </c>
       <c r="R30" t="n">
-        <v>665.0666380284962</v>
+        <v>665.0666380284963</v>
       </c>
       <c r="S30" t="n">
-        <v>665.0666380284962</v>
+        <v>665.0666380284963</v>
       </c>
       <c r="T30" t="n">
-        <v>663.0155017078473</v>
+        <v>663.0155017078475</v>
       </c>
       <c r="U30" t="n">
-        <v>423.3915706160347</v>
+        <v>423.3915706160349</v>
       </c>
       <c r="V30" t="n">
-        <v>395.3796881238509</v>
+        <v>395.3796881238512</v>
       </c>
       <c r="W30" t="n">
-        <v>341.0489544583244</v>
+        <v>341.0489544583247</v>
       </c>
       <c r="X30" t="n">
-        <v>121.5409600750207</v>
+        <v>336.6087956792032</v>
       </c>
       <c r="Y30" t="n">
-        <v>110.9681026145305</v>
+        <v>225.487440816148</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>36.07516654911172</v>
+        <v>36.07516654911174</v>
       </c>
       <c r="C31" t="n">
-        <v>36.07516654911172</v>
+        <v>75.06626805783156</v>
       </c>
       <c r="D31" t="n">
-        <v>36.07516654911172</v>
+        <v>75.06626805783156</v>
       </c>
       <c r="E31" t="n">
-        <v>36.07516654911172</v>
+        <v>75.06626805783156</v>
       </c>
       <c r="F31" t="n">
-        <v>36.07516654911172</v>
+        <v>75.06626805783156</v>
       </c>
       <c r="G31" t="n">
-        <v>36.07516654911172</v>
+        <v>75.06626805783156</v>
       </c>
       <c r="H31" t="n">
-        <v>36.07516654911172</v>
+        <v>75.06626805783156</v>
       </c>
       <c r="I31" t="n">
-        <v>83.80201537227632</v>
+        <v>75.06626805783156</v>
       </c>
       <c r="J31" t="n">
-        <v>83.80201537227632</v>
+        <v>75.06626805783156</v>
       </c>
       <c r="K31" t="n">
-        <v>83.80201537227632</v>
+        <v>75.06626805783156</v>
       </c>
       <c r="L31" t="n">
-        <v>83.80201537227632</v>
+        <v>75.06626805783156</v>
       </c>
       <c r="M31" t="n">
-        <v>83.80201537227632</v>
+        <v>75.06626805783156</v>
       </c>
       <c r="N31" t="n">
-        <v>95.87107322179756</v>
+        <v>270.2284982810514</v>
       </c>
       <c r="O31" t="n">
-        <v>270.2284982810515</v>
+        <v>270.2284982810514</v>
       </c>
       <c r="P31" t="n">
-        <v>270.2284982810515</v>
+        <v>270.2284982810514</v>
       </c>
       <c r="Q31" t="n">
-        <v>270.2284982810515</v>
+        <v>270.2284982810514</v>
       </c>
       <c r="R31" t="n">
-        <v>270.2284982810515</v>
+        <v>270.2284982810514</v>
       </c>
       <c r="S31" t="n">
-        <v>247.5648574270849</v>
+        <v>247.5648574270847</v>
       </c>
       <c r="T31" t="n">
-        <v>236.6316904687925</v>
+        <v>236.6316904687924</v>
       </c>
       <c r="U31" t="n">
-        <v>160.1275115022783</v>
+        <v>160.1275115022782</v>
       </c>
       <c r="V31" t="n">
-        <v>127.6104832837838</v>
+        <v>127.6104832837837</v>
       </c>
       <c r="W31" t="n">
-        <v>49.43518041388982</v>
+        <v>49.43518041388977</v>
       </c>
       <c r="X31" t="n">
-        <v>40.34194994914011</v>
+        <v>40.34194994914009</v>
       </c>
       <c r="Y31" t="n">
-        <v>36.07516654911172</v>
+        <v>36.07516654911174</v>
       </c>
     </row>
     <row r="32">
@@ -6677,19 +6677,19 @@
         <v>1024.530470300262</v>
       </c>
       <c r="C32" t="n">
-        <v>885.8553792567891</v>
+        <v>885.8553792567886</v>
       </c>
       <c r="D32" t="n">
-        <v>759.7392152223578</v>
+        <v>759.7392152223573</v>
       </c>
       <c r="E32" t="n">
-        <v>599.5758265218569</v>
+        <v>599.5758265218565</v>
       </c>
       <c r="F32" t="n">
-        <v>407.3716927926921</v>
+        <v>407.3716927926916</v>
       </c>
       <c r="G32" t="n">
-        <v>199.3815056307869</v>
+        <v>199.3815056307864</v>
       </c>
       <c r="H32" t="n">
         <v>64.03367896074066</v>
@@ -6707,7 +6707,7 @@
         <v>636.4155757908258</v>
       </c>
       <c r="M32" t="n">
-        <v>929.9307874696015</v>
+        <v>929.9307874696016</v>
       </c>
       <c r="N32" t="n">
         <v>1217.942176136765</v>
@@ -6737,7 +6737,7 @@
         <v>1632.998507597429</v>
       </c>
       <c r="W32" t="n">
-        <v>1506.756783781645</v>
+        <v>1506.756783781644</v>
       </c>
       <c r="X32" t="n">
         <v>1358.407736259861</v>
@@ -6789,37 +6789,37 @@
         <v>376.6401645971882</v>
       </c>
       <c r="N33" t="n">
-        <v>583.0234209365542</v>
+        <v>583.0234209365543</v>
       </c>
       <c r="O33" t="n">
-        <v>716.0766978848376</v>
+        <v>716.0766978848377</v>
       </c>
       <c r="P33" t="n">
-        <v>800.7871810738247</v>
+        <v>800.7871810738249</v>
       </c>
       <c r="Q33" t="n">
-        <v>800.7871810738247</v>
+        <v>794.5886092341626</v>
       </c>
       <c r="R33" t="n">
-        <v>800.7871810738247</v>
+        <v>794.5886092341626</v>
       </c>
       <c r="S33" t="n">
-        <v>800.7871810738247</v>
+        <v>794.5886092341626</v>
       </c>
       <c r="T33" t="n">
-        <v>798.7360447531759</v>
+        <v>577.4696373093316</v>
       </c>
       <c r="U33" t="n">
-        <v>774.1799492655454</v>
+        <v>552.9135418217011</v>
       </c>
       <c r="V33" t="n">
-        <v>531.1002311691794</v>
+        <v>309.8338237253352</v>
       </c>
       <c r="W33" t="n">
-        <v>476.7694975036529</v>
+        <v>255.5030900598086</v>
       </c>
       <c r="X33" t="n">
-        <v>261.7158596137841</v>
+        <v>46.64802400960194</v>
       </c>
       <c r="Y33" t="n">
         <v>36.07516654911174</v>
@@ -6853,16 +6853,16 @@
         <v>109.3255388285085</v>
       </c>
       <c r="I34" t="n">
-        <v>157.0523876516731</v>
+        <v>109.3255388285085</v>
       </c>
       <c r="J34" t="n">
-        <v>157.0523876516731</v>
+        <v>109.3255388285085</v>
       </c>
       <c r="K34" t="n">
-        <v>157.0523876516731</v>
+        <v>254.3074698056166</v>
       </c>
       <c r="L34" t="n">
-        <v>157.0523876516731</v>
+        <v>254.3074698056166</v>
       </c>
       <c r="M34" t="n">
         <v>270.2284982810516</v>
@@ -6895,10 +6895,10 @@
         <v>127.6104832837838</v>
       </c>
       <c r="W34" t="n">
-        <v>49.43518041388984</v>
+        <v>49.43518041388983</v>
       </c>
       <c r="X34" t="n">
-        <v>40.34194994914013</v>
+        <v>40.34194994914012</v>
       </c>
       <c r="Y34" t="n">
         <v>36.07516654911174</v>
@@ -6917,70 +6917,70 @@
         <v>670.4759701361759</v>
       </c>
       <c r="D35" t="n">
-        <v>579.8911966711636</v>
+        <v>579.8911966711637</v>
       </c>
       <c r="E35" t="n">
-        <v>455.2591985400818</v>
+        <v>455.259198540082</v>
       </c>
       <c r="F35" t="n">
-        <v>298.586455380336</v>
+        <v>298.5864553803362</v>
       </c>
       <c r="G35" t="n">
-        <v>126.1276587878503</v>
+        <v>126.1276587878502</v>
       </c>
       <c r="H35" t="n">
-        <v>26.31122268722338</v>
+        <v>26.31122268722336</v>
       </c>
       <c r="I35" t="n">
-        <v>26.31122268722338</v>
+        <v>33.73340056967354</v>
       </c>
       <c r="J35" t="n">
-        <v>196.8113455144153</v>
+        <v>33.73340056967354</v>
       </c>
       <c r="K35" t="n">
-        <v>196.8113455144153</v>
+        <v>274.0370826157247</v>
       </c>
       <c r="L35" t="n">
-        <v>245.2085960014026</v>
+        <v>568.0466346754586</v>
       </c>
       <c r="M35" t="n">
-        <v>570.8099767557919</v>
+        <v>893.6480154298476</v>
       </c>
       <c r="N35" t="n">
-        <v>893.6456813200433</v>
+        <v>970.8714184213525</v>
       </c>
       <c r="O35" t="n">
-        <v>929.6561922192235</v>
+        <v>1252.494230893279</v>
       </c>
       <c r="P35" t="n">
-        <v>1161.855059096401</v>
+        <v>1252.494230893279</v>
       </c>
       <c r="Q35" t="n">
-        <v>1315.561134361169</v>
+        <v>1269.531001360106</v>
       </c>
       <c r="R35" t="n">
-        <v>1315.561134361169</v>
+        <v>1269.531001360106</v>
       </c>
       <c r="S35" t="n">
-        <v>1315.561134361169</v>
+        <v>1290.14355266653</v>
       </c>
       <c r="T35" t="n">
-        <v>1315.561134361169</v>
+        <v>1315.561134361168</v>
       </c>
       <c r="U35" t="n">
-        <v>1313.483913000718</v>
+        <v>1313.483913000717</v>
       </c>
       <c r="V35" t="n">
-        <v>1239.962145629721</v>
+        <v>1239.96214562972</v>
       </c>
       <c r="W35" t="n">
-        <v>1149.251812383356</v>
+        <v>1149.251812383355</v>
       </c>
       <c r="X35" t="n">
         <v>1036.434155430991</v>
       </c>
       <c r="Y35" t="n">
-        <v>900.8863438081781</v>
+        <v>900.8863438081779</v>
       </c>
     </row>
     <row r="36">
@@ -6990,40 +6990,40 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>225.9660463130172</v>
+        <v>26.31122268722336</v>
       </c>
       <c r="C36" t="n">
-        <v>225.9660463130172</v>
+        <v>26.31122268722336</v>
       </c>
       <c r="D36" t="n">
-        <v>65.185930074049</v>
+        <v>26.31122268722336</v>
       </c>
       <c r="E36" t="n">
-        <v>26.31122268722338</v>
+        <v>26.31122268722336</v>
       </c>
       <c r="F36" t="n">
-        <v>26.31122268722338</v>
+        <v>26.31122268722336</v>
       </c>
       <c r="G36" t="n">
-        <v>26.31122268722338</v>
+        <v>26.31122268722336</v>
       </c>
       <c r="H36" t="n">
-        <v>26.31122268722338</v>
+        <v>26.31122268722336</v>
       </c>
       <c r="I36" t="n">
-        <v>26.31122268722338</v>
+        <v>26.31122268722336</v>
       </c>
       <c r="J36" t="n">
-        <v>26.31122268722338</v>
+        <v>26.31122268722336</v>
       </c>
       <c r="K36" t="n">
-        <v>65.19236910701477</v>
+        <v>65.19236910701476</v>
       </c>
       <c r="L36" t="n">
         <v>183.7594110345201</v>
       </c>
       <c r="M36" t="n">
-        <v>366.8762207352998</v>
+        <v>366.8762207352999</v>
       </c>
       <c r="N36" t="n">
         <v>573.2594770746659</v>
@@ -7035,31 +7035,31 @@
         <v>791.0232372119365</v>
       </c>
       <c r="Q36" t="n">
-        <v>791.0232372119365</v>
+        <v>784.8246653722742</v>
       </c>
       <c r="R36" t="n">
-        <v>655.3026941666079</v>
+        <v>784.8246653722742</v>
       </c>
       <c r="S36" t="n">
-        <v>461.8843613339558</v>
+        <v>591.4063325396221</v>
       </c>
       <c r="T36" t="n">
-        <v>244.7653894091248</v>
+        <v>374.2873606147911</v>
       </c>
       <c r="U36" t="n">
-        <v>244.7653894091248</v>
+        <v>374.2873606147911</v>
       </c>
       <c r="V36" t="n">
-        <v>244.7653894091248</v>
+        <v>374.2873606147911</v>
       </c>
       <c r="W36" t="n">
-        <v>225.9660463130172</v>
+        <v>251.9519157518957</v>
       </c>
       <c r="X36" t="n">
-        <v>225.9660463130172</v>
+        <v>251.9519157518957</v>
       </c>
       <c r="Y36" t="n">
-        <v>225.9660463130172</v>
+        <v>26.31122268722336</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>26.31122268722338</v>
+        <v>26.31122268722336</v>
       </c>
       <c r="C37" t="n">
-        <v>26.31122268722338</v>
+        <v>26.31122268722336</v>
       </c>
       <c r="D37" t="n">
-        <v>26.31122268722338</v>
+        <v>26.31122268722336</v>
       </c>
       <c r="E37" t="n">
-        <v>26.31122268722338</v>
+        <v>26.31122268722336</v>
       </c>
       <c r="F37" t="n">
-        <v>26.31122268722338</v>
+        <v>26.31122268722336</v>
       </c>
       <c r="G37" t="n">
-        <v>26.31122268722338</v>
+        <v>26.31122268722336</v>
       </c>
       <c r="H37" t="n">
-        <v>26.31122268722338</v>
+        <v>26.31122268722336</v>
       </c>
       <c r="I37" t="n">
-        <v>26.31122268722338</v>
+        <v>26.31122268722336</v>
       </c>
       <c r="J37" t="n">
-        <v>26.31122268722338</v>
+        <v>26.31122268722336</v>
       </c>
       <c r="K37" t="n">
-        <v>26.31122268722338</v>
+        <v>26.31122268722336</v>
       </c>
       <c r="L37" t="n">
-        <v>26.31122268722338</v>
+        <v>26.31122268722336</v>
       </c>
       <c r="M37" t="n">
-        <v>109.9279233847934</v>
+        <v>97.31624188867832</v>
       </c>
       <c r="N37" t="n">
-        <v>109.9279233847934</v>
+        <v>97.31624188867832</v>
       </c>
       <c r="O37" t="n">
-        <v>109.9279233847934</v>
+        <v>97.31624188867832</v>
       </c>
       <c r="P37" t="n">
-        <v>109.9279233847934</v>
+        <v>97.31624188867832</v>
       </c>
       <c r="Q37" t="n">
-        <v>109.9279233847934</v>
+        <v>97.31624188867832</v>
       </c>
       <c r="R37" t="n">
-        <v>109.9279233847934</v>
+        <v>97.31624188867832</v>
       </c>
       <c r="S37" t="n">
-        <v>109.9279233847934</v>
+        <v>109.9279233847932</v>
       </c>
       <c r="T37" t="n">
-        <v>109.9279233847934</v>
+        <v>109.9279233847932</v>
       </c>
       <c r="U37" t="n">
-        <v>68.9551349876983</v>
+        <v>68.95513498769819</v>
       </c>
       <c r="V37" t="n">
-        <v>68.9551349876983</v>
+        <v>68.95513498769819</v>
       </c>
       <c r="W37" t="n">
-        <v>26.31122268722338</v>
+        <v>26.31122268722336</v>
       </c>
       <c r="X37" t="n">
-        <v>26.31122268722338</v>
+        <v>26.31122268722336</v>
       </c>
       <c r="Y37" t="n">
-        <v>26.31122268722338</v>
+        <v>26.31122268722336</v>
       </c>
     </row>
     <row r="38">
@@ -7148,61 +7148,61 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>773.6196706102299</v>
+        <v>773.6196706102298</v>
       </c>
       <c r="C38" t="n">
-        <v>670.4759701361759</v>
+        <v>670.4759701361758</v>
       </c>
       <c r="D38" t="n">
-        <v>579.8911966711638</v>
+        <v>579.8911966711635</v>
       </c>
       <c r="E38" t="n">
-        <v>455.259198540082</v>
+        <v>455.2591985400818</v>
       </c>
       <c r="F38" t="n">
-        <v>298.5864553803362</v>
+        <v>298.586455380336</v>
       </c>
       <c r="G38" t="n">
-        <v>126.1276587878503</v>
+        <v>126.1276587878502</v>
       </c>
       <c r="H38" t="n">
-        <v>26.31122268722337</v>
+        <v>26.31122268722336</v>
       </c>
       <c r="I38" t="n">
-        <v>26.31122268722337</v>
+        <v>33.73340056967354</v>
       </c>
       <c r="J38" t="n">
-        <v>196.8113455144153</v>
+        <v>204.2335233968656</v>
       </c>
       <c r="K38" t="n">
-        <v>196.8113455144153</v>
+        <v>204.2335233968656</v>
       </c>
       <c r="L38" t="n">
-        <v>490.8208975741492</v>
+        <v>498.2430754565995</v>
       </c>
       <c r="M38" t="n">
-        <v>816.4222783285384</v>
+        <v>823.8444562109885</v>
       </c>
       <c r="N38" t="n">
-        <v>893.6456813200432</v>
+        <v>1022.228754902857</v>
       </c>
       <c r="O38" t="n">
-        <v>1132.198693313104</v>
+        <v>1058.239265802038</v>
       </c>
       <c r="P38" t="n">
-        <v>1132.198693313104</v>
+        <v>1058.239265802038</v>
       </c>
       <c r="Q38" t="n">
-        <v>1290.143552666531</v>
+        <v>1216.184125155465</v>
       </c>
       <c r="R38" t="n">
-        <v>1290.143552666531</v>
+        <v>1269.531001360106</v>
       </c>
       <c r="S38" t="n">
-        <v>1290.143552666531</v>
+        <v>1290.14355266653</v>
       </c>
       <c r="T38" t="n">
-        <v>1315.561134361169</v>
+        <v>1315.561134361168</v>
       </c>
       <c r="U38" t="n">
         <v>1313.483913000717</v>
@@ -7217,7 +7217,7 @@
         <v>1036.43415543099</v>
       </c>
       <c r="Y38" t="n">
-        <v>900.8863438081776</v>
+        <v>900.8863438081775</v>
       </c>
     </row>
     <row r="39">
@@ -7230,37 +7230,37 @@
         <v>215.7234969542596</v>
       </c>
       <c r="C39" t="n">
-        <v>26.31122268722337</v>
+        <v>26.31122268722336</v>
       </c>
       <c r="D39" t="n">
-        <v>26.31122268722337</v>
+        <v>26.31122268722336</v>
       </c>
       <c r="E39" t="n">
-        <v>26.31122268722337</v>
+        <v>26.31122268722336</v>
       </c>
       <c r="F39" t="n">
-        <v>26.31122268722337</v>
+        <v>26.31122268722336</v>
       </c>
       <c r="G39" t="n">
-        <v>26.31122268722337</v>
+        <v>26.31122268722336</v>
       </c>
       <c r="H39" t="n">
-        <v>26.31122268722337</v>
+        <v>26.31122268722336</v>
       </c>
       <c r="I39" t="n">
-        <v>26.31122268722337</v>
+        <v>26.31122268722336</v>
       </c>
       <c r="J39" t="n">
-        <v>26.31122268722337</v>
+        <v>26.31122268722336</v>
       </c>
       <c r="K39" t="n">
-        <v>65.19236910701477</v>
+        <v>65.19236910701476</v>
       </c>
       <c r="L39" t="n">
         <v>183.7594110345201</v>
       </c>
       <c r="M39" t="n">
-        <v>366.8762207352998</v>
+        <v>366.8762207352999</v>
       </c>
       <c r="N39" t="n">
         <v>573.2594770746659</v>
@@ -7278,25 +7278,25 @@
         <v>791.0232372119365</v>
       </c>
       <c r="S39" t="n">
-        <v>597.6049043792843</v>
+        <v>791.0232372119365</v>
       </c>
       <c r="T39" t="n">
-        <v>597.6049043792843</v>
+        <v>791.0232372119365</v>
       </c>
       <c r="U39" t="n">
-        <v>357.9809732874717</v>
+        <v>791.0232372119365</v>
       </c>
       <c r="V39" t="n">
-        <v>357.9809732874717</v>
+        <v>663.6579191509034</v>
       </c>
       <c r="W39" t="n">
-        <v>339.1816301913642</v>
+        <v>394.2593498811947</v>
       </c>
       <c r="X39" t="n">
-        <v>339.1816301913642</v>
+        <v>394.2593498811947</v>
       </c>
       <c r="Y39" t="n">
-        <v>215.7234969542596</v>
+        <v>394.2593498811947</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>26.31122268722337</v>
+        <v>26.31122268722336</v>
       </c>
       <c r="C40" t="n">
-        <v>26.31122268722337</v>
+        <v>26.31122268722336</v>
       </c>
       <c r="D40" t="n">
-        <v>26.31122268722337</v>
+        <v>26.31122268722336</v>
       </c>
       <c r="E40" t="n">
-        <v>26.31122268722337</v>
+        <v>26.31122268722336</v>
       </c>
       <c r="F40" t="n">
-        <v>26.31122268722337</v>
+        <v>26.31122268722336</v>
       </c>
       <c r="G40" t="n">
-        <v>26.31122268722337</v>
+        <v>26.31122268722336</v>
       </c>
       <c r="H40" t="n">
-        <v>26.31122268722337</v>
+        <v>26.31122268722336</v>
       </c>
       <c r="I40" t="n">
-        <v>26.31122268722337</v>
+        <v>26.31122268722336</v>
       </c>
       <c r="J40" t="n">
-        <v>26.31122268722337</v>
+        <v>26.31122268722336</v>
       </c>
       <c r="K40" t="n">
-        <v>26.31122268722337</v>
+        <v>26.31122268722336</v>
       </c>
       <c r="L40" t="n">
-        <v>26.31122268722337</v>
+        <v>26.31122268722336</v>
       </c>
       <c r="M40" t="n">
-        <v>109.9279233847934</v>
+        <v>26.31122268722336</v>
       </c>
       <c r="N40" t="n">
-        <v>109.9279233847934</v>
+        <v>38.43392866757262</v>
       </c>
       <c r="O40" t="n">
-        <v>109.9279233847934</v>
+        <v>38.43392866757262</v>
       </c>
       <c r="P40" t="n">
-        <v>109.9279233847934</v>
+        <v>38.43392866757262</v>
       </c>
       <c r="Q40" t="n">
-        <v>109.9279233847934</v>
+        <v>38.43392866757262</v>
       </c>
       <c r="R40" t="n">
-        <v>109.9279233847934</v>
+        <v>82.86482788338674</v>
       </c>
       <c r="S40" t="n">
-        <v>109.9279233847934</v>
+        <v>82.86482788338674</v>
       </c>
       <c r="T40" t="n">
-        <v>109.9279233847934</v>
+        <v>106.9735468446521</v>
       </c>
       <c r="U40" t="n">
-        <v>68.9551349876983</v>
+        <v>66.000758447557</v>
       </c>
       <c r="V40" t="n">
-        <v>68.9551349876983</v>
+        <v>68.95513498769819</v>
       </c>
       <c r="W40" t="n">
-        <v>26.31122268722337</v>
+        <v>26.31122268722336</v>
       </c>
       <c r="X40" t="n">
-        <v>26.31122268722337</v>
+        <v>26.31122268722336</v>
       </c>
       <c r="Y40" t="n">
-        <v>26.31122268722337</v>
+        <v>26.31122268722336</v>
       </c>
     </row>
     <row r="41">
@@ -7385,16 +7385,16 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>820.9115219629605</v>
+        <v>820.9115219629603</v>
       </c>
       <c r="C41" t="n">
-        <v>710.1949433311161</v>
+        <v>710.1949433311157</v>
       </c>
       <c r="D41" t="n">
-        <v>612.0372917083137</v>
+        <v>612.0372917083134</v>
       </c>
       <c r="E41" t="n">
-        <v>479.8324154194417</v>
+        <v>479.8324154194415</v>
       </c>
       <c r="F41" t="n">
         <v>315.5867941019058</v>
@@ -7409,34 +7409,34 @@
         <v>28.1658050932128</v>
       </c>
       <c r="J41" t="n">
-        <v>191.2437500379546</v>
+        <v>191.2437500379547</v>
       </c>
       <c r="K41" t="n">
-        <v>239.7237399918192</v>
+        <v>191.2437500379547</v>
       </c>
       <c r="L41" t="n">
-        <v>288.1209904788065</v>
+        <v>477.8311242152384</v>
       </c>
       <c r="M41" t="n">
-        <v>609.0383401722198</v>
+        <v>650.3810693777918</v>
       </c>
       <c r="N41" t="n">
-        <v>924.4518668540211</v>
+        <v>727.6044723692967</v>
       </c>
       <c r="O41" t="n">
-        <v>1198.652501443498</v>
+        <v>1001.805106958773</v>
       </c>
       <c r="P41" t="n">
-        <v>1198.652501443498</v>
+        <v>1226.581795953501</v>
       </c>
       <c r="Q41" t="n">
-        <v>1349.175182914475</v>
+        <v>1377.104477424478</v>
       </c>
       <c r="R41" t="n">
-        <v>1395.099881236665</v>
+        <v>1377.104477424478</v>
       </c>
       <c r="S41" t="n">
-        <v>1408.29025466064</v>
+        <v>1390.294850848453</v>
       </c>
       <c r="T41" t="n">
         <v>1408.29025466064</v>
@@ -7445,7 +7445,7 @@
         <v>1398.640155142398</v>
       </c>
       <c r="V41" t="n">
-        <v>1317.545509613612</v>
+        <v>1317.545509613611</v>
       </c>
       <c r="W41" t="n">
         <v>1219.262298209456</v>
@@ -7454,7 +7454,7 @@
         <v>1098.871763099301</v>
       </c>
       <c r="Y41" t="n">
-        <v>955.7510733186982</v>
+        <v>955.751073318698</v>
       </c>
     </row>
     <row r="42">
@@ -7491,7 +7491,7 @@
         <v>28.1658050932128</v>
       </c>
       <c r="K42" t="n">
-        <v>67.04695151300419</v>
+        <v>67.0469515130042</v>
       </c>
       <c r="L42" t="n">
         <v>185.6139934405095</v>
@@ -7518,22 +7518,22 @@
         <v>657.1572765725973</v>
       </c>
       <c r="T42" t="n">
-        <v>523.2584375081487</v>
+        <v>657.1572765725973</v>
       </c>
       <c r="U42" t="n">
-        <v>523.2584375081487</v>
+        <v>476.1535973704114</v>
       </c>
       <c r="V42" t="n">
-        <v>280.1787194117828</v>
+        <v>476.1002272898565</v>
       </c>
       <c r="W42" t="n">
-        <v>253.8064981578852</v>
+        <v>206.7016580201479</v>
       </c>
       <c r="X42" t="n">
-        <v>253.8064981578852</v>
+        <v>206.7016580201479</v>
       </c>
       <c r="Y42" t="n">
-        <v>28.1658050932128</v>
+        <v>206.7016580201479</v>
       </c>
     </row>
     <row r="43">
@@ -7582,28 +7582,28 @@
         <v>103.2947919310149</v>
       </c>
       <c r="O43" t="n">
-        <v>131.4867779132288</v>
+        <v>103.2947919310149</v>
       </c>
       <c r="P43" t="n">
-        <v>131.4867779132288</v>
+        <v>131.4867779132287</v>
       </c>
       <c r="Q43" t="n">
-        <v>131.4867779132288</v>
+        <v>131.4867779132287</v>
       </c>
       <c r="R43" t="n">
-        <v>131.4867779132288</v>
+        <v>131.4867779132287</v>
       </c>
       <c r="S43" t="n">
-        <v>131.4867779132288</v>
+        <v>131.4867779132287</v>
       </c>
       <c r="T43" t="n">
-        <v>131.4867779132288</v>
+        <v>131.4867779132287</v>
       </c>
       <c r="U43" t="n">
-        <v>82.94111135834351</v>
+        <v>82.94111135834345</v>
       </c>
       <c r="V43" t="n">
-        <v>78.38259555147786</v>
+        <v>78.38259555147783</v>
       </c>
       <c r="W43" t="n">
         <v>28.1658050932128</v>
@@ -7622,19 +7622,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>820.91152196296</v>
+        <v>820.9115219629607</v>
       </c>
       <c r="C44" t="n">
-        <v>710.1949433311156</v>
+        <v>710.1949433311165</v>
       </c>
       <c r="D44" t="n">
-        <v>612.0372917083132</v>
+        <v>612.0372917083141</v>
       </c>
       <c r="E44" t="n">
-        <v>479.8324154194412</v>
+        <v>479.8324154194419</v>
       </c>
       <c r="F44" t="n">
-        <v>315.5867941019053</v>
+        <v>315.5867941019059</v>
       </c>
       <c r="G44" t="n">
         <v>135.5551193516299</v>
@@ -7646,40 +7646,40 @@
         <v>28.1658050932128</v>
       </c>
       <c r="J44" t="n">
-        <v>191.2437500379546</v>
+        <v>28.1658050932128</v>
       </c>
       <c r="K44" t="n">
-        <v>191.2437500379546</v>
+        <v>28.1658050932128</v>
       </c>
       <c r="L44" t="n">
-        <v>477.8311242152383</v>
+        <v>314.7531792704965</v>
       </c>
       <c r="M44" t="n">
-        <v>681.5668466139538</v>
+        <v>617.646744479576</v>
       </c>
       <c r="N44" t="n">
-        <v>996.980373295755</v>
+        <v>933.0602711613773</v>
       </c>
       <c r="O44" t="n">
-        <v>1032.990884194935</v>
+        <v>969.0707820605575</v>
       </c>
       <c r="P44" t="n">
-        <v>1257.767573189662</v>
+        <v>1193.847471055285</v>
       </c>
       <c r="Q44" t="n">
-        <v>1408.29025466064</v>
+        <v>1344.370152526262</v>
       </c>
       <c r="R44" t="n">
-        <v>1408.29025466064</v>
+        <v>1390.294850848453</v>
       </c>
       <c r="S44" t="n">
-        <v>1408.29025466064</v>
+        <v>1390.294850848453</v>
       </c>
       <c r="T44" t="n">
         <v>1408.29025466064</v>
       </c>
       <c r="U44" t="n">
-        <v>1398.640155142398</v>
+        <v>1398.640155142399</v>
       </c>
       <c r="V44" t="n">
         <v>1317.545509613612</v>
@@ -7691,7 +7691,7 @@
         <v>1098.871763099301</v>
       </c>
       <c r="Y44" t="n">
-        <v>955.7510733186978</v>
+        <v>955.7510733186984</v>
       </c>
     </row>
     <row r="45">
@@ -7701,19 +7701,19 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>217.5780793602491</v>
+        <v>194.2870043896817</v>
       </c>
       <c r="C45" t="n">
-        <v>28.1658050932128</v>
+        <v>178.407081044239</v>
       </c>
       <c r="D45" t="n">
-        <v>28.1658050932128</v>
+        <v>178.407081044239</v>
       </c>
       <c r="E45" t="n">
-        <v>28.1658050932128</v>
+        <v>178.407081044239</v>
       </c>
       <c r="F45" t="n">
-        <v>28.1658050932128</v>
+        <v>178.407081044239</v>
       </c>
       <c r="G45" t="n">
         <v>28.1658050932128</v>
@@ -7728,7 +7728,7 @@
         <v>28.1658050932128</v>
       </c>
       <c r="K45" t="n">
-        <v>67.04695151300419</v>
+        <v>67.0469515130042</v>
       </c>
       <c r="L45" t="n">
         <v>185.6139934405095</v>
@@ -7749,28 +7749,28 @@
         <v>792.8778196179259</v>
       </c>
       <c r="R45" t="n">
-        <v>686.763335684205</v>
+        <v>657.1572765725973</v>
       </c>
       <c r="S45" t="n">
-        <v>686.763335684205</v>
+        <v>463.7389437399452</v>
       </c>
       <c r="T45" t="n">
-        <v>469.644363759374</v>
+        <v>463.7389437399452</v>
       </c>
       <c r="U45" t="n">
-        <v>469.644363759374</v>
+        <v>463.7389437399452</v>
       </c>
       <c r="V45" t="n">
-        <v>469.5909936788191</v>
+        <v>463.6855736593903</v>
       </c>
       <c r="W45" t="n">
-        <v>443.2187724249214</v>
+        <v>194.2870043896817</v>
       </c>
       <c r="X45" t="n">
-        <v>443.2187724249214</v>
+        <v>194.2870043896817</v>
       </c>
       <c r="Y45" t="n">
-        <v>217.5780793602491</v>
+        <v>194.2870043896817</v>
       </c>
     </row>
     <row r="46">
@@ -7792,55 +7792,55 @@
         <v>28.1658050932128</v>
       </c>
       <c r="F46" t="n">
-        <v>128.818315387247</v>
+        <v>114.8002368344136</v>
       </c>
       <c r="G46" t="n">
-        <v>128.818315387247</v>
+        <v>114.8002368344136</v>
       </c>
       <c r="H46" t="n">
-        <v>128.818315387247</v>
+        <v>114.8002368344136</v>
       </c>
       <c r="I46" t="n">
-        <v>128.818315387247</v>
+        <v>114.8002368344136</v>
       </c>
       <c r="J46" t="n">
-        <v>128.818315387247</v>
+        <v>114.8002368344136</v>
       </c>
       <c r="K46" t="n">
-        <v>128.818315387247</v>
+        <v>114.8002368344136</v>
       </c>
       <c r="L46" t="n">
-        <v>131.4867779132288</v>
+        <v>114.8002368344136</v>
       </c>
       <c r="M46" t="n">
-        <v>131.4867779132288</v>
+        <v>114.8002368344136</v>
       </c>
       <c r="N46" t="n">
-        <v>131.4867779132288</v>
+        <v>114.8002368344136</v>
       </c>
       <c r="O46" t="n">
-        <v>131.4867779132288</v>
+        <v>114.8002368344136</v>
       </c>
       <c r="P46" t="n">
-        <v>131.4867779132288</v>
+        <v>114.8002368344136</v>
       </c>
       <c r="Q46" t="n">
-        <v>131.4867779132288</v>
+        <v>114.8002368344136</v>
       </c>
       <c r="R46" t="n">
-        <v>131.4867779132288</v>
+        <v>114.8002368344136</v>
       </c>
       <c r="S46" t="n">
-        <v>131.4867779132288</v>
+        <v>114.8002368344136</v>
       </c>
       <c r="T46" t="n">
-        <v>131.4867779132288</v>
+        <v>131.4867779132287</v>
       </c>
       <c r="U46" t="n">
-        <v>82.94111135834351</v>
+        <v>82.94111135834345</v>
       </c>
       <c r="V46" t="n">
-        <v>78.38259555147786</v>
+        <v>78.38259555147783</v>
       </c>
       <c r="W46" t="n">
         <v>28.1658050932128</v>
@@ -8769,22 +8769,22 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K12" t="n">
-        <v>171.373473584151</v>
+        <v>165.9360666291097</v>
       </c>
       <c r="L12" t="n">
         <v>240.3045437566416</v>
       </c>
       <c r="M12" t="n">
-        <v>238.8597051383724</v>
+        <v>238.8597051383726</v>
       </c>
       <c r="N12" t="n">
-        <v>182.2746605585922</v>
+        <v>102.1459228782933</v>
       </c>
       <c r="O12" t="n">
-        <v>242.8748317222147</v>
+        <v>242.8748317222149</v>
       </c>
       <c r="P12" t="n">
-        <v>120.7977294433387</v>
+        <v>206.3638740786793</v>
       </c>
       <c r="Q12" t="n">
         <v>136.1300824528302</v>
@@ -9255,10 +9255,10 @@
         <v>102.1459228782933</v>
       </c>
       <c r="O18" t="n">
-        <v>242.8748317222149</v>
+        <v>237.4374247671736</v>
       </c>
       <c r="P18" t="n">
-        <v>200.926467123638</v>
+        <v>206.3638740786793</v>
       </c>
       <c r="Q18" t="n">
         <v>136.1300824528302</v>
@@ -9720,16 +9720,16 @@
         <v>171.373473584151</v>
       </c>
       <c r="L24" t="n">
-        <v>234.8671368016002</v>
+        <v>240.3045437566416</v>
       </c>
       <c r="M24" t="n">
-        <v>116.8104068647679</v>
+        <v>238.8597051383726</v>
       </c>
       <c r="N24" t="n">
-        <v>224.1952211518979</v>
+        <v>102.1459228782933</v>
       </c>
       <c r="O24" t="n">
-        <v>242.8748317222149</v>
+        <v>237.4374247671736</v>
       </c>
       <c r="P24" t="n">
         <v>206.3638740786793</v>
@@ -23261,7 +23261,7 @@
         <v>155.8230217063241</v>
       </c>
       <c r="D11" t="n">
-        <v>21.34038569376816</v>
+        <v>143.3896839673726</v>
       </c>
       <c r="E11" t="n">
         <v>177.0964363867815</v>
@@ -23273,10 +23273,10 @@
         <v>224.4449668635718</v>
       </c>
       <c r="H11" t="n">
-        <v>152.5290299766312</v>
+        <v>30.47973170302649</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>46.21360886079826</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23312,19 +23312,19 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>55.7672073838573</v>
+        <v>9.192618099030724</v>
       </c>
       <c r="V11" t="n">
-        <v>126.1363275102693</v>
+        <v>4.448009660692662</v>
       </c>
       <c r="W11" t="n">
-        <v>21.46468987730776</v>
+        <v>143.5139881509122</v>
       </c>
       <c r="X11" t="n">
-        <v>43.350940346247</v>
+        <v>165.4002386198515</v>
       </c>
       <c r="Y11" t="n">
-        <v>187.9030917435952</v>
+        <v>65.85379346999053</v>
       </c>
     </row>
     <row r="12">
@@ -23492,10 +23492,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>179.7047647029786</v>
+        <v>66.84808452840416</v>
       </c>
       <c r="C14" t="n">
-        <v>33.77372343271938</v>
+        <v>155.8230217063241</v>
       </c>
       <c r="D14" t="n">
         <v>143.3896839673725</v>
@@ -23546,7 +23546,7 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>28.03643329293218</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -23555,7 +23555,7 @@
         <v>4.448009660692577</v>
       </c>
       <c r="W14" t="n">
-        <v>124.6701729570104</v>
+        <v>143.5139881509121</v>
       </c>
       <c r="X14" t="n">
         <v>165.4002386198514</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>823721.9781468639</v>
+        <v>823721.978146864</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>823721.978146864</v>
+        <v>823721.9781468641</v>
       </c>
     </row>
     <row r="7">
@@ -26311,19 +26311,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>683497.2962617561</v>
+        <v>683497.296261756</v>
       </c>
       <c r="C2" t="n">
-        <v>683497.2962617559</v>
+        <v>683497.2962617562</v>
       </c>
       <c r="D2" t="n">
-        <v>683497.2962617559</v>
+        <v>683497.2962617562</v>
       </c>
       <c r="E2" t="n">
-        <v>588992.3189908711</v>
+        <v>588992.3189908712</v>
       </c>
       <c r="F2" t="n">
-        <v>588992.3189908711</v>
+        <v>588992.3189908715</v>
       </c>
       <c r="G2" t="n">
         <v>684881.8753653652</v>
@@ -26335,25 +26335,25 @@
         <v>684881.8753653653</v>
       </c>
       <c r="J2" t="n">
-        <v>684881.8753653659</v>
+        <v>684881.8753653661</v>
       </c>
       <c r="K2" t="n">
-        <v>684881.8753653659</v>
+        <v>684881.875365366</v>
       </c>
       <c r="L2" t="n">
-        <v>684881.8753653662</v>
+        <v>684881.8753653661</v>
       </c>
       <c r="M2" t="n">
-        <v>684881.8753653649</v>
+        <v>684881.8753653652</v>
       </c>
       <c r="N2" t="n">
-        <v>684881.8753653653</v>
+        <v>684881.8753653651</v>
       </c>
       <c r="O2" t="n">
-        <v>684881.8753653652</v>
+        <v>684881.8753653658</v>
       </c>
       <c r="P2" t="n">
-        <v>684881.8753653655</v>
+        <v>684881.8753653656</v>
       </c>
     </row>
     <row r="3">
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>275373.0470845676</v>
+        <v>275373.0470845677</v>
       </c>
       <c r="F3" t="n">
         <v>6.821210263296962e-11</v>
@@ -26387,7 +26387,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>155188.0488107728</v>
+        <v>155188.0488107729</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,13 +26396,13 @@
         <v>101197.8463474378</v>
       </c>
       <c r="M3" t="n">
-        <v>28140.86133097983</v>
+        <v>28140.8613309799</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>68716.99883240172</v>
+        <v>68716.99883240175</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26424,25 +26424,25 @@
         <v>461965.1541894153</v>
       </c>
       <c r="E4" t="n">
+        <v>355249.9666028521</v>
+      </c>
+      <c r="F4" t="n">
         <v>355249.966602852</v>
       </c>
-      <c r="F4" t="n">
-        <v>355249.9666028521</v>
-      </c>
       <c r="G4" t="n">
-        <v>425753.4766314354</v>
+        <v>425753.4766314353</v>
       </c>
       <c r="H4" t="n">
-        <v>425753.4766314354</v>
+        <v>425753.4766314353</v>
       </c>
       <c r="I4" t="n">
-        <v>425753.4766314354</v>
+        <v>425753.4766314353</v>
       </c>
       <c r="J4" t="n">
-        <v>424916.7517290889</v>
+        <v>424916.751729089</v>
       </c>
       <c r="K4" t="n">
-        <v>424916.7517290889</v>
+        <v>424916.751729089</v>
       </c>
       <c r="L4" t="n">
         <v>424916.7517290888</v>
@@ -26451,7 +26451,7 @@
         <v>424375.1958291386</v>
       </c>
       <c r="N4" t="n">
-        <v>424375.1958291386</v>
+        <v>424375.1958291387</v>
       </c>
       <c r="O4" t="n">
         <v>424475.2891828689</v>
@@ -26476,7 +26476,7 @@
         <v>33627.6</v>
       </c>
       <c r="E5" t="n">
-        <v>26025.86226334829</v>
+        <v>26025.8622633483</v>
       </c>
       <c r="F5" t="n">
         <v>26025.86226334831</v>
@@ -26491,19 +26491,19 @@
         <v>36660.36444407674</v>
       </c>
       <c r="J5" t="n">
+        <v>47580.58365082261</v>
+      </c>
+      <c r="K5" t="n">
+        <v>47580.58365082261</v>
+      </c>
+      <c r="L5" t="n">
         <v>47580.5836508226</v>
       </c>
-      <c r="K5" t="n">
-        <v>47580.58365082259</v>
-      </c>
-      <c r="L5" t="n">
-        <v>47580.58365082261</v>
-      </c>
       <c r="M5" t="n">
-        <v>43117.20390483014</v>
+        <v>43117.20390483012</v>
       </c>
       <c r="N5" t="n">
-        <v>43117.20390483013</v>
+        <v>43117.20390483012</v>
       </c>
       <c r="O5" t="n">
         <v>43896.40868247331</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>187904.5420723408</v>
+        <v>187900.0756881355</v>
       </c>
       <c r="C6" t="n">
-        <v>187904.5420723406</v>
+        <v>187900.0756881358</v>
       </c>
       <c r="D6" t="n">
-        <v>187904.5420723406</v>
+        <v>187900.0756881358</v>
       </c>
       <c r="E6" t="n">
-        <v>-67656.5569598968</v>
+        <v>-67965.87810949201</v>
       </c>
       <c r="F6" t="n">
-        <v>207716.4901246706</v>
+        <v>207407.1689750759</v>
       </c>
       <c r="G6" t="n">
-        <v>121270.1879424152</v>
+        <v>121270.1879424153</v>
       </c>
       <c r="H6" t="n">
-        <v>222468.0342898533</v>
+        <v>222468.0342898534</v>
       </c>
       <c r="I6" t="n">
         <v>222468.0342898532</v>
       </c>
       <c r="J6" t="n">
-        <v>57196.49117468156</v>
+        <v>57196.49117468161</v>
       </c>
       <c r="K6" t="n">
         <v>212384.5399854544</v>
       </c>
       <c r="L6" t="n">
-        <v>111186.693638017</v>
+        <v>111186.6936380168</v>
       </c>
       <c r="M6" t="n">
-        <v>189248.6143004163</v>
+        <v>189248.6143004166</v>
       </c>
       <c r="N6" t="n">
-        <v>217389.4756313965</v>
+        <v>217389.4756313963</v>
       </c>
       <c r="O6" t="n">
-        <v>147793.1786676213</v>
+        <v>147793.1786676219</v>
       </c>
       <c r="P6" t="n">
-        <v>216510.1775000233</v>
+        <v>216510.1775000234</v>
       </c>
     </row>
   </sheetData>
@@ -26796,7 +26796,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>122.0492982736044</v>
+        <v>122.0492982736047</v>
       </c>
       <c r="F4" t="n">
         <v>122.0492982736047</v>
@@ -26808,22 +26808,22 @@
         <v>122.0492982736047</v>
       </c>
       <c r="I4" t="n">
-        <v>122.0492982736046</v>
+        <v>122.0492982736047</v>
       </c>
       <c r="J4" t="n">
-        <v>450.9395818638965</v>
+        <v>450.9395818638966</v>
       </c>
       <c r="K4" t="n">
-        <v>450.9395818638965</v>
+        <v>450.9395818638966</v>
       </c>
       <c r="L4" t="n">
-        <v>450.9395818638968</v>
+        <v>450.9395818638966</v>
       </c>
       <c r="M4" t="n">
-        <v>328.8902835902922</v>
+        <v>328.890283590292</v>
       </c>
       <c r="N4" t="n">
-        <v>328.8902835902921</v>
+        <v>328.890283590292</v>
       </c>
       <c r="O4" t="n">
         <v>352.07256366516</v>
@@ -26929,22 +26929,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>86.41984931384312</v>
+        <v>86.41984931384314</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>126.4973079342973</v>
+        <v>126.4973079342972</v>
       </c>
       <c r="M2" t="n">
-        <v>35.17607666372479</v>
+        <v>35.17607666372487</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>78.92269993763088</v>
+        <v>78.92269993763085</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>122.0492982736044</v>
+        <v>122.0492982736047</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>328.8902835902919</v>
+        <v>328.890283590292</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27048,7 +27048,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>23.18228007486783</v>
+        <v>23.182280074868</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>86.41984931384312</v>
+        <v>86.41984931384314</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>122.0492982736044</v>
+        <v>122.0492982736047</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -28111,25 +28111,25 @@
         <v>194.3824756748547</v>
       </c>
       <c r="J11" t="n">
-        <v>84.43133697741335</v>
+        <v>75.87088762177227</v>
       </c>
       <c r="K11" t="n">
-        <v>5.362241946157035</v>
+        <v>5.362241946157027</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>73.16318667058719</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>44.04586090844823</v>
       </c>
       <c r="O11" t="n">
         <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>135.5982222085227</v>
+        <v>26.94962398512918</v>
       </c>
       <c r="Q11" t="n">
         <v>194.3824756748547</v>
@@ -28169,16 +28169,16 @@
         <v>176.7504943976657</v>
       </c>
       <c r="C12" t="n">
-        <v>69.84985806102534</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D12" t="n">
-        <v>159.1723150765785</v>
+        <v>124.1688489117025</v>
       </c>
       <c r="E12" t="n">
         <v>171.8275718397997</v>
       </c>
       <c r="F12" t="n">
-        <v>36.77414084632389</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G12" t="n">
         <v>148.7388631915159</v>
@@ -28190,7 +28190,7 @@
         <v>107.1657389737211</v>
       </c>
       <c r="J12" t="n">
-        <v>51.93274503525225</v>
+        <v>51.93274503525224</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -28211,7 +28211,7 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>6.136586121265641</v>
+        <v>6.136586121265637</v>
       </c>
       <c r="R12" t="n">
         <v>134.3633376148752</v>
@@ -28223,13 +28223,13 @@
         <v>194.3824756748547</v>
       </c>
       <c r="U12" t="n">
-        <v>194.3824756748547</v>
+        <v>115.1783935072898</v>
       </c>
       <c r="V12" t="n">
-        <v>194.3824756748547</v>
+        <v>118.5996226417976</v>
       </c>
       <c r="W12" t="n">
-        <v>194.3824756748547</v>
+        <v>144.6552853034069</v>
       </c>
       <c r="X12" t="n">
         <v>194.3824756748547</v>
@@ -28248,7 +28248,7 @@
         <v>194.3824756748547</v>
       </c>
       <c r="C13" t="n">
-        <v>166.7306262256435</v>
+        <v>166.4571809719723</v>
       </c>
       <c r="D13" t="n">
         <v>194.3824756748547</v>
@@ -28263,34 +28263,34 @@
         <v>168.6959616282545</v>
       </c>
       <c r="H13" t="n">
-        <v>165.7816030517371</v>
+        <v>194.3824756748547</v>
       </c>
       <c r="I13" t="n">
-        <v>164.7082190429236</v>
+        <v>164.7082190429235</v>
       </c>
       <c r="J13" t="n">
         <v>119.8993073508208</v>
       </c>
       <c r="K13" t="n">
-        <v>66.47076232176849</v>
+        <v>188.5200605953732</v>
       </c>
       <c r="L13" t="n">
         <v>31.43620997383529</v>
       </c>
       <c r="M13" t="n">
-        <v>24.46235891800153</v>
+        <v>24.46235891800152</v>
       </c>
       <c r="N13" t="n">
-        <v>137.8328896397046</v>
+        <v>15.78359136610013</v>
       </c>
       <c r="O13" t="n">
-        <v>36.7985460771767</v>
+        <v>158.8478443507814</v>
       </c>
       <c r="P13" t="n">
-        <v>179.9457505507723</v>
+        <v>97.13756276569934</v>
       </c>
       <c r="Q13" t="n">
-        <v>194.3824756748547</v>
+        <v>126.8139378168763</v>
       </c>
       <c r="R13" t="n">
         <v>194.3824756748547</v>
@@ -28348,13 +28348,13 @@
         <v>194.3824756748548</v>
       </c>
       <c r="J14" t="n">
-        <v>194.3824756748548</v>
+        <v>153.4719074764907</v>
       </c>
       <c r="K14" t="n">
-        <v>5.362241946157035</v>
+        <v>5.362241946157027</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>73.16318667058719</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
@@ -28363,16 +28363,16 @@
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>85.67504484008934</v>
       </c>
       <c r="P14" t="n">
-        <v>131.3016119442004</v>
+        <v>13.54892393491826</v>
       </c>
       <c r="Q14" t="n">
         <v>88.55297193870598</v>
       </c>
       <c r="R14" t="n">
-        <v>194.3824756748548</v>
+        <v>194.2075003718244</v>
       </c>
       <c r="S14" t="n">
         <v>194.3824756748548</v>
@@ -28403,7 +28403,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>176.7504943976657</v>
+        <v>160.5661926772008</v>
       </c>
       <c r="C15" t="n">
         <v>187.5181515243659</v>
@@ -28427,7 +28427,7 @@
         <v>107.1657389737211</v>
       </c>
       <c r="J15" t="n">
-        <v>51.93274503525225</v>
+        <v>51.93274503525224</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -28448,7 +28448,7 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>6.136586121265641</v>
+        <v>6.136586121265637</v>
       </c>
       <c r="R15" t="n">
         <v>134.3633376148752</v>
@@ -28457,10 +28457,10 @@
         <v>69.43485123072097</v>
       </c>
       <c r="T15" t="n">
+        <v>92.89848393197799</v>
+      </c>
+      <c r="U15" t="n">
         <v>194.3824756748548</v>
-      </c>
-      <c r="U15" t="n">
-        <v>115.1783935072898</v>
       </c>
       <c r="V15" t="n">
         <v>194.3824756748548</v>
@@ -28469,7 +28469,7 @@
         <v>194.3824756748548</v>
       </c>
       <c r="X15" t="n">
-        <v>155.918264379078</v>
+        <v>194.3824756748548</v>
       </c>
       <c r="Y15" t="n">
         <v>194.3824756748548</v>
@@ -28482,28 +28482,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>177.6169206649681</v>
+        <v>194.3824756748548</v>
       </c>
       <c r="C16" t="n">
         <v>166.4571809719723</v>
       </c>
       <c r="D16" t="n">
-        <v>145.1826502507107</v>
+        <v>181.0823512834946</v>
       </c>
       <c r="E16" t="n">
         <v>141.676141212225</v>
       </c>
       <c r="F16" t="n">
-        <v>138.9268822184467</v>
+        <v>194.3824756748548</v>
       </c>
       <c r="G16" t="n">
-        <v>168.6959616282545</v>
+        <v>194.3824756748548</v>
       </c>
       <c r="H16" t="n">
         <v>165.7816030517371</v>
       </c>
       <c r="I16" t="n">
-        <v>164.7082190429236</v>
+        <v>164.7082190429235</v>
       </c>
       <c r="J16" t="n">
         <v>119.8993073508208</v>
@@ -28512,19 +28512,19 @@
         <v>188.5200605953732</v>
       </c>
       <c r="L16" t="n">
-        <v>43.19427524590961</v>
+        <v>31.43620997383529</v>
       </c>
       <c r="M16" t="n">
-        <v>146.5116571916062</v>
+        <v>24.46235891800152</v>
       </c>
       <c r="N16" t="n">
         <v>15.78359136610013</v>
       </c>
       <c r="O16" t="n">
-        <v>158.8478443507814</v>
+        <v>36.79854607717669</v>
       </c>
       <c r="P16" t="n">
-        <v>57.89645227716785</v>
+        <v>179.9457505507725</v>
       </c>
       <c r="Q16" t="n">
         <v>126.8139378168763</v>
@@ -28582,13 +28582,13 @@
         <v>320.879783609152</v>
       </c>
       <c r="I17" t="n">
-        <v>320.879783609152</v>
+        <v>240.5960845356529</v>
       </c>
       <c r="J17" t="n">
         <v>75.87088762177227</v>
       </c>
       <c r="K17" t="n">
-        <v>5.362241946157035</v>
+        <v>5.362241946157027</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
@@ -28603,22 +28603,22 @@
         <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>13.54892393491827</v>
+        <v>13.54892393491826</v>
       </c>
       <c r="Q17" t="n">
-        <v>88.55297193870598</v>
+        <v>132.9240400700706</v>
       </c>
       <c r="R17" t="n">
         <v>194.2075003718244</v>
       </c>
       <c r="S17" t="n">
-        <v>312.6979267579426</v>
+        <v>320.879783609152</v>
       </c>
       <c r="T17" t="n">
-        <v>222.4189089677869</v>
+        <v>320.879783609152</v>
       </c>
       <c r="U17" t="n">
-        <v>320.879783609152</v>
+        <v>250.149683058712</v>
       </c>
       <c r="V17" t="n">
         <v>320.879783609152</v>
@@ -28646,10 +28646,10 @@
         <v>187.5181515243659</v>
       </c>
       <c r="D18" t="n">
-        <v>51.67129315718755</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E18" t="n">
-        <v>49.778273566195</v>
+        <v>64.32654992040868</v>
       </c>
       <c r="F18" t="n">
         <v>158.8234391199283</v>
@@ -28664,7 +28664,7 @@
         <v>107.1657389737211</v>
       </c>
       <c r="J18" t="n">
-        <v>51.93274503525225</v>
+        <v>51.93274503525224</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -28685,13 +28685,13 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>6.136586121265641</v>
+        <v>6.136586121265637</v>
       </c>
       <c r="R18" t="n">
-        <v>134.3633376148752</v>
+        <v>12.31403934127055</v>
       </c>
       <c r="S18" t="n">
-        <v>69.43485123072097</v>
+        <v>191.4841495043256</v>
       </c>
       <c r="T18" t="n">
         <v>92.89848393197799</v>
@@ -28700,7 +28700,7 @@
         <v>237.2276917808945</v>
       </c>
       <c r="V18" t="n">
-        <v>240.6489209154022</v>
+        <v>118.5996226417976</v>
       </c>
       <c r="W18" t="n">
         <v>266.7045835770116</v>
@@ -28740,7 +28740,7 @@
         <v>165.7816030517371</v>
       </c>
       <c r="I19" t="n">
-        <v>164.7082190429236</v>
+        <v>164.7082190429235</v>
       </c>
       <c r="J19" t="n">
         <v>119.8993073508208</v>
@@ -28752,16 +28752,16 @@
         <v>31.43620997383529</v>
       </c>
       <c r="M19" t="n">
-        <v>24.46235891800153</v>
+        <v>24.46235891800152</v>
       </c>
       <c r="N19" t="n">
         <v>15.78359136610013</v>
       </c>
       <c r="O19" t="n">
-        <v>36.7985460771767</v>
+        <v>36.79854607717669</v>
       </c>
       <c r="P19" t="n">
-        <v>57.89645227716785</v>
+        <v>57.89645227716784</v>
       </c>
       <c r="Q19" t="n">
         <v>126.8139378168763</v>
@@ -28822,25 +28822,25 @@
         <v>240.5960845356529</v>
       </c>
       <c r="J20" t="n">
-        <v>109.4260465680426</v>
+        <v>75.87088762177227</v>
       </c>
       <c r="K20" t="n">
-        <v>5.362241946157035</v>
+        <v>127.4115402197617</v>
       </c>
       <c r="L20" t="n">
-        <v>73.16318667058721</v>
+        <v>73.16318667058719</v>
       </c>
       <c r="M20" t="n">
         <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>44.04586090844825</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>85.67504484008936</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>13.54892393491827</v>
+        <v>54.77569035612139</v>
       </c>
       <c r="Q20" t="n">
         <v>88.55297193870598</v>
@@ -28886,7 +28886,7 @@
         <v>159.1723150765785</v>
       </c>
       <c r="E21" t="n">
-        <v>171.8275718397997</v>
+        <v>49.778273566195</v>
       </c>
       <c r="F21" t="n">
         <v>158.8234391199283</v>
@@ -28901,7 +28901,7 @@
         <v>107.1657389737211</v>
       </c>
       <c r="J21" t="n">
-        <v>51.93274503525225</v>
+        <v>51.93274503525224</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -28922,7 +28922,7 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>6.136586121265641</v>
+        <v>6.136586121265637</v>
       </c>
       <c r="R21" t="n">
         <v>134.3633376148752</v>
@@ -28931,7 +28931,7 @@
         <v>69.43485123072097</v>
       </c>
       <c r="T21" t="n">
-        <v>107.4467602861917</v>
+        <v>214.9477822055827</v>
       </c>
       <c r="U21" t="n">
         <v>115.1783935072898</v>
@@ -28943,10 +28943,10 @@
         <v>266.7045835770116</v>
       </c>
       <c r="X21" t="n">
-        <v>217.3129144394706</v>
+        <v>109.8118925200796</v>
       </c>
       <c r="Y21" t="n">
-        <v>101.3349878604209</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="22">
@@ -28977,7 +28977,7 @@
         <v>165.7816030517371</v>
       </c>
       <c r="I22" t="n">
-        <v>164.7082190429236</v>
+        <v>164.7082190429235</v>
       </c>
       <c r="J22" t="n">
         <v>119.8993073508208</v>
@@ -28989,16 +28989,16 @@
         <v>31.43620997383529</v>
       </c>
       <c r="M22" t="n">
-        <v>24.46235891800153</v>
+        <v>24.46235891800152</v>
       </c>
       <c r="N22" t="n">
         <v>15.78359136610013</v>
       </c>
       <c r="O22" t="n">
-        <v>36.7985460771767</v>
+        <v>36.79854607717669</v>
       </c>
       <c r="P22" t="n">
-        <v>57.89645227716785</v>
+        <v>57.89645227716784</v>
       </c>
       <c r="Q22" t="n">
         <v>126.8139378168763</v>
@@ -29059,10 +29059,10 @@
         <v>240.5960845356529</v>
       </c>
       <c r="J23" t="n">
-        <v>197.9201858953769</v>
+        <v>75.87088762177227</v>
       </c>
       <c r="K23" t="n">
-        <v>5.362241946157035</v>
+        <v>5.362241946157027</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
@@ -29077,16 +29077,16 @@
         <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>13.54892393491827</v>
+        <v>135.5982222085229</v>
       </c>
       <c r="Q23" t="n">
-        <v>109.335616437831</v>
+        <v>202.9429250304963</v>
       </c>
       <c r="R23" t="n">
         <v>194.2075003718244</v>
       </c>
       <c r="S23" t="n">
-        <v>320.879783609152</v>
+        <v>227.2724750164867</v>
       </c>
       <c r="T23" t="n">
         <v>222.4189089677869</v>
@@ -29123,10 +29123,10 @@
         <v>159.1723150765785</v>
       </c>
       <c r="E24" t="n">
-        <v>64.32654992040874</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F24" t="n">
-        <v>36.77414084632369</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G24" t="n">
         <v>148.7388631915159</v>
@@ -29138,7 +29138,7 @@
         <v>107.1657389737211</v>
       </c>
       <c r="J24" t="n">
-        <v>51.93274503525225</v>
+        <v>51.93274503525224</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -29159,19 +29159,19 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>6.136586121265641</v>
+        <v>6.136586121265637</v>
       </c>
       <c r="R24" t="n">
         <v>134.3633376148752</v>
       </c>
       <c r="S24" t="n">
-        <v>191.4841495043256</v>
+        <v>83.98312758493471</v>
       </c>
       <c r="T24" t="n">
-        <v>214.9477822055827</v>
+        <v>92.89848393197799</v>
       </c>
       <c r="U24" t="n">
-        <v>115.1783935072898</v>
+        <v>237.2276917808945</v>
       </c>
       <c r="V24" t="n">
         <v>240.6489209154022</v>
@@ -29180,7 +29180,7 @@
         <v>144.6552853034069</v>
       </c>
       <c r="X24" t="n">
-        <v>217.3129144394706</v>
+        <v>95.26361616586593</v>
       </c>
       <c r="Y24" t="n">
         <v>223.3842861340256</v>
@@ -29214,7 +29214,7 @@
         <v>165.7816030517371</v>
       </c>
       <c r="I25" t="n">
-        <v>164.7082190429236</v>
+        <v>164.7082190429235</v>
       </c>
       <c r="J25" t="n">
         <v>119.8993073508208</v>
@@ -29226,16 +29226,16 @@
         <v>31.43620997383529</v>
       </c>
       <c r="M25" t="n">
-        <v>24.46235891800153</v>
+        <v>24.46235891800152</v>
       </c>
       <c r="N25" t="n">
         <v>15.78359136610013</v>
       </c>
       <c r="O25" t="n">
-        <v>36.7985460771767</v>
+        <v>36.79854607717669</v>
       </c>
       <c r="P25" t="n">
-        <v>57.89645227716785</v>
+        <v>57.89645227716784</v>
       </c>
       <c r="Q25" t="n">
         <v>126.8139378168763</v>
@@ -29299,7 +29299,7 @@
         <v>212.9171572481404</v>
       </c>
       <c r="K26" t="n">
-        <v>212.9171572481388</v>
+        <v>212.9171572481404</v>
       </c>
       <c r="L26" t="n">
         <v>212.9171572481404</v>
@@ -29308,7 +29308,7 @@
         <v>212.9171572481404</v>
       </c>
       <c r="N26" t="n">
-        <v>212.9171572481404</v>
+        <v>212.9171572481391</v>
       </c>
       <c r="O26" t="n">
         <v>212.9171572481404</v>
@@ -29357,7 +29357,7 @@
         <v>187.5181515243659</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E27" t="n">
         <v>171.8275718397997</v>
@@ -29375,7 +29375,7 @@
         <v>107.1657389737211</v>
       </c>
       <c r="J27" t="n">
-        <v>51.93274503525225</v>
+        <v>51.93274503525224</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -29396,28 +29396,28 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>6.136586121265641</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>85.02830837181352</v>
+        <v>134.3633376148752</v>
       </c>
       <c r="S27" t="n">
         <v>191.4841495043256</v>
       </c>
       <c r="T27" t="n">
-        <v>212.9171572481404</v>
+        <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>10.54639904976565</v>
       </c>
       <c r="V27" t="n">
         <v>212.9171572481404</v>
       </c>
       <c r="W27" t="n">
-        <v>0</v>
+        <v>212.9171572481404</v>
       </c>
       <c r="X27" t="n">
-        <v>212.9171572481404</v>
+        <v>0</v>
       </c>
       <c r="Y27" t="n">
         <v>212.9171572481404</v>
@@ -29451,34 +29451,34 @@
         <v>165.7816030517371</v>
       </c>
       <c r="I28" t="n">
-        <v>212.9171572481404</v>
+        <v>164.7082190429235</v>
       </c>
       <c r="J28" t="n">
         <v>119.8993073508208</v>
       </c>
       <c r="K28" t="n">
-        <v>212.9171572481404</v>
+        <v>66.47076232176849</v>
       </c>
       <c r="L28" t="n">
         <v>31.43620997383529</v>
       </c>
       <c r="M28" t="n">
-        <v>24.46235891800153</v>
+        <v>75.15864513412113</v>
       </c>
       <c r="N28" t="n">
-        <v>57.64677513546012</v>
+        <v>15.78359136610013</v>
       </c>
       <c r="O28" t="n">
-        <v>36.7985460771767</v>
+        <v>212.9171572481404</v>
       </c>
       <c r="P28" t="n">
-        <v>57.89645227716785</v>
+        <v>57.89645227716784</v>
       </c>
       <c r="Q28" t="n">
         <v>126.8139378168763</v>
       </c>
       <c r="R28" t="n">
-        <v>203.2135377342752</v>
+        <v>212.9171572481404</v>
       </c>
       <c r="S28" t="n">
         <v>212.9171572481404</v>
@@ -29591,13 +29591,13 @@
         <v>176.7504943976657</v>
       </c>
       <c r="C30" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
         <v>159.1723150765785</v>
       </c>
       <c r="E30" t="n">
-        <v>97.68356513503505</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F30" t="n">
         <v>158.8234391199283</v>
@@ -29612,7 +29612,7 @@
         <v>107.1657389737211</v>
       </c>
       <c r="J30" t="n">
-        <v>51.93274503525225</v>
+        <v>51.93274503525224</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -29633,7 +29633,7 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>6.136586121265641</v>
+        <v>6.136586121265637</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -29654,10 +29654,10 @@
         <v>212.9171572481403</v>
       </c>
       <c r="X30" t="n">
-        <v>0</v>
+        <v>212.9171572481403</v>
       </c>
       <c r="Y30" t="n">
-        <v>212.9171572481403</v>
+        <v>113.374144819601</v>
       </c>
     </row>
     <row r="31">
@@ -29670,7 +29670,7 @@
         <v>177.6169206649681</v>
       </c>
       <c r="C31" t="n">
-        <v>166.4571809719723</v>
+        <v>205.8421319908813</v>
       </c>
       <c r="D31" t="n">
         <v>145.1826502507107</v>
@@ -29688,7 +29688,7 @@
         <v>165.7816030517371</v>
       </c>
       <c r="I31" t="n">
-        <v>212.9171572481403</v>
+        <v>164.7082190429235</v>
       </c>
       <c r="J31" t="n">
         <v>119.8993073508208</v>
@@ -29700,16 +29700,16 @@
         <v>31.43620997383529</v>
       </c>
       <c r="M31" t="n">
-        <v>24.46235891800153</v>
+        <v>24.46235891800152</v>
       </c>
       <c r="N31" t="n">
-        <v>27.97455889086906</v>
+        <v>212.9171572481403</v>
       </c>
       <c r="O31" t="n">
-        <v>212.9171572481403</v>
+        <v>36.79854607717669</v>
       </c>
       <c r="P31" t="n">
-        <v>57.89645227716785</v>
+        <v>57.89645227716784</v>
       </c>
       <c r="Q31" t="n">
         <v>126.8139378168763</v>
@@ -29782,7 +29782,7 @@
         <v>212.9171572481403</v>
       </c>
       <c r="N32" t="n">
-        <v>212.9171572481403</v>
+        <v>212.9171572481397</v>
       </c>
       <c r="O32" t="n">
         <v>212.9171572481403</v>
@@ -29849,7 +29849,7 @@
         <v>107.1657389737211</v>
       </c>
       <c r="J33" t="n">
-        <v>51.93274503525225</v>
+        <v>51.93274503525224</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -29870,7 +29870,7 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>6.136586121265641</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>134.3633376148752</v>
@@ -29879,7 +29879,7 @@
         <v>191.4841495043256</v>
       </c>
       <c r="T33" t="n">
-        <v>212.9171572481403</v>
+        <v>0</v>
       </c>
       <c r="U33" t="n">
         <v>212.9171572481403</v>
@@ -29891,10 +29891,10 @@
         <v>212.9171572481403</v>
       </c>
       <c r="X33" t="n">
-        <v>4.409812928500543</v>
+        <v>10.54639904976599</v>
       </c>
       <c r="Y33" t="n">
-        <v>0</v>
+        <v>212.9171572481403</v>
       </c>
     </row>
     <row r="34">
@@ -29925,28 +29925,28 @@
         <v>165.7816030517371</v>
       </c>
       <c r="I34" t="n">
-        <v>212.9171572481403</v>
+        <v>164.7082190429235</v>
       </c>
       <c r="J34" t="n">
         <v>119.8993073508208</v>
       </c>
       <c r="K34" t="n">
-        <v>66.47076232176849</v>
+        <v>212.9171572481403</v>
       </c>
       <c r="L34" t="n">
         <v>31.43620997383529</v>
       </c>
       <c r="M34" t="n">
-        <v>138.7816625840404</v>
+        <v>40.5442058628854</v>
       </c>
       <c r="N34" t="n">
         <v>15.78359136610013</v>
       </c>
       <c r="O34" t="n">
-        <v>36.7985460771767</v>
+        <v>36.79854607717669</v>
       </c>
       <c r="P34" t="n">
-        <v>57.89645227716785</v>
+        <v>57.89645227716784</v>
       </c>
       <c r="Q34" t="n">
         <v>126.8139378168763</v>
@@ -30004,40 +30004,40 @@
         <v>248.0932339118652</v>
       </c>
       <c r="I35" t="n">
-        <v>240.5960845356529</v>
+        <v>248.0932339118652</v>
       </c>
       <c r="J35" t="n">
+        <v>75.87088762177227</v>
+      </c>
+      <c r="K35" t="n">
         <v>248.0932339118652</v>
       </c>
-      <c r="K35" t="n">
-        <v>5.362241946157035</v>
-      </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>248.0932339118652</v>
       </c>
       <c r="M35" t="n">
-        <v>245.3274290416893</v>
+        <v>245.327429041689</v>
       </c>
       <c r="N35" t="n">
+        <v>0</v>
+      </c>
+      <c r="O35" t="n">
         <v>248.0932339118652</v>
       </c>
-      <c r="O35" t="n">
-        <v>0</v>
-      </c>
       <c r="P35" t="n">
-        <v>248.0932339118652</v>
+        <v>13.54892393491826</v>
       </c>
       <c r="Q35" t="n">
-        <v>243.8116338223099</v>
+        <v>105.7618309961065</v>
       </c>
       <c r="R35" t="n">
         <v>194.2075003718244</v>
       </c>
       <c r="S35" t="n">
-        <v>227.2724750164867</v>
+        <v>248.0932339118652</v>
       </c>
       <c r="T35" t="n">
-        <v>222.4189089677869</v>
+        <v>248.0932339118652</v>
       </c>
       <c r="U35" t="n">
         <v>248.0932339118652</v>
@@ -30068,10 +30068,10 @@
         <v>187.5181515243659</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E36" t="n">
-        <v>133.3416115268423</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F36" t="n">
         <v>158.8234391199283</v>
@@ -30086,7 +30086,7 @@
         <v>107.1657389737211</v>
       </c>
       <c r="J36" t="n">
-        <v>51.93274503525225</v>
+        <v>51.93274503525224</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -30107,10 +30107,10 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>6.136586121265641</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>134.3633376148752</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -30125,13 +30125,13 @@
         <v>240.6489209154022</v>
       </c>
       <c r="W36" t="n">
-        <v>248.0932339118652</v>
+        <v>145.5924931627452</v>
       </c>
       <c r="X36" t="n">
         <v>217.3129144394706</v>
       </c>
       <c r="Y36" t="n">
-        <v>223.3842861340256</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -30162,7 +30162,7 @@
         <v>165.7816030517371</v>
       </c>
       <c r="I37" t="n">
-        <v>164.7082190429236</v>
+        <v>164.7082190429235</v>
       </c>
       <c r="J37" t="n">
         <v>119.8993073508208</v>
@@ -30174,16 +30174,16 @@
         <v>31.43620997383529</v>
       </c>
       <c r="M37" t="n">
-        <v>108.9236727539309</v>
+        <v>96.1846005356328</v>
       </c>
       <c r="N37" t="n">
         <v>15.78359136610013</v>
       </c>
       <c r="O37" t="n">
-        <v>36.7985460771767</v>
+        <v>36.79854607717669</v>
       </c>
       <c r="P37" t="n">
-        <v>57.89645227716785</v>
+        <v>57.89645227716784</v>
       </c>
       <c r="Q37" t="n">
         <v>126.8139378168763</v>
@@ -30192,7 +30192,7 @@
         <v>203.2135377342752</v>
       </c>
       <c r="S37" t="n">
-        <v>235.3541616935673</v>
+        <v>248.0932339118652</v>
       </c>
       <c r="T37" t="n">
         <v>223.7409925368498</v>
@@ -30241,37 +30241,37 @@
         <v>248.0932339118652</v>
       </c>
       <c r="I38" t="n">
-        <v>240.5960845356529</v>
+        <v>248.0932339118652</v>
       </c>
       <c r="J38" t="n">
         <v>248.0932339118652</v>
       </c>
       <c r="K38" t="n">
-        <v>5.362241946157035</v>
+        <v>5.362241946157027</v>
       </c>
       <c r="L38" t="n">
         <v>248.0932339118652</v>
       </c>
       <c r="M38" t="n">
-        <v>245.3274290416892</v>
+        <v>245.327429041689</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>122.3847431316809</v>
       </c>
       <c r="O38" t="n">
-        <v>204.5883849433134</v>
+        <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>13.54892393491827</v>
+        <v>13.54892393491826</v>
       </c>
       <c r="Q38" t="n">
         <v>248.0932339118652</v>
       </c>
       <c r="R38" t="n">
-        <v>194.2075003718244</v>
+        <v>248.0932339118652</v>
       </c>
       <c r="S38" t="n">
-        <v>227.2724750164867</v>
+        <v>248.0932339118652</v>
       </c>
       <c r="T38" t="n">
         <v>248.0932339118652</v>
@@ -30299,7 +30299,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C39" t="n">
         <v>0</v>
@@ -30323,7 +30323,7 @@
         <v>107.1657389737211</v>
       </c>
       <c r="J39" t="n">
-        <v>51.93274503525225</v>
+        <v>51.93274503525224</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -30344,31 +30344,31 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>6.136586121265641</v>
+        <v>6.136586121265637</v>
       </c>
       <c r="R39" t="n">
         <v>134.3633376148752</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>191.4841495043256</v>
       </c>
       <c r="T39" t="n">
         <v>214.9477822055827</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>237.2276917808945</v>
       </c>
       <c r="V39" t="n">
-        <v>240.6489209154022</v>
+        <v>114.5572560349795</v>
       </c>
       <c r="W39" t="n">
-        <v>248.0932339118652</v>
+        <v>0</v>
       </c>
       <c r="X39" t="n">
         <v>217.3129144394706</v>
       </c>
       <c r="Y39" t="n">
-        <v>101.1607342292921</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="40">
@@ -30399,7 +30399,7 @@
         <v>165.7816030517371</v>
       </c>
       <c r="I40" t="n">
-        <v>164.7082190429236</v>
+        <v>164.7082190429235</v>
       </c>
       <c r="J40" t="n">
         <v>119.8993073508208</v>
@@ -30411,34 +30411,34 @@
         <v>31.43620997383529</v>
       </c>
       <c r="M40" t="n">
-        <v>108.9236727539309</v>
+        <v>24.46235891800152</v>
       </c>
       <c r="N40" t="n">
-        <v>15.78359136610013</v>
+        <v>28.02874892200846</v>
       </c>
       <c r="O40" t="n">
-        <v>36.7985460771767</v>
+        <v>36.79854607717669</v>
       </c>
       <c r="P40" t="n">
-        <v>57.89645227716785</v>
+        <v>57.89645227716784</v>
       </c>
       <c r="Q40" t="n">
         <v>126.8139378168763</v>
       </c>
       <c r="R40" t="n">
-        <v>203.2135377342752</v>
+        <v>248.0932339118652</v>
       </c>
       <c r="S40" t="n">
         <v>235.3541616935673</v>
       </c>
       <c r="T40" t="n">
-        <v>223.7409925368498</v>
+        <v>248.0932339118652</v>
       </c>
       <c r="U40" t="n">
         <v>248.0932339118652</v>
       </c>
       <c r="V40" t="n">
-        <v>245.1090151844499</v>
+        <v>248.0932339118652</v>
       </c>
       <c r="W40" t="n">
         <v>248.0932339118652</v>
@@ -30484,34 +30484,34 @@
         <v>240.5960845356529</v>
       </c>
       <c r="K41" t="n">
-        <v>54.33192876824245</v>
+        <v>5.362241946157027</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>240.5960845356529</v>
       </c>
       <c r="M41" t="n">
-        <v>240.5960845356529</v>
+        <v>90.73001935296615</v>
       </c>
       <c r="N41" t="n">
-        <v>240.5960845356529</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
         <v>240.5960845356529</v>
       </c>
       <c r="P41" t="n">
-        <v>13.54892393491827</v>
+        <v>240.5960845356529</v>
       </c>
       <c r="Q41" t="n">
         <v>240.5960845356529</v>
       </c>
       <c r="R41" t="n">
-        <v>240.5960845356529</v>
+        <v>194.2075003718244</v>
       </c>
       <c r="S41" t="n">
         <v>240.5960845356529</v>
       </c>
       <c r="T41" t="n">
-        <v>222.4189089677869</v>
+        <v>240.5960845356529</v>
       </c>
       <c r="U41" t="n">
         <v>240.5960845356529</v>
@@ -30536,7 +30536,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
         <v>187.5181515243659</v>
@@ -30560,7 +30560,7 @@
         <v>107.1657389737211</v>
       </c>
       <c r="J42" t="n">
-        <v>51.93274503525225</v>
+        <v>51.93274503525224</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -30581,7 +30581,7 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>6.136586121265641</v>
+        <v>6.136586121265637</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -30590,22 +30590,22 @@
         <v>191.4841495043256</v>
       </c>
       <c r="T42" t="n">
-        <v>82.38793153177861</v>
+        <v>214.9477822055827</v>
       </c>
       <c r="U42" t="n">
-        <v>237.2276917808945</v>
+        <v>58.0340493707304</v>
       </c>
       <c r="V42" t="n">
-        <v>0</v>
+        <v>240.5960845356529</v>
       </c>
       <c r="W42" t="n">
-        <v>240.5960845356529</v>
+        <v>0</v>
       </c>
       <c r="X42" t="n">
         <v>217.3129144394706</v>
       </c>
       <c r="Y42" t="n">
-        <v>0</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="43">
@@ -30648,16 +30648,16 @@
         <v>31.43620997383529</v>
       </c>
       <c r="M43" t="n">
-        <v>24.46235891800153</v>
+        <v>24.46235891800152</v>
       </c>
       <c r="N43" t="n">
         <v>15.78359136610013</v>
       </c>
       <c r="O43" t="n">
-        <v>65.2752995945645</v>
+        <v>36.79854607717669</v>
       </c>
       <c r="P43" t="n">
-        <v>57.89645227716785</v>
+        <v>86.37320579455553</v>
       </c>
       <c r="Q43" t="n">
         <v>126.8139378168763</v>
@@ -30718,16 +30718,16 @@
         <v>240.5960845356529</v>
       </c>
       <c r="J44" t="n">
-        <v>240.5960845356529</v>
+        <v>75.87088762177227</v>
       </c>
       <c r="K44" t="n">
-        <v>5.362241946157035</v>
+        <v>5.362241946157027</v>
       </c>
       <c r="L44" t="n">
         <v>240.5960845356529</v>
       </c>
       <c r="M44" t="n">
-        <v>122.2308044399985</v>
+        <v>222.3902416221844</v>
       </c>
       <c r="N44" t="n">
         <v>240.5960845356529</v>
@@ -30742,13 +30742,13 @@
         <v>240.5960845356529</v>
       </c>
       <c r="R44" t="n">
-        <v>194.2075003718244</v>
+        <v>240.5960845356529</v>
       </c>
       <c r="S44" t="n">
         <v>227.2724750164867</v>
       </c>
       <c r="T44" t="n">
-        <v>222.4189089677869</v>
+        <v>240.5960845356529</v>
       </c>
       <c r="U44" t="n">
         <v>240.5960845356529</v>
@@ -30776,7 +30776,7 @@
         <v>176.7504943976657</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>171.7970274123777</v>
       </c>
       <c r="D45" t="n">
         <v>159.1723150765785</v>
@@ -30788,7 +30788,7 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G45" t="n">
-        <v>148.7388631915159</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
         <v>125.6800758778345</v>
@@ -30797,7 +30797,7 @@
         <v>107.1657389737211</v>
       </c>
       <c r="J45" t="n">
-        <v>51.93274503525225</v>
+        <v>51.93274503525224</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -30818,16 +30818,16 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>6.136586121265641</v>
+        <v>6.136586121265637</v>
       </c>
       <c r="R45" t="n">
-        <v>29.30999852049159</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>191.4841495043256</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>214.9477822055827</v>
       </c>
       <c r="U45" t="n">
         <v>237.2276917808945</v>
@@ -30836,13 +30836,13 @@
         <v>240.5960845356529</v>
       </c>
       <c r="W45" t="n">
-        <v>240.5960845356529</v>
+        <v>0</v>
       </c>
       <c r="X45" t="n">
         <v>217.3129144394706</v>
       </c>
       <c r="Y45" t="n">
-        <v>0</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="46">
@@ -30864,7 +30864,7 @@
         <v>141.676141212225</v>
       </c>
       <c r="F46" t="n">
-        <v>240.5960845356529</v>
+        <v>226.4364092297606</v>
       </c>
       <c r="G46" t="n">
         <v>168.6959616282545</v>
@@ -30873,7 +30873,7 @@
         <v>165.7816030517371</v>
       </c>
       <c r="I46" t="n">
-        <v>164.7082190429236</v>
+        <v>164.7082190429235</v>
       </c>
       <c r="J46" t="n">
         <v>119.8993073508208</v>
@@ -30882,19 +30882,19 @@
         <v>66.47076232176849</v>
       </c>
       <c r="L46" t="n">
-        <v>34.1316266667462</v>
+        <v>31.43620997383529</v>
       </c>
       <c r="M46" t="n">
-        <v>24.46235891800153</v>
+        <v>24.46235891800152</v>
       </c>
       <c r="N46" t="n">
         <v>15.78359136610013</v>
       </c>
       <c r="O46" t="n">
-        <v>36.7985460771767</v>
+        <v>36.79854607717669</v>
       </c>
       <c r="P46" t="n">
-        <v>57.89645227716785</v>
+        <v>57.89645227716784</v>
       </c>
       <c r="Q46" t="n">
         <v>126.8139378168763</v>
@@ -30906,7 +30906,7 @@
         <v>235.3541616935673</v>
       </c>
       <c r="T46" t="n">
-        <v>223.7409925368498</v>
+        <v>240.5960845356529</v>
       </c>
       <c r="U46" t="n">
         <v>240.5960845356529</v>
@@ -31753,7 +31753,7 @@
         <v>0.417449556185289</v>
       </c>
       <c r="H11" t="n">
-        <v>4.275205267282591</v>
+        <v>4.275205267282592</v>
       </c>
       <c r="I11" t="n">
         <v>16.09372401483337</v>
@@ -31762,34 +31762,34 @@
         <v>35.4305092692812</v>
       </c>
       <c r="K11" t="n">
-        <v>53.10114898260449</v>
+        <v>53.1011489826045</v>
       </c>
       <c r="L11" t="n">
-        <v>65.87667083771004</v>
+        <v>65.87667083771005</v>
       </c>
       <c r="M11" t="n">
-        <v>73.30048938252017</v>
+        <v>73.30048938252018</v>
       </c>
       <c r="N11" t="n">
-        <v>74.48656793403163</v>
+        <v>74.48656793403164</v>
       </c>
       <c r="O11" t="n">
-        <v>70.33555390971415</v>
+        <v>70.33555390971416</v>
       </c>
       <c r="P11" t="n">
-        <v>60.02976799138982</v>
+        <v>60.02976799138983</v>
       </c>
       <c r="Q11" t="n">
-        <v>45.07985576050415</v>
+        <v>45.07985576050416</v>
       </c>
       <c r="R11" t="n">
         <v>26.22261568372418</v>
       </c>
       <c r="S11" t="n">
-        <v>9.512631761572282</v>
+        <v>9.512631761572283</v>
       </c>
       <c r="T11" t="n">
-        <v>1.827385432201103</v>
+        <v>1.827385432201104</v>
       </c>
       <c r="U11" t="n">
         <v>0.03339596449482311</v>
@@ -31829,25 +31829,25 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.2233552035759309</v>
+        <v>0.223355203575931</v>
       </c>
       <c r="H12" t="n">
         <v>2.157141045062281</v>
       </c>
       <c r="I12" t="n">
-        <v>7.690080473995869</v>
+        <v>7.69008047399587</v>
       </c>
       <c r="J12" t="n">
         <v>21.10216859749618</v>
       </c>
       <c r="K12" t="n">
-        <v>36.06696723708355</v>
+        <v>36.06696723708356</v>
       </c>
       <c r="L12" t="n">
-        <v>48.49648839046694</v>
+        <v>48.49648839046695</v>
       </c>
       <c r="M12" t="n">
-        <v>56.59311452009442</v>
+        <v>56.59311452009443</v>
       </c>
       <c r="N12" t="n">
         <v>58.09096586337338</v>
@@ -31868,7 +31868,7 @@
         <v>4.148724943614329</v>
       </c>
       <c r="T12" t="n">
-        <v>0.9002782109047389</v>
+        <v>0.900278210904739</v>
       </c>
       <c r="U12" t="n">
         <v>0.0146944212878902</v>
@@ -31914,13 +31914,13 @@
         <v>1.664853842702734</v>
       </c>
       <c r="I13" t="n">
-        <v>5.631223427055871</v>
+        <v>5.631223427055872</v>
       </c>
       <c r="J13" t="n">
         <v>13.23882242811774</v>
       </c>
       <c r="K13" t="n">
-        <v>21.75545205494981</v>
+        <v>21.75545205494982</v>
       </c>
       <c r="L13" t="n">
         <v>27.83948849034816</v>
@@ -31947,7 +31947,7 @@
         <v>3.263317808242472</v>
       </c>
       <c r="T13" t="n">
-        <v>0.8000831350411903</v>
+        <v>0.8000831350411904</v>
       </c>
       <c r="U13" t="n">
         <v>0.010213827255845</v>
@@ -31990,7 +31990,7 @@
         <v>0.417449556185289</v>
       </c>
       <c r="H14" t="n">
-        <v>4.275205267282591</v>
+        <v>4.275205267282592</v>
       </c>
       <c r="I14" t="n">
         <v>16.09372401483337</v>
@@ -31999,34 +31999,34 @@
         <v>35.4305092692812</v>
       </c>
       <c r="K14" t="n">
-        <v>53.10114898260449</v>
+        <v>53.1011489826045</v>
       </c>
       <c r="L14" t="n">
-        <v>65.87667083771004</v>
+        <v>65.87667083771005</v>
       </c>
       <c r="M14" t="n">
-        <v>73.30048938252017</v>
+        <v>73.30048938252018</v>
       </c>
       <c r="N14" t="n">
-        <v>74.48656793403163</v>
+        <v>74.48656793403164</v>
       </c>
       <c r="O14" t="n">
-        <v>70.33555390971415</v>
+        <v>70.33555390971416</v>
       </c>
       <c r="P14" t="n">
-        <v>60.02976799138982</v>
+        <v>60.02976799138983</v>
       </c>
       <c r="Q14" t="n">
-        <v>45.07985576050415</v>
+        <v>45.07985576050416</v>
       </c>
       <c r="R14" t="n">
         <v>26.22261568372418</v>
       </c>
       <c r="S14" t="n">
-        <v>9.512631761572282</v>
+        <v>9.512631761572283</v>
       </c>
       <c r="T14" t="n">
-        <v>1.827385432201103</v>
+        <v>1.827385432201104</v>
       </c>
       <c r="U14" t="n">
         <v>0.03339596449482311</v>
@@ -32066,25 +32066,25 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.2233552035759309</v>
+        <v>0.223355203575931</v>
       </c>
       <c r="H15" t="n">
         <v>2.157141045062281</v>
       </c>
       <c r="I15" t="n">
-        <v>7.690080473995869</v>
+        <v>7.69008047399587</v>
       </c>
       <c r="J15" t="n">
         <v>21.10216859749618</v>
       </c>
       <c r="K15" t="n">
-        <v>36.06696723708355</v>
+        <v>36.06696723708356</v>
       </c>
       <c r="L15" t="n">
-        <v>48.49648839046694</v>
+        <v>48.49648839046695</v>
       </c>
       <c r="M15" t="n">
-        <v>56.59311452009442</v>
+        <v>56.59311452009443</v>
       </c>
       <c r="N15" t="n">
         <v>58.09096586337338</v>
@@ -32105,7 +32105,7 @@
         <v>4.148724943614329</v>
       </c>
       <c r="T15" t="n">
-        <v>0.9002782109047389</v>
+        <v>0.900278210904739</v>
       </c>
       <c r="U15" t="n">
         <v>0.0146944212878902</v>
@@ -32151,13 +32151,13 @@
         <v>1.664853842702734</v>
       </c>
       <c r="I16" t="n">
-        <v>5.631223427055871</v>
+        <v>5.631223427055872</v>
       </c>
       <c r="J16" t="n">
         <v>13.23882242811774</v>
       </c>
       <c r="K16" t="n">
-        <v>21.75545205494981</v>
+        <v>21.75545205494982</v>
       </c>
       <c r="L16" t="n">
         <v>27.83948849034816</v>
@@ -32184,7 +32184,7 @@
         <v>3.263317808242472</v>
       </c>
       <c r="T16" t="n">
-        <v>0.8000831350411903</v>
+        <v>0.8000831350411904</v>
       </c>
       <c r="U16" t="n">
         <v>0.010213827255845</v>
@@ -32227,7 +32227,7 @@
         <v>0.417449556185289</v>
       </c>
       <c r="H17" t="n">
-        <v>4.275205267282591</v>
+        <v>4.275205267282592</v>
       </c>
       <c r="I17" t="n">
         <v>16.09372401483337</v>
@@ -32236,34 +32236,34 @@
         <v>35.4305092692812</v>
       </c>
       <c r="K17" t="n">
-        <v>53.10114898260449</v>
+        <v>53.1011489826045</v>
       </c>
       <c r="L17" t="n">
-        <v>65.87667083771004</v>
+        <v>65.87667083771005</v>
       </c>
       <c r="M17" t="n">
-        <v>73.30048938252017</v>
+        <v>73.30048938252018</v>
       </c>
       <c r="N17" t="n">
-        <v>74.48656793403163</v>
+        <v>74.48656793403164</v>
       </c>
       <c r="O17" t="n">
-        <v>70.33555390971415</v>
+        <v>70.33555390971416</v>
       </c>
       <c r="P17" t="n">
-        <v>60.02976799138982</v>
+        <v>60.02976799138983</v>
       </c>
       <c r="Q17" t="n">
-        <v>45.07985576050415</v>
+        <v>45.07985576050416</v>
       </c>
       <c r="R17" t="n">
         <v>26.22261568372418</v>
       </c>
       <c r="S17" t="n">
-        <v>9.512631761572282</v>
+        <v>9.512631761572283</v>
       </c>
       <c r="T17" t="n">
-        <v>1.827385432201103</v>
+        <v>1.827385432201104</v>
       </c>
       <c r="U17" t="n">
         <v>0.03339596449482311</v>
@@ -32303,25 +32303,25 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.2233552035759309</v>
+        <v>0.223355203575931</v>
       </c>
       <c r="H18" t="n">
         <v>2.157141045062281</v>
       </c>
       <c r="I18" t="n">
-        <v>7.690080473995869</v>
+        <v>7.69008047399587</v>
       </c>
       <c r="J18" t="n">
         <v>21.10216859749618</v>
       </c>
       <c r="K18" t="n">
-        <v>36.06696723708355</v>
+        <v>36.06696723708356</v>
       </c>
       <c r="L18" t="n">
-        <v>48.49648839046694</v>
+        <v>48.49648839046695</v>
       </c>
       <c r="M18" t="n">
-        <v>56.59311452009442</v>
+        <v>56.59311452009443</v>
       </c>
       <c r="N18" t="n">
         <v>58.09096586337338</v>
@@ -32342,7 +32342,7 @@
         <v>4.148724943614329</v>
       </c>
       <c r="T18" t="n">
-        <v>0.9002782109047389</v>
+        <v>0.900278210904739</v>
       </c>
       <c r="U18" t="n">
         <v>0.0146944212878902</v>
@@ -32388,13 +32388,13 @@
         <v>1.664853842702734</v>
       </c>
       <c r="I19" t="n">
-        <v>5.631223427055871</v>
+        <v>5.631223427055872</v>
       </c>
       <c r="J19" t="n">
         <v>13.23882242811774</v>
       </c>
       <c r="K19" t="n">
-        <v>21.75545205494981</v>
+        <v>21.75545205494982</v>
       </c>
       <c r="L19" t="n">
         <v>27.83948849034816</v>
@@ -32421,7 +32421,7 @@
         <v>3.263317808242472</v>
       </c>
       <c r="T19" t="n">
-        <v>0.8000831350411903</v>
+        <v>0.8000831350411904</v>
       </c>
       <c r="U19" t="n">
         <v>0.010213827255845</v>
@@ -32464,7 +32464,7 @@
         <v>0.417449556185289</v>
       </c>
       <c r="H20" t="n">
-        <v>4.275205267282591</v>
+        <v>4.275205267282592</v>
       </c>
       <c r="I20" t="n">
         <v>16.09372401483337</v>
@@ -32473,34 +32473,34 @@
         <v>35.4305092692812</v>
       </c>
       <c r="K20" t="n">
-        <v>53.10114898260449</v>
+        <v>53.1011489826045</v>
       </c>
       <c r="L20" t="n">
-        <v>65.87667083771004</v>
+        <v>65.87667083771005</v>
       </c>
       <c r="M20" t="n">
-        <v>73.30048938252017</v>
+        <v>73.30048938252018</v>
       </c>
       <c r="N20" t="n">
-        <v>74.48656793403163</v>
+        <v>74.48656793403164</v>
       </c>
       <c r="O20" t="n">
-        <v>70.33555390971415</v>
+        <v>70.33555390971416</v>
       </c>
       <c r="P20" t="n">
-        <v>60.02976799138982</v>
+        <v>60.02976799138983</v>
       </c>
       <c r="Q20" t="n">
-        <v>45.07985576050415</v>
+        <v>45.07985576050416</v>
       </c>
       <c r="R20" t="n">
         <v>26.22261568372418</v>
       </c>
       <c r="S20" t="n">
-        <v>9.512631761572282</v>
+        <v>9.512631761572283</v>
       </c>
       <c r="T20" t="n">
-        <v>1.827385432201103</v>
+        <v>1.827385432201104</v>
       </c>
       <c r="U20" t="n">
         <v>0.03339596449482311</v>
@@ -32540,25 +32540,25 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.2233552035759309</v>
+        <v>0.223355203575931</v>
       </c>
       <c r="H21" t="n">
         <v>2.157141045062281</v>
       </c>
       <c r="I21" t="n">
-        <v>7.690080473995869</v>
+        <v>7.69008047399587</v>
       </c>
       <c r="J21" t="n">
         <v>21.10216859749618</v>
       </c>
       <c r="K21" t="n">
-        <v>36.06696723708355</v>
+        <v>36.06696723708356</v>
       </c>
       <c r="L21" t="n">
-        <v>48.49648839046694</v>
+        <v>48.49648839046695</v>
       </c>
       <c r="M21" t="n">
-        <v>56.59311452009442</v>
+        <v>56.59311452009443</v>
       </c>
       <c r="N21" t="n">
         <v>58.09096586337338</v>
@@ -32579,7 +32579,7 @@
         <v>4.148724943614329</v>
       </c>
       <c r="T21" t="n">
-        <v>0.9002782109047389</v>
+        <v>0.900278210904739</v>
       </c>
       <c r="U21" t="n">
         <v>0.0146944212878902</v>
@@ -32625,13 +32625,13 @@
         <v>1.664853842702734</v>
       </c>
       <c r="I22" t="n">
-        <v>5.631223427055871</v>
+        <v>5.631223427055872</v>
       </c>
       <c r="J22" t="n">
         <v>13.23882242811774</v>
       </c>
       <c r="K22" t="n">
-        <v>21.75545205494981</v>
+        <v>21.75545205494982</v>
       </c>
       <c r="L22" t="n">
         <v>27.83948849034816</v>
@@ -32658,7 +32658,7 @@
         <v>3.263317808242472</v>
       </c>
       <c r="T22" t="n">
-        <v>0.8000831350411903</v>
+        <v>0.8000831350411904</v>
       </c>
       <c r="U22" t="n">
         <v>0.010213827255845</v>
@@ -32701,7 +32701,7 @@
         <v>0.417449556185289</v>
       </c>
       <c r="H23" t="n">
-        <v>4.275205267282591</v>
+        <v>4.275205267282592</v>
       </c>
       <c r="I23" t="n">
         <v>16.09372401483337</v>
@@ -32710,34 +32710,34 @@
         <v>35.4305092692812</v>
       </c>
       <c r="K23" t="n">
-        <v>53.10114898260449</v>
+        <v>53.1011489826045</v>
       </c>
       <c r="L23" t="n">
-        <v>65.87667083771004</v>
+        <v>65.87667083771005</v>
       </c>
       <c r="M23" t="n">
-        <v>73.30048938252017</v>
+        <v>73.30048938252018</v>
       </c>
       <c r="N23" t="n">
-        <v>74.48656793403163</v>
+        <v>74.48656793403164</v>
       </c>
       <c r="O23" t="n">
-        <v>70.33555390971415</v>
+        <v>70.33555390971416</v>
       </c>
       <c r="P23" t="n">
-        <v>60.02976799138982</v>
+        <v>60.02976799138983</v>
       </c>
       <c r="Q23" t="n">
-        <v>45.07985576050415</v>
+        <v>45.07985576050416</v>
       </c>
       <c r="R23" t="n">
         <v>26.22261568372418</v>
       </c>
       <c r="S23" t="n">
-        <v>9.512631761572282</v>
+        <v>9.512631761572283</v>
       </c>
       <c r="T23" t="n">
-        <v>1.827385432201103</v>
+        <v>1.827385432201104</v>
       </c>
       <c r="U23" t="n">
         <v>0.03339596449482311</v>
@@ -32777,25 +32777,25 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.2233552035759309</v>
+        <v>0.223355203575931</v>
       </c>
       <c r="H24" t="n">
         <v>2.157141045062281</v>
       </c>
       <c r="I24" t="n">
-        <v>7.690080473995869</v>
+        <v>7.69008047399587</v>
       </c>
       <c r="J24" t="n">
         <v>21.10216859749618</v>
       </c>
       <c r="K24" t="n">
-        <v>36.06696723708355</v>
+        <v>36.06696723708356</v>
       </c>
       <c r="L24" t="n">
-        <v>48.49648839046694</v>
+        <v>48.49648839046695</v>
       </c>
       <c r="M24" t="n">
-        <v>56.59311452009442</v>
+        <v>56.59311452009443</v>
       </c>
       <c r="N24" t="n">
         <v>58.09096586337338</v>
@@ -32816,7 +32816,7 @@
         <v>4.148724943614329</v>
       </c>
       <c r="T24" t="n">
-        <v>0.9002782109047389</v>
+        <v>0.900278210904739</v>
       </c>
       <c r="U24" t="n">
         <v>0.0146944212878902</v>
@@ -32862,13 +32862,13 @@
         <v>1.664853842702734</v>
       </c>
       <c r="I25" t="n">
-        <v>5.631223427055871</v>
+        <v>5.631223427055872</v>
       </c>
       <c r="J25" t="n">
         <v>13.23882242811774</v>
       </c>
       <c r="K25" t="n">
-        <v>21.75545205494981</v>
+        <v>21.75545205494982</v>
       </c>
       <c r="L25" t="n">
         <v>27.83948849034816</v>
@@ -32895,7 +32895,7 @@
         <v>3.263317808242472</v>
       </c>
       <c r="T25" t="n">
-        <v>0.8000831350411903</v>
+        <v>0.8000831350411904</v>
       </c>
       <c r="U25" t="n">
         <v>0.010213827255845</v>
@@ -32938,7 +32938,7 @@
         <v>0.417449556185289</v>
       </c>
       <c r="H26" t="n">
-        <v>4.275205267282591</v>
+        <v>4.275205267282592</v>
       </c>
       <c r="I26" t="n">
         <v>16.09372401483337</v>
@@ -32947,34 +32947,34 @@
         <v>35.4305092692812</v>
       </c>
       <c r="K26" t="n">
-        <v>53.10114898260449</v>
+        <v>53.1011489826045</v>
       </c>
       <c r="L26" t="n">
-        <v>65.87667083771004</v>
+        <v>65.87667083771005</v>
       </c>
       <c r="M26" t="n">
-        <v>73.30048938252017</v>
+        <v>73.30048938252018</v>
       </c>
       <c r="N26" t="n">
-        <v>74.48656793403163</v>
+        <v>74.48656793403164</v>
       </c>
       <c r="O26" t="n">
-        <v>70.33555390971415</v>
+        <v>70.33555390971416</v>
       </c>
       <c r="P26" t="n">
-        <v>60.02976799138982</v>
+        <v>60.02976799138983</v>
       </c>
       <c r="Q26" t="n">
-        <v>45.07985576050415</v>
+        <v>45.07985576050416</v>
       </c>
       <c r="R26" t="n">
         <v>26.22261568372418</v>
       </c>
       <c r="S26" t="n">
-        <v>9.512631761572282</v>
+        <v>9.512631761572283</v>
       </c>
       <c r="T26" t="n">
-        <v>1.827385432201103</v>
+        <v>1.827385432201104</v>
       </c>
       <c r="U26" t="n">
         <v>0.03339596449482311</v>
@@ -33014,25 +33014,25 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.2233552035759309</v>
+        <v>0.223355203575931</v>
       </c>
       <c r="H27" t="n">
         <v>2.157141045062281</v>
       </c>
       <c r="I27" t="n">
-        <v>7.690080473995869</v>
+        <v>7.69008047399587</v>
       </c>
       <c r="J27" t="n">
         <v>21.10216859749618</v>
       </c>
       <c r="K27" t="n">
-        <v>36.06696723708355</v>
+        <v>36.06696723708356</v>
       </c>
       <c r="L27" t="n">
-        <v>48.49648839046694</v>
+        <v>48.49648839046695</v>
       </c>
       <c r="M27" t="n">
-        <v>56.59311452009442</v>
+        <v>56.59311452009443</v>
       </c>
       <c r="N27" t="n">
         <v>58.09096586337338</v>
@@ -33053,7 +33053,7 @@
         <v>4.148724943614329</v>
       </c>
       <c r="T27" t="n">
-        <v>0.9002782109047389</v>
+        <v>0.900278210904739</v>
       </c>
       <c r="U27" t="n">
         <v>0.0146944212878902</v>
@@ -33099,13 +33099,13 @@
         <v>1.664853842702734</v>
       </c>
       <c r="I28" t="n">
-        <v>5.631223427055871</v>
+        <v>5.631223427055872</v>
       </c>
       <c r="J28" t="n">
         <v>13.23882242811774</v>
       </c>
       <c r="K28" t="n">
-        <v>21.75545205494981</v>
+        <v>21.75545205494982</v>
       </c>
       <c r="L28" t="n">
         <v>27.83948849034816</v>
@@ -33132,7 +33132,7 @@
         <v>3.263317808242472</v>
       </c>
       <c r="T28" t="n">
-        <v>0.8000831350411903</v>
+        <v>0.8000831350411904</v>
       </c>
       <c r="U28" t="n">
         <v>0.010213827255845</v>
@@ -33175,7 +33175,7 @@
         <v>0.417449556185289</v>
       </c>
       <c r="H29" t="n">
-        <v>4.275205267282591</v>
+        <v>4.275205267282592</v>
       </c>
       <c r="I29" t="n">
         <v>16.09372401483337</v>
@@ -33184,34 +33184,34 @@
         <v>35.4305092692812</v>
       </c>
       <c r="K29" t="n">
-        <v>53.10114898260449</v>
+        <v>53.1011489826045</v>
       </c>
       <c r="L29" t="n">
-        <v>65.87667083771004</v>
+        <v>65.87667083771005</v>
       </c>
       <c r="M29" t="n">
-        <v>73.30048938252017</v>
+        <v>73.30048938252018</v>
       </c>
       <c r="N29" t="n">
-        <v>74.48656793403163</v>
+        <v>74.48656793403164</v>
       </c>
       <c r="O29" t="n">
-        <v>70.33555390971415</v>
+        <v>70.33555390971416</v>
       </c>
       <c r="P29" t="n">
-        <v>60.02976799138982</v>
+        <v>60.02976799138983</v>
       </c>
       <c r="Q29" t="n">
-        <v>45.07985576050415</v>
+        <v>45.07985576050416</v>
       </c>
       <c r="R29" t="n">
         <v>26.22261568372418</v>
       </c>
       <c r="S29" t="n">
-        <v>9.512631761572282</v>
+        <v>9.512631761572283</v>
       </c>
       <c r="T29" t="n">
-        <v>1.827385432201103</v>
+        <v>1.827385432201104</v>
       </c>
       <c r="U29" t="n">
         <v>0.03339596449482311</v>
@@ -33251,25 +33251,25 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.2233552035759309</v>
+        <v>0.223355203575931</v>
       </c>
       <c r="H30" t="n">
         <v>2.157141045062281</v>
       </c>
       <c r="I30" t="n">
-        <v>7.690080473995869</v>
+        <v>7.69008047399587</v>
       </c>
       <c r="J30" t="n">
         <v>21.10216859749618</v>
       </c>
       <c r="K30" t="n">
-        <v>36.06696723708355</v>
+        <v>36.06696723708356</v>
       </c>
       <c r="L30" t="n">
-        <v>48.49648839046694</v>
+        <v>48.49648839046695</v>
       </c>
       <c r="M30" t="n">
-        <v>56.59311452009442</v>
+        <v>56.59311452009443</v>
       </c>
       <c r="N30" t="n">
         <v>58.09096586337338</v>
@@ -33290,7 +33290,7 @@
         <v>4.148724943614329</v>
       </c>
       <c r="T30" t="n">
-        <v>0.9002782109047389</v>
+        <v>0.900278210904739</v>
       </c>
       <c r="U30" t="n">
         <v>0.0146944212878902</v>
@@ -33336,13 +33336,13 @@
         <v>1.664853842702734</v>
       </c>
       <c r="I31" t="n">
-        <v>5.631223427055871</v>
+        <v>5.631223427055872</v>
       </c>
       <c r="J31" t="n">
         <v>13.23882242811774</v>
       </c>
       <c r="K31" t="n">
-        <v>21.75545205494981</v>
+        <v>21.75545205494982</v>
       </c>
       <c r="L31" t="n">
         <v>27.83948849034816</v>
@@ -33369,7 +33369,7 @@
         <v>3.263317808242472</v>
       </c>
       <c r="T31" t="n">
-        <v>0.8000831350411903</v>
+        <v>0.8000831350411904</v>
       </c>
       <c r="U31" t="n">
         <v>0.010213827255845</v>
@@ -33412,7 +33412,7 @@
         <v>0.417449556185289</v>
       </c>
       <c r="H32" t="n">
-        <v>4.275205267282591</v>
+        <v>4.275205267282592</v>
       </c>
       <c r="I32" t="n">
         <v>16.09372401483337</v>
@@ -33421,34 +33421,34 @@
         <v>35.4305092692812</v>
       </c>
       <c r="K32" t="n">
-        <v>53.10114898260449</v>
+        <v>53.1011489826045</v>
       </c>
       <c r="L32" t="n">
-        <v>65.87667083771004</v>
+        <v>65.87667083771005</v>
       </c>
       <c r="M32" t="n">
-        <v>73.30048938252017</v>
+        <v>73.30048938252018</v>
       </c>
       <c r="N32" t="n">
-        <v>74.48656793403163</v>
+        <v>74.48656793403164</v>
       </c>
       <c r="O32" t="n">
-        <v>70.33555390971415</v>
+        <v>70.33555390971416</v>
       </c>
       <c r="P32" t="n">
-        <v>60.02976799138982</v>
+        <v>60.02976799138983</v>
       </c>
       <c r="Q32" t="n">
-        <v>45.07985576050415</v>
+        <v>45.07985576050416</v>
       </c>
       <c r="R32" t="n">
         <v>26.22261568372418</v>
       </c>
       <c r="S32" t="n">
-        <v>9.512631761572282</v>
+        <v>9.512631761572283</v>
       </c>
       <c r="T32" t="n">
-        <v>1.827385432201103</v>
+        <v>1.827385432201104</v>
       </c>
       <c r="U32" t="n">
         <v>0.03339596449482311</v>
@@ -33488,25 +33488,25 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.2233552035759309</v>
+        <v>0.223355203575931</v>
       </c>
       <c r="H33" t="n">
         <v>2.157141045062281</v>
       </c>
       <c r="I33" t="n">
-        <v>7.690080473995869</v>
+        <v>7.69008047399587</v>
       </c>
       <c r="J33" t="n">
         <v>21.10216859749618</v>
       </c>
       <c r="K33" t="n">
-        <v>36.06696723708355</v>
+        <v>36.06696723708356</v>
       </c>
       <c r="L33" t="n">
-        <v>48.49648839046694</v>
+        <v>48.49648839046695</v>
       </c>
       <c r="M33" t="n">
-        <v>56.59311452009442</v>
+        <v>56.59311452009443</v>
       </c>
       <c r="N33" t="n">
         <v>58.09096586337338</v>
@@ -33527,7 +33527,7 @@
         <v>4.148724943614329</v>
       </c>
       <c r="T33" t="n">
-        <v>0.9002782109047389</v>
+        <v>0.900278210904739</v>
       </c>
       <c r="U33" t="n">
         <v>0.0146944212878902</v>
@@ -33573,13 +33573,13 @@
         <v>1.664853842702734</v>
       </c>
       <c r="I34" t="n">
-        <v>5.631223427055871</v>
+        <v>5.631223427055872</v>
       </c>
       <c r="J34" t="n">
         <v>13.23882242811774</v>
       </c>
       <c r="K34" t="n">
-        <v>21.75545205494981</v>
+        <v>21.75545205494982</v>
       </c>
       <c r="L34" t="n">
         <v>27.83948849034816</v>
@@ -33606,7 +33606,7 @@
         <v>3.263317808242472</v>
       </c>
       <c r="T34" t="n">
-        <v>0.8000831350411903</v>
+        <v>0.8000831350411904</v>
       </c>
       <c r="U34" t="n">
         <v>0.010213827255845</v>
@@ -33649,7 +33649,7 @@
         <v>0.417449556185289</v>
       </c>
       <c r="H35" t="n">
-        <v>4.275205267282591</v>
+        <v>4.275205267282592</v>
       </c>
       <c r="I35" t="n">
         <v>16.09372401483337</v>
@@ -33658,34 +33658,34 @@
         <v>35.4305092692812</v>
       </c>
       <c r="K35" t="n">
-        <v>53.10114898260449</v>
+        <v>53.1011489826045</v>
       </c>
       <c r="L35" t="n">
-        <v>65.87667083771004</v>
+        <v>65.87667083771005</v>
       </c>
       <c r="M35" t="n">
-        <v>73.30048938252017</v>
+        <v>73.30048938252018</v>
       </c>
       <c r="N35" t="n">
-        <v>74.48656793403163</v>
+        <v>74.48656793403164</v>
       </c>
       <c r="O35" t="n">
-        <v>70.33555390971415</v>
+        <v>70.33555390971416</v>
       </c>
       <c r="P35" t="n">
-        <v>60.02976799138982</v>
+        <v>60.02976799138983</v>
       </c>
       <c r="Q35" t="n">
-        <v>45.07985576050415</v>
+        <v>45.07985576050416</v>
       </c>
       <c r="R35" t="n">
         <v>26.22261568372418</v>
       </c>
       <c r="S35" t="n">
-        <v>9.512631761572282</v>
+        <v>9.512631761572283</v>
       </c>
       <c r="T35" t="n">
-        <v>1.827385432201103</v>
+        <v>1.827385432201104</v>
       </c>
       <c r="U35" t="n">
         <v>0.03339596449482311</v>
@@ -33725,25 +33725,25 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.2233552035759309</v>
+        <v>0.223355203575931</v>
       </c>
       <c r="H36" t="n">
         <v>2.157141045062281</v>
       </c>
       <c r="I36" t="n">
-        <v>7.690080473995869</v>
+        <v>7.69008047399587</v>
       </c>
       <c r="J36" t="n">
         <v>21.10216859749618</v>
       </c>
       <c r="K36" t="n">
-        <v>36.06696723708355</v>
+        <v>36.06696723708356</v>
       </c>
       <c r="L36" t="n">
-        <v>48.49648839046694</v>
+        <v>48.49648839046695</v>
       </c>
       <c r="M36" t="n">
-        <v>56.59311452009442</v>
+        <v>56.59311452009443</v>
       </c>
       <c r="N36" t="n">
         <v>58.09096586337338</v>
@@ -33764,7 +33764,7 @@
         <v>4.148724943614329</v>
       </c>
       <c r="T36" t="n">
-        <v>0.9002782109047389</v>
+        <v>0.900278210904739</v>
       </c>
       <c r="U36" t="n">
         <v>0.0146944212878902</v>
@@ -33810,13 +33810,13 @@
         <v>1.664853842702734</v>
       </c>
       <c r="I37" t="n">
-        <v>5.631223427055871</v>
+        <v>5.631223427055872</v>
       </c>
       <c r="J37" t="n">
         <v>13.23882242811774</v>
       </c>
       <c r="K37" t="n">
-        <v>21.75545205494981</v>
+        <v>21.75545205494982</v>
       </c>
       <c r="L37" t="n">
         <v>27.83948849034816</v>
@@ -33843,7 +33843,7 @@
         <v>3.263317808242472</v>
       </c>
       <c r="T37" t="n">
-        <v>0.8000831350411903</v>
+        <v>0.8000831350411904</v>
       </c>
       <c r="U37" t="n">
         <v>0.010213827255845</v>
@@ -33886,7 +33886,7 @@
         <v>0.417449556185289</v>
       </c>
       <c r="H38" t="n">
-        <v>4.275205267282591</v>
+        <v>4.275205267282592</v>
       </c>
       <c r="I38" t="n">
         <v>16.09372401483337</v>
@@ -33895,34 +33895,34 @@
         <v>35.4305092692812</v>
       </c>
       <c r="K38" t="n">
-        <v>53.10114898260449</v>
+        <v>53.1011489826045</v>
       </c>
       <c r="L38" t="n">
-        <v>65.87667083771004</v>
+        <v>65.87667083771005</v>
       </c>
       <c r="M38" t="n">
-        <v>73.30048938252017</v>
+        <v>73.30048938252018</v>
       </c>
       <c r="N38" t="n">
-        <v>74.48656793403163</v>
+        <v>74.48656793403164</v>
       </c>
       <c r="O38" t="n">
-        <v>70.33555390971415</v>
+        <v>70.33555390971416</v>
       </c>
       <c r="P38" t="n">
-        <v>60.02976799138982</v>
+        <v>60.02976799138983</v>
       </c>
       <c r="Q38" t="n">
-        <v>45.07985576050415</v>
+        <v>45.07985576050416</v>
       </c>
       <c r="R38" t="n">
         <v>26.22261568372418</v>
       </c>
       <c r="S38" t="n">
-        <v>9.512631761572282</v>
+        <v>9.512631761572283</v>
       </c>
       <c r="T38" t="n">
-        <v>1.827385432201103</v>
+        <v>1.827385432201104</v>
       </c>
       <c r="U38" t="n">
         <v>0.03339596449482311</v>
@@ -33962,25 +33962,25 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.2233552035759309</v>
+        <v>0.223355203575931</v>
       </c>
       <c r="H39" t="n">
         <v>2.157141045062281</v>
       </c>
       <c r="I39" t="n">
-        <v>7.690080473995869</v>
+        <v>7.69008047399587</v>
       </c>
       <c r="J39" t="n">
         <v>21.10216859749618</v>
       </c>
       <c r="K39" t="n">
-        <v>36.06696723708355</v>
+        <v>36.06696723708356</v>
       </c>
       <c r="L39" t="n">
-        <v>48.49648839046694</v>
+        <v>48.49648839046695</v>
       </c>
       <c r="M39" t="n">
-        <v>56.59311452009442</v>
+        <v>56.59311452009443</v>
       </c>
       <c r="N39" t="n">
         <v>58.09096586337338</v>
@@ -34001,7 +34001,7 @@
         <v>4.148724943614329</v>
       </c>
       <c r="T39" t="n">
-        <v>0.9002782109047389</v>
+        <v>0.900278210904739</v>
       </c>
       <c r="U39" t="n">
         <v>0.0146944212878902</v>
@@ -34047,13 +34047,13 @@
         <v>1.664853842702734</v>
       </c>
       <c r="I40" t="n">
-        <v>5.631223427055871</v>
+        <v>5.631223427055872</v>
       </c>
       <c r="J40" t="n">
         <v>13.23882242811774</v>
       </c>
       <c r="K40" t="n">
-        <v>21.75545205494981</v>
+        <v>21.75545205494982</v>
       </c>
       <c r="L40" t="n">
         <v>27.83948849034816</v>
@@ -34080,7 +34080,7 @@
         <v>3.263317808242472</v>
       </c>
       <c r="T40" t="n">
-        <v>0.8000831350411903</v>
+        <v>0.8000831350411904</v>
       </c>
       <c r="U40" t="n">
         <v>0.010213827255845</v>
@@ -34123,7 +34123,7 @@
         <v>0.417449556185289</v>
       </c>
       <c r="H41" t="n">
-        <v>4.275205267282591</v>
+        <v>4.275205267282592</v>
       </c>
       <c r="I41" t="n">
         <v>16.09372401483337</v>
@@ -34132,34 +34132,34 @@
         <v>35.4305092692812</v>
       </c>
       <c r="K41" t="n">
-        <v>53.10114898260449</v>
+        <v>53.1011489826045</v>
       </c>
       <c r="L41" t="n">
-        <v>65.87667083771004</v>
+        <v>65.87667083771005</v>
       </c>
       <c r="M41" t="n">
-        <v>73.30048938252017</v>
+        <v>73.30048938252018</v>
       </c>
       <c r="N41" t="n">
-        <v>74.48656793403163</v>
+        <v>74.48656793403164</v>
       </c>
       <c r="O41" t="n">
-        <v>70.33555390971415</v>
+        <v>70.33555390971416</v>
       </c>
       <c r="P41" t="n">
-        <v>60.02976799138982</v>
+        <v>60.02976799138983</v>
       </c>
       <c r="Q41" t="n">
-        <v>45.07985576050415</v>
+        <v>45.07985576050416</v>
       </c>
       <c r="R41" t="n">
         <v>26.22261568372418</v>
       </c>
       <c r="S41" t="n">
-        <v>9.512631761572282</v>
+        <v>9.512631761572283</v>
       </c>
       <c r="T41" t="n">
-        <v>1.827385432201103</v>
+        <v>1.827385432201104</v>
       </c>
       <c r="U41" t="n">
         <v>0.03339596449482311</v>
@@ -34199,25 +34199,25 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.2233552035759309</v>
+        <v>0.223355203575931</v>
       </c>
       <c r="H42" t="n">
         <v>2.157141045062281</v>
       </c>
       <c r="I42" t="n">
-        <v>7.690080473995869</v>
+        <v>7.69008047399587</v>
       </c>
       <c r="J42" t="n">
         <v>21.10216859749618</v>
       </c>
       <c r="K42" t="n">
-        <v>36.06696723708355</v>
+        <v>36.06696723708356</v>
       </c>
       <c r="L42" t="n">
-        <v>48.49648839046694</v>
+        <v>48.49648839046695</v>
       </c>
       <c r="M42" t="n">
-        <v>56.59311452009442</v>
+        <v>56.59311452009443</v>
       </c>
       <c r="N42" t="n">
         <v>58.09096586337338</v>
@@ -34238,7 +34238,7 @@
         <v>4.148724943614329</v>
       </c>
       <c r="T42" t="n">
-        <v>0.9002782109047389</v>
+        <v>0.900278210904739</v>
       </c>
       <c r="U42" t="n">
         <v>0.0146944212878902</v>
@@ -34284,13 +34284,13 @@
         <v>1.664853842702734</v>
       </c>
       <c r="I43" t="n">
-        <v>5.631223427055871</v>
+        <v>5.631223427055872</v>
       </c>
       <c r="J43" t="n">
         <v>13.23882242811774</v>
       </c>
       <c r="K43" t="n">
-        <v>21.75545205494981</v>
+        <v>21.75545205494982</v>
       </c>
       <c r="L43" t="n">
         <v>27.83948849034816</v>
@@ -34317,7 +34317,7 @@
         <v>3.263317808242472</v>
       </c>
       <c r="T43" t="n">
-        <v>0.8000831350411903</v>
+        <v>0.8000831350411904</v>
       </c>
       <c r="U43" t="n">
         <v>0.010213827255845</v>
@@ -34360,7 +34360,7 @@
         <v>0.417449556185289</v>
       </c>
       <c r="H44" t="n">
-        <v>4.275205267282591</v>
+        <v>4.275205267282592</v>
       </c>
       <c r="I44" t="n">
         <v>16.09372401483337</v>
@@ -34369,34 +34369,34 @@
         <v>35.4305092692812</v>
       </c>
       <c r="K44" t="n">
-        <v>53.10114898260449</v>
+        <v>53.1011489826045</v>
       </c>
       <c r="L44" t="n">
-        <v>65.87667083771004</v>
+        <v>65.87667083771005</v>
       </c>
       <c r="M44" t="n">
-        <v>73.30048938252017</v>
+        <v>73.30048938252018</v>
       </c>
       <c r="N44" t="n">
-        <v>74.48656793403163</v>
+        <v>74.48656793403164</v>
       </c>
       <c r="O44" t="n">
-        <v>70.33555390971415</v>
+        <v>70.33555390971416</v>
       </c>
       <c r="P44" t="n">
-        <v>60.02976799138982</v>
+        <v>60.02976799138983</v>
       </c>
       <c r="Q44" t="n">
-        <v>45.07985576050415</v>
+        <v>45.07985576050416</v>
       </c>
       <c r="R44" t="n">
         <v>26.22261568372418</v>
       </c>
       <c r="S44" t="n">
-        <v>9.512631761572282</v>
+        <v>9.512631761572283</v>
       </c>
       <c r="T44" t="n">
-        <v>1.827385432201103</v>
+        <v>1.827385432201104</v>
       </c>
       <c r="U44" t="n">
         <v>0.03339596449482311</v>
@@ -34436,25 +34436,25 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.2233552035759309</v>
+        <v>0.223355203575931</v>
       </c>
       <c r="H45" t="n">
         <v>2.157141045062281</v>
       </c>
       <c r="I45" t="n">
-        <v>7.690080473995869</v>
+        <v>7.69008047399587</v>
       </c>
       <c r="J45" t="n">
         <v>21.10216859749618</v>
       </c>
       <c r="K45" t="n">
-        <v>36.06696723708355</v>
+        <v>36.06696723708356</v>
       </c>
       <c r="L45" t="n">
-        <v>48.49648839046694</v>
+        <v>48.49648839046695</v>
       </c>
       <c r="M45" t="n">
-        <v>56.59311452009442</v>
+        <v>56.59311452009443</v>
       </c>
       <c r="N45" t="n">
         <v>58.09096586337338</v>
@@ -34475,7 +34475,7 @@
         <v>4.148724943614329</v>
       </c>
       <c r="T45" t="n">
-        <v>0.9002782109047389</v>
+        <v>0.900278210904739</v>
       </c>
       <c r="U45" t="n">
         <v>0.0146944212878902</v>
@@ -34521,13 +34521,13 @@
         <v>1.664853842702734</v>
       </c>
       <c r="I46" t="n">
-        <v>5.631223427055871</v>
+        <v>5.631223427055872</v>
       </c>
       <c r="J46" t="n">
         <v>13.23882242811774</v>
       </c>
       <c r="K46" t="n">
-        <v>21.75545205494981</v>
+        <v>21.75545205494982</v>
       </c>
       <c r="L46" t="n">
         <v>27.83948849034816</v>
@@ -34554,7 +34554,7 @@
         <v>3.263317808242472</v>
       </c>
       <c r="T46" t="n">
-        <v>0.8000831350411903</v>
+        <v>0.8000831350411904</v>
       </c>
       <c r="U46" t="n">
         <v>0.010213827255845</v>
@@ -35407,25 +35407,25 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>8.560449355641078</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>48.88611160301747</v>
+        <v>122.0492982736047</v>
       </c>
       <c r="M11" t="n">
-        <v>83.56285454860293</v>
+        <v>83.56285454860294</v>
       </c>
       <c r="N11" t="n">
-        <v>78.00343736515643</v>
+        <v>122.0492982736047</v>
       </c>
       <c r="O11" t="n">
-        <v>36.37425343351532</v>
+        <v>36.37425343351534</v>
       </c>
       <c r="P11" t="n">
-        <v>122.0492982736044</v>
+        <v>13.40070005021092</v>
       </c>
       <c r="Q11" t="n">
         <v>105.8295037361487</v>
@@ -35489,22 +35489,22 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>39.27388527251656</v>
+        <v>33.83647831747528</v>
       </c>
       <c r="L12" t="n">
         <v>119.764688815662</v>
       </c>
       <c r="M12" t="n">
-        <v>122.0492982736044</v>
+        <v>122.0492982736047</v>
       </c>
       <c r="N12" t="n">
-        <v>80.12873768029893</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>122.0492982736044</v>
+        <v>122.0492982736047</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>85.56614463534061</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35544,7 +35544,7 @@
         <v>16.76555500988658</v>
       </c>
       <c r="C13" t="n">
-        <v>0.2734452536711604</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>49.19982542414397</v>
@@ -35559,7 +35559,7 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>28.60087262311753</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -35568,7 +35568,7 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>122.0492982736047</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -35577,16 +35577,16 @@
         <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>122.0492982736044</v>
+        <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>122.0492982736047</v>
       </c>
       <c r="P13" t="n">
-        <v>122.0492982736044</v>
+        <v>39.2411104885315</v>
       </c>
       <c r="Q13" t="n">
-        <v>67.56853785797838</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>118.5115880530825</v>
+        <v>77.60101985471846</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>48.88611160301747</v>
+        <v>122.0492982736047</v>
       </c>
       <c r="M14" t="n">
-        <v>83.56285454860293</v>
+        <v>83.56285454860294</v>
       </c>
       <c r="N14" t="n">
-        <v>78.00343736515643</v>
+        <v>78.00343736515644</v>
       </c>
       <c r="O14" t="n">
-        <v>36.37425343351532</v>
+        <v>122.0492982736047</v>
       </c>
       <c r="P14" t="n">
-        <v>117.7526880092822</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0.1749753030303864</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35726,7 +35726,7 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>39.27388527251656</v>
+        <v>39.27388527251657</v>
       </c>
       <c r="L15" t="n">
         <v>119.764688815662</v>
@@ -35778,22 +35778,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>16.76555500988667</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>35.89970103278392</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>55.45559345640811</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>25.68651404660029</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -35808,19 +35808,19 @@
         <v>122.0492982736047</v>
       </c>
       <c r="L16" t="n">
-        <v>11.75806527207432</v>
+        <v>0</v>
       </c>
       <c r="M16" t="n">
+        <v>0</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0</v>
+      </c>
+      <c r="O16" t="n">
+        <v>0</v>
+      </c>
+      <c r="P16" t="n">
         <v>122.0492982736047</v>
-      </c>
-      <c r="N16" t="n">
-        <v>0</v>
-      </c>
-      <c r="O16" t="n">
-        <v>122.0492982736047</v>
-      </c>
-      <c r="P16" t="n">
-        <v>0</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -35878,7 +35878,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>80.28369907349908</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -35887,34 +35887,34 @@
         <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>48.88611160301747</v>
+        <v>48.88611160301748</v>
       </c>
       <c r="M17" t="n">
-        <v>83.56285454860293</v>
+        <v>83.56285454860294</v>
       </c>
       <c r="N17" t="n">
-        <v>78.00343736515643</v>
+        <v>78.00343736515644</v>
       </c>
       <c r="O17" t="n">
-        <v>36.37425343351532</v>
+        <v>36.37425343351534</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>44.37106813136462</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>85.42545174145589</v>
+        <v>93.60730859266529</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>98.46087464136507</v>
       </c>
       <c r="U17" t="n">
-        <v>70.73010055044004</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -35963,7 +35963,7 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>39.27388527251656</v>
+        <v>39.27388527251657</v>
       </c>
       <c r="L18" t="n">
         <v>119.764688815662</v>
@@ -35975,10 +35975,10 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>122.0492982736047</v>
+        <v>116.6118913185634</v>
       </c>
       <c r="P18" t="n">
-        <v>80.12873768029932</v>
+        <v>85.56614463534061</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36118,25 +36118,25 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>33.55515894627028</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>122.0492982736047</v>
       </c>
       <c r="L20" t="n">
         <v>122.0492982736047</v>
       </c>
       <c r="M20" t="n">
-        <v>83.56285454860293</v>
+        <v>83.56285454860294</v>
       </c>
       <c r="N20" t="n">
-        <v>122.0492982736047</v>
+        <v>78.00343736515644</v>
       </c>
       <c r="O20" t="n">
-        <v>122.0492982736047</v>
+        <v>36.37425343351534</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>41.22676642120313</v>
       </c>
       <c r="Q20" t="n">
         <v>0</v>
@@ -36200,7 +36200,7 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>39.27388527251656</v>
+        <v>39.27388527251657</v>
       </c>
       <c r="L21" t="n">
         <v>119.764688815662</v>
@@ -36355,34 +36355,34 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>122.0492982736046</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>48.88611160301747</v>
+        <v>48.88611160301748</v>
       </c>
       <c r="M23" t="n">
-        <v>83.56285454860293</v>
+        <v>83.56285454860294</v>
       </c>
       <c r="N23" t="n">
-        <v>78.00343736515643</v>
+        <v>78.00343736515644</v>
       </c>
       <c r="O23" t="n">
-        <v>36.37425343351532</v>
+        <v>36.37425343351534</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>122.0492982736047</v>
       </c>
       <c r="Q23" t="n">
-        <v>20.782644499125</v>
+        <v>114.3899530917903</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>93.60730859266523</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
@@ -36437,19 +36437,19 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>39.27388527251656</v>
+        <v>39.27388527251657</v>
       </c>
       <c r="L24" t="n">
-        <v>114.3272818606206</v>
+        <v>119.764688815662</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>122.0492982736047</v>
       </c>
       <c r="N24" t="n">
-        <v>122.0492982736046</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>122.0492982736046</v>
+        <v>116.6118913185634</v>
       </c>
       <c r="P24" t="n">
         <v>85.56614463534061</v>
@@ -36595,28 +36595,28 @@
         <v>137.0462696263681</v>
       </c>
       <c r="K26" t="n">
-        <v>207.5549153019818</v>
+        <v>207.5549153019834</v>
       </c>
       <c r="L26" t="n">
         <v>261.8032688511579</v>
       </c>
       <c r="M26" t="n">
-        <v>296.4800117967433</v>
+        <v>296.4800117967434</v>
       </c>
       <c r="N26" t="n">
-        <v>290.9205946132968</v>
+        <v>290.9205946132955</v>
       </c>
       <c r="O26" t="n">
         <v>249.2914106816557</v>
       </c>
       <c r="P26" t="n">
-        <v>199.3682333132221</v>
+        <v>199.3682333132222</v>
       </c>
       <c r="Q26" t="n">
         <v>124.3641853094344</v>
       </c>
       <c r="R26" t="n">
-        <v>18.70965687631602</v>
+        <v>18.70965687631606</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36674,13 +36674,13 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>39.27388527251656</v>
+        <v>39.27388527251657</v>
       </c>
       <c r="L27" t="n">
         <v>119.764688815662</v>
       </c>
       <c r="M27" t="n">
-        <v>184.966474445232</v>
+        <v>184.9664744452321</v>
       </c>
       <c r="N27" t="n">
         <v>208.4679356963294</v>
@@ -36747,25 +36747,25 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>48.20893820521685</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>146.4463949263719</v>
+        <v>0</v>
       </c>
       <c r="L28" t="n">
         <v>0</v>
       </c>
       <c r="M28" t="n">
-        <v>0</v>
+        <v>50.6962862161196</v>
       </c>
       <c r="N28" t="n">
-        <v>41.86318376935998</v>
+        <v>0</v>
       </c>
       <c r="O28" t="n">
-        <v>0</v>
+        <v>176.1186111709637</v>
       </c>
       <c r="P28" t="n">
         <v>0</v>
@@ -36774,7 +36774,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>9.703619513865206</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -36829,7 +36829,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>137.046269626368</v>
+        <v>137.0462696263681</v>
       </c>
       <c r="K29" t="n">
         <v>207.5549153019833</v>
@@ -36844,16 +36844,16 @@
         <v>290.9205946132968</v>
       </c>
       <c r="O29" t="n">
-        <v>249.2914106816556</v>
+        <v>249.2914106816557</v>
       </c>
       <c r="P29" t="n">
-        <v>199.368233313222</v>
+        <v>199.3682333132221</v>
       </c>
       <c r="Q29" t="n">
-        <v>124.3641853094343</v>
+        <v>124.3641853094344</v>
       </c>
       <c r="R29" t="n">
-        <v>18.70965687631593</v>
+        <v>18.70965687631596</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36911,13 +36911,13 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>39.27388527251656</v>
+        <v>39.27388527251657</v>
       </c>
       <c r="L30" t="n">
         <v>119.764688815662</v>
       </c>
       <c r="M30" t="n">
-        <v>184.966474445232</v>
+        <v>184.9664744452321</v>
       </c>
       <c r="N30" t="n">
         <v>208.4679356963294</v>
@@ -36966,7 +36966,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>39.38495101890892</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -36984,7 +36984,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>48.20893820521677</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -36999,10 +36999,10 @@
         <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>12.19096752476893</v>
+        <v>197.1335658820402</v>
       </c>
       <c r="O31" t="n">
-        <v>176.1186111709636</v>
+        <v>0</v>
       </c>
       <c r="P31" t="n">
         <v>0</v>
@@ -37078,7 +37078,7 @@
         <v>296.4800117967433</v>
       </c>
       <c r="N32" t="n">
-        <v>290.9205946132968</v>
+        <v>290.9205946132962</v>
       </c>
       <c r="O32" t="n">
         <v>249.2914106816556</v>
@@ -37148,13 +37148,13 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>39.27388527251656</v>
+        <v>39.27388527251657</v>
       </c>
       <c r="L33" t="n">
         <v>119.764688815662</v>
       </c>
       <c r="M33" t="n">
-        <v>184.966474445232</v>
+        <v>184.9664744452321</v>
       </c>
       <c r="N33" t="n">
         <v>208.4679356963294</v>
@@ -37221,19 +37221,19 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>48.20893820521677</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>0</v>
+        <v>146.4463949263718</v>
       </c>
       <c r="L34" t="n">
         <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>114.3193036660389</v>
+        <v>16.08184694488387</v>
       </c>
       <c r="N34" t="n">
         <v>0</v>
@@ -37300,40 +37300,40 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>7.497149376212306</v>
       </c>
       <c r="J35" t="n">
-        <v>172.2223462900929</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>242.7309919657082</v>
       </c>
       <c r="L35" t="n">
-        <v>48.88611160301747</v>
+        <v>296.9793455148827</v>
       </c>
       <c r="M35" t="n">
-        <v>328.8902835902922</v>
+        <v>328.890283590292</v>
       </c>
       <c r="N35" t="n">
-        <v>326.0966712770216</v>
+        <v>78.00343736515644</v>
       </c>
       <c r="O35" t="n">
-        <v>36.37425343351532</v>
+        <v>284.4674873453806</v>
       </c>
       <c r="P35" t="n">
-        <v>234.5443099769469</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>155.2586618836039</v>
+        <v>17.20885905740052</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>20.82075889537852</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>25.6743249440783</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
@@ -37385,13 +37385,13 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>39.27388527251656</v>
+        <v>39.27388527251657</v>
       </c>
       <c r="L36" t="n">
         <v>119.764688815662</v>
       </c>
       <c r="M36" t="n">
-        <v>184.966474445232</v>
+        <v>184.9664744452321</v>
       </c>
       <c r="N36" t="n">
         <v>208.4679356963294</v>
@@ -37470,7 +37470,7 @@
         <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>84.46131383592936</v>
+        <v>71.72224161763127</v>
       </c>
       <c r="N37" t="n">
         <v>0</v>
@@ -37488,7 +37488,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>12.7390722182979</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -37537,10 +37537,10 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>7.497149376212306</v>
       </c>
       <c r="J38" t="n">
-        <v>172.2223462900929</v>
+        <v>172.222346290093</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -37549,28 +37549,28 @@
         <v>296.9793455148827</v>
       </c>
       <c r="M38" t="n">
-        <v>328.8902835902921</v>
+        <v>328.890283590292</v>
       </c>
       <c r="N38" t="n">
-        <v>78.00343736515643</v>
+        <v>200.3881804968373</v>
       </c>
       <c r="O38" t="n">
-        <v>240.9626383768287</v>
+        <v>36.37425343351534</v>
       </c>
       <c r="P38" t="n">
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>159.5402619731592</v>
+        <v>159.5402619731593</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>53.88573354004087</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>20.82075889537852</v>
       </c>
       <c r="T38" t="n">
-        <v>25.67432494407822</v>
+        <v>25.6743249440783</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -37622,13 +37622,13 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>39.27388527251656</v>
+        <v>39.27388527251657</v>
       </c>
       <c r="L39" t="n">
         <v>119.764688815662</v>
       </c>
       <c r="M39" t="n">
-        <v>184.966474445232</v>
+        <v>184.9664744452321</v>
       </c>
       <c r="N39" t="n">
         <v>208.4679356963294</v>
@@ -37707,10 +37707,10 @@
         <v>0</v>
       </c>
       <c r="M40" t="n">
-        <v>84.46131383592937</v>
+        <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>0</v>
+        <v>12.24515755590834</v>
       </c>
       <c r="O40" t="n">
         <v>0</v>
@@ -37722,19 +37722,19 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>44.87969617759002</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>24.35224137501548</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>2.984218727415339</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -37777,37 +37777,37 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>164.7251969138806</v>
+        <v>164.7251969138807</v>
       </c>
       <c r="K41" t="n">
-        <v>48.96968682208541</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>48.88611160301747</v>
+        <v>289.4821961386704</v>
       </c>
       <c r="M41" t="n">
-        <v>324.1589390842558</v>
+        <v>174.2928739015691</v>
       </c>
       <c r="N41" t="n">
-        <v>318.5995219008093</v>
+        <v>78.00343736515644</v>
       </c>
       <c r="O41" t="n">
-        <v>276.9703379691682</v>
+        <v>276.9703379691683</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>227.0471606007347</v>
       </c>
       <c r="Q41" t="n">
-        <v>152.0431125969469</v>
+        <v>152.043112596947</v>
       </c>
       <c r="R41" t="n">
-        <v>46.38858416382855</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>13.3236095191662</v>
+        <v>13.32360951916623</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>18.17717556786601</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -37859,13 +37859,13 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>39.27388527251656</v>
+        <v>39.27388527251657</v>
       </c>
       <c r="L42" t="n">
         <v>119.764688815662</v>
       </c>
       <c r="M42" t="n">
-        <v>184.966474445232</v>
+        <v>184.9664744452321</v>
       </c>
       <c r="N42" t="n">
         <v>208.4679356963294</v>
@@ -37932,7 +37932,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>75.88786549272938</v>
+        <v>75.8878654927294</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -37950,10 +37950,10 @@
         <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>28.4767535173878</v>
+        <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>0</v>
+        <v>28.47675351738769</v>
       </c>
       <c r="Q43" t="n">
         <v>0</v>
@@ -38014,7 +38014,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>164.7251969138806</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -38023,28 +38023,28 @@
         <v>289.4821961386704</v>
       </c>
       <c r="M44" t="n">
-        <v>205.7936589886015</v>
+        <v>305.9530961707874</v>
       </c>
       <c r="N44" t="n">
-        <v>318.5995219008093</v>
+        <v>318.5995219008094</v>
       </c>
       <c r="O44" t="n">
-        <v>36.37425343351532</v>
+        <v>36.37425343351534</v>
       </c>
       <c r="P44" t="n">
         <v>227.0471606007347</v>
       </c>
       <c r="Q44" t="n">
-        <v>152.0431125969469</v>
+        <v>152.043112596947</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>46.38858416382858</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>18.17717556786601</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -38096,13 +38096,13 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>39.27388527251656</v>
+        <v>39.27388527251657</v>
       </c>
       <c r="L45" t="n">
         <v>119.764688815662</v>
       </c>
       <c r="M45" t="n">
-        <v>184.966474445232</v>
+        <v>184.9664744452321</v>
       </c>
       <c r="N45" t="n">
         <v>208.4679356963294</v>
@@ -38160,7 +38160,7 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>101.6692023172063</v>
+        <v>87.50952701131389</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -38178,7 +38178,7 @@
         <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>2.695416692910904</v>
+        <v>0</v>
       </c>
       <c r="M46" t="n">
         <v>0</v>
@@ -38202,7 +38202,7 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>16.85509199880319</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
